--- a/plot/4_winsT_60_fcType_4.xlsx
+++ b/plot/4_winsT_60_fcType_4.xlsx
@@ -540,10 +540,10 @@
         <v>-0.01131072388674214</v>
       </c>
       <c r="L3">
-        <v>0.2986118435622739</v>
+        <v>0.2986118435622742</v>
       </c>
       <c r="M3">
-        <v>0.3139821146486464</v>
+        <v>0.313982114648647</v>
       </c>
       <c r="N3">
         <v>0.5</v>
@@ -584,10 +584,10 @@
         <v>-0.03837355581866638</v>
       </c>
       <c r="L4">
-        <v>0.3423448127451726</v>
+        <v>0.3423448127451727</v>
       </c>
       <c r="M4">
-        <v>0.4251835497686527</v>
+        <v>0.4251835497686526</v>
       </c>
       <c r="N4">
         <v>0.5</v>
@@ -628,10 +628,10 @@
         <v>0.01478589102611339</v>
       </c>
       <c r="L5">
-        <v>0.5481849466122319</v>
+        <v>0.5481849466122317</v>
       </c>
       <c r="M5">
-        <v>0.9485808566284388</v>
+        <v>0.9485808566284374</v>
       </c>
       <c r="N5">
         <v>0.5</v>
@@ -672,7 +672,7 @@
         <v>0.1444429670023891</v>
       </c>
       <c r="L6">
-        <v>0.9212924952970334</v>
+        <v>0.9212924952970326</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>0.1865891515745551</v>
       </c>
       <c r="L7">
-        <v>1.124984404101715</v>
+        <v>1.124984404101714</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>1.154780418258601</v>
       </c>
       <c r="M10">
-        <v>0.6703690264171001</v>
+        <v>0.6703690264171002</v>
       </c>
       <c r="N10">
         <v>0.5</v>
@@ -895,7 +895,7 @@
         <v>1.52042159656907</v>
       </c>
       <c r="M11">
-        <v>0.9205751094382446</v>
+        <v>0.9205751094382447</v>
       </c>
       <c r="N11">
         <v>0.5</v>
@@ -983,7 +983,7 @@
         <v>1.706160519895909</v>
       </c>
       <c r="M13">
-        <v>0.9598758148969677</v>
+        <v>0.9598758148969675</v>
       </c>
       <c r="N13">
         <v>0.5</v>
@@ -1159,7 +1159,7 @@
         <v>2.192082536748039</v>
       </c>
       <c r="M17">
-        <v>0.9900253469112241</v>
+        <v>0.990025346911225</v>
       </c>
       <c r="N17">
         <v>0.5</v>
@@ -1244,10 +1244,10 @@
         <v>0.3249618185084499</v>
       </c>
       <c r="L19">
-        <v>2.187177242494933</v>
+        <v>2.187177242494932</v>
       </c>
       <c r="M19">
-        <v>0.8608645390955803</v>
+        <v>0.8608645390955791</v>
       </c>
       <c r="N19">
         <v>0.5</v>
@@ -1291,7 +1291,7 @@
         <v>2.146021185358634</v>
       </c>
       <c r="M20">
-        <v>0.7504661554579972</v>
+        <v>0.7504661554579973</v>
       </c>
       <c r="N20">
         <v>0.5</v>
@@ -1332,10 +1332,10 @@
         <v>0.3511580613225871</v>
       </c>
       <c r="L21">
-        <v>2.157059720906948</v>
+        <v>2.157059720906949</v>
       </c>
       <c r="M21">
-        <v>0.6959655620743994</v>
+        <v>0.6959655620744005</v>
       </c>
       <c r="N21">
         <v>0.5</v>
@@ -1379,7 +1379,7 @@
         <v>2.178230022079489</v>
       </c>
       <c r="M22">
-        <v>0.7286420461351263</v>
+        <v>0.728642046135126</v>
       </c>
       <c r="N22">
         <v>0.5</v>
@@ -1467,7 +1467,7 @@
         <v>2.052890343234451</v>
       </c>
       <c r="M24">
-        <v>0.1791026745716405</v>
+        <v>0.1791026745716398</v>
       </c>
       <c r="N24">
         <v>0.5</v>
@@ -1508,10 +1508,10 @@
         <v>0.2246702620259465</v>
       </c>
       <c r="L25">
-        <v>2.02593630525012</v>
+        <v>2.025936305250119</v>
       </c>
       <c r="M25">
-        <v>0.105628332951862</v>
+        <v>0.105628332951859</v>
       </c>
       <c r="N25">
         <v>0.5</v>
@@ -1552,10 +1552,10 @@
         <v>0.2285682578737457</v>
       </c>
       <c r="L26">
-        <v>2.083901554711328</v>
+        <v>2.083901554711329</v>
       </c>
       <c r="M26">
-        <v>0.2636365150084531</v>
+        <v>0.2636365150084536</v>
       </c>
       <c r="N26">
         <v>0.5</v>
@@ -1596,10 +1596,10 @@
         <v>0.2370473133059734</v>
       </c>
       <c r="L27">
-        <v>2.090572683898191</v>
+        <v>2.090572683898192</v>
       </c>
       <c r="M27">
-        <v>0.2818214276048576</v>
+        <v>0.2818214276048581</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -1684,7 +1684,7 @@
         <v>0.3381880116602113</v>
       </c>
       <c r="L29">
-        <v>2.724290335537267</v>
+        <v>2.724290335537268</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1728,10 +1728,10 @@
         <v>0.3357394458326043</v>
       </c>
       <c r="L30">
-        <v>2.667556064816108</v>
+        <v>2.667556064816109</v>
       </c>
       <c r="M30">
-        <v>0.9230308206021774</v>
+        <v>0.9230308206021781</v>
       </c>
       <c r="N30">
         <v>0.5</v>
@@ -1816,7 +1816,7 @@
         <v>0.3601319864564507</v>
       </c>
       <c r="L32">
-        <v>2.772315155736492</v>
+        <v>2.772315155736494</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>2.71117534963518</v>
       </c>
       <c r="M33">
-        <v>0.9180847554007313</v>
+        <v>0.9180847554007298</v>
       </c>
       <c r="N33">
         <v>0.5</v>
@@ -1904,7 +1904,7 @@
         <v>0.3900652986867356</v>
       </c>
       <c r="L34">
-        <v>2.796996293262469</v>
+        <v>2.796996293262468</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>0.3915765218390513</v>
       </c>
       <c r="L35">
-        <v>2.758869248948171</v>
+        <v>2.75886924894817</v>
       </c>
       <c r="M35">
-        <v>0.9465329888820052</v>
+        <v>0.946532988882004</v>
       </c>
       <c r="N35">
         <v>0.5</v>
@@ -1995,7 +1995,7 @@
         <v>2.575460147880898</v>
       </c>
       <c r="M36">
-        <v>0.6863975914098702</v>
+        <v>0.6863975914098704</v>
       </c>
       <c r="N36">
         <v>0.5</v>
@@ -2083,7 +2083,7 @@
         <v>2.342661533313459</v>
       </c>
       <c r="M38">
-        <v>0.1165908497445143</v>
+        <v>0.1165908497445145</v>
       </c>
       <c r="N38">
         <v>0.5</v>
@@ -2171,7 +2171,7 @@
         <v>2.114932239846353</v>
       </c>
       <c r="M40">
-        <v>0.05436192185876182</v>
+        <v>0.05436192185876127</v>
       </c>
       <c r="N40">
         <v>0.5</v>
@@ -2300,10 +2300,10 @@
         <v>0.1312357005356789</v>
       </c>
       <c r="L43">
-        <v>2.023524077582632</v>
+        <v>2.023524077582631</v>
       </c>
       <c r="M43">
-        <v>0.1104835766026072</v>
+        <v>0.110483576602606</v>
       </c>
       <c r="N43">
         <v>0.5</v>
@@ -2347,7 +2347,7 @@
         <v>1.977516301611869</v>
       </c>
       <c r="M44">
-        <v>0.06021343766783462</v>
+        <v>0.06021343766783447</v>
       </c>
       <c r="N44">
         <v>0.5</v>
@@ -2391,7 +2391,7 @@
         <v>1.940390626983836</v>
       </c>
       <c r="M45">
-        <v>0.01996385161369453</v>
+        <v>0.01996385161369522</v>
       </c>
       <c r="N45">
         <v>0.5</v>
@@ -2435,7 +2435,7 @@
         <v>2.178377937784655</v>
       </c>
       <c r="M46">
-        <v>0.6043338488776548</v>
+        <v>0.6043338488776551</v>
       </c>
       <c r="N46">
         <v>0.5</v>
@@ -2520,7 +2520,7 @@
         <v>0.1917389582471245</v>
       </c>
       <c r="L48">
-        <v>2.726113006708476</v>
+        <v>2.726113006708477</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2564,10 +2564,10 @@
         <v>0.1794652303583231</v>
       </c>
       <c r="L49">
-        <v>2.47613834979083</v>
+        <v>2.476138349790829</v>
       </c>
       <c r="M49">
-        <v>0.6870070556369819</v>
+        <v>0.6870070556369804</v>
       </c>
       <c r="N49">
         <v>0.5</v>
@@ -2608,10 +2608,10 @@
         <v>0.1696975679500248</v>
       </c>
       <c r="L50">
-        <v>2.400808409638297</v>
+        <v>2.400808409638298</v>
       </c>
       <c r="M50">
-        <v>0.592686535077976</v>
+        <v>0.5926865350779761</v>
       </c>
       <c r="N50">
         <v>0.5</v>
@@ -2655,7 +2655,7 @@
         <v>2.449640140472836</v>
       </c>
       <c r="M51">
-        <v>0.6538286820488183</v>
+        <v>0.6538286820488178</v>
       </c>
       <c r="N51">
         <v>0.5</v>
@@ -2696,10 +2696,10 @@
         <v>0.1771332903194728</v>
       </c>
       <c r="L52">
-        <v>2.402640569661999</v>
+        <v>2.402640569661998</v>
       </c>
       <c r="M52">
-        <v>0.5883120483855384</v>
+        <v>0.5883120483855372</v>
       </c>
       <c r="N52">
         <v>0.5</v>
@@ -2740,10 +2740,10 @@
         <v>0.1775413832977026</v>
       </c>
       <c r="L53">
-        <v>2.349181388970869</v>
+        <v>2.349181388970867</v>
       </c>
       <c r="M53">
-        <v>0.5202737920361842</v>
+        <v>0.5202737920361813</v>
       </c>
       <c r="N53">
         <v>0.5</v>
@@ -2784,10 +2784,10 @@
         <v>0.1723466629917456</v>
       </c>
       <c r="L54">
-        <v>2.239656295483968</v>
+        <v>2.239656295483969</v>
       </c>
       <c r="M54">
-        <v>0.3808796544716103</v>
+        <v>0.3808796544716107</v>
       </c>
       <c r="N54">
         <v>0.5</v>
@@ -2828,10 +2828,10 @@
         <v>0.1752549699843444</v>
       </c>
       <c r="L55">
-        <v>2.288125663626273</v>
+        <v>2.288125663626274</v>
       </c>
       <c r="M55">
-        <v>0.2003664400332234</v>
+        <v>0.2003664400332242</v>
       </c>
       <c r="N55">
         <v>0.5</v>
@@ -2875,7 +2875,7 @@
         <v>2.260664758550534</v>
       </c>
       <c r="M56">
-        <v>0.04318670619978424</v>
+        <v>0.04318670619978154</v>
       </c>
       <c r="N56">
         <v>0.5</v>
@@ -2916,10 +2916,10 @@
         <v>0.1961721462721981</v>
       </c>
       <c r="L57">
-        <v>2.468380934178926</v>
+        <v>2.468380934178927</v>
       </c>
       <c r="M57">
-        <v>0.4701849792948957</v>
+        <v>0.4701849792948952</v>
       </c>
       <c r="N57">
         <v>0.5</v>
@@ -3007,7 +3007,7 @@
         <v>2.296125609173782</v>
       </c>
       <c r="M59">
-        <v>0.196326482327051</v>
+        <v>0.196326482327047</v>
       </c>
       <c r="N59">
         <v>0.5</v>
@@ -3051,7 +3051,7 @@
         <v>2.502010759736776</v>
       </c>
       <c r="M60">
-        <v>0.912125997714094</v>
+        <v>0.9121259977140938</v>
       </c>
       <c r="N60">
         <v>0.5</v>
@@ -3092,7 +3092,7 @@
         <v>0.1679165255253398</v>
       </c>
       <c r="L61">
-        <v>2.590045966554999</v>
+        <v>2.590045966554998</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>0.183091331015646</v>
       </c>
       <c r="L62">
-        <v>2.977198875936344</v>
+        <v>2.977198875936345</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>2.976950164167028</v>
       </c>
       <c r="M63">
-        <v>0.9996627831722422</v>
+        <v>0.9996627831722411</v>
       </c>
       <c r="N63">
         <v>0.5</v>
@@ -3224,7 +3224,7 @@
         <v>0.1885020603320309</v>
       </c>
       <c r="L64">
-        <v>3.203452985904227</v>
+        <v>3.203452985904225</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3268,10 +3268,10 @@
         <v>0.1798046324663373</v>
       </c>
       <c r="L65">
-        <v>3.031744770325284</v>
+        <v>3.031744770325283</v>
       </c>
       <c r="M65">
-        <v>0.817871913758501</v>
+        <v>0.8178719137585022</v>
       </c>
       <c r="N65">
         <v>0.5</v>
@@ -3312,10 +3312,10 @@
         <v>0.1466518935939667</v>
       </c>
       <c r="L66">
-        <v>2.670251194986684</v>
+        <v>2.670251194986685</v>
       </c>
       <c r="M66">
-        <v>0.4123380330053126</v>
+        <v>0.4123380330053142</v>
       </c>
       <c r="N66">
         <v>0.5</v>
@@ -3359,7 +3359,7 @@
         <v>2.573921837197652</v>
       </c>
       <c r="M67">
-        <v>0.3061697851826199</v>
+        <v>0.3061697851826208</v>
       </c>
       <c r="N67">
         <v>0.5</v>
@@ -3403,7 +3403,7 @@
         <v>2.544097172767845</v>
       </c>
       <c r="M68">
-        <v>0.2732988885308723</v>
+        <v>0.2732988885308737</v>
       </c>
       <c r="N68">
         <v>0.5</v>
@@ -3444,10 +3444,10 @@
         <v>0.1395936606873447</v>
       </c>
       <c r="L69">
-        <v>2.650207734720309</v>
+        <v>2.65020773472031</v>
       </c>
       <c r="M69">
-        <v>0.2112746701795447</v>
+        <v>0.2112746701795458</v>
       </c>
       <c r="N69">
         <v>0.5</v>
@@ -3488,10 +3488,10 @@
         <v>0.1755745856578</v>
       </c>
       <c r="L70">
-        <v>2.717277230179613</v>
+        <v>2.717277230179612</v>
       </c>
       <c r="M70">
-        <v>0.2626503838466155</v>
+        <v>0.2626503838466137</v>
       </c>
       <c r="N70">
         <v>0.5</v>
@@ -3579,7 +3579,7 @@
         <v>2.662685936127061</v>
       </c>
       <c r="M72">
-        <v>0.1873293027197899</v>
+        <v>0.1873293027197911</v>
       </c>
       <c r="N72">
         <v>0.5</v>
@@ -3620,10 +3620,10 @@
         <v>0.1404646873553047</v>
       </c>
       <c r="L73">
-        <v>2.78387595200828</v>
+        <v>2.783875952008281</v>
       </c>
       <c r="M73">
-        <v>0.3694549976011151</v>
+        <v>0.3694549976011167</v>
       </c>
       <c r="N73">
         <v>0.5</v>
@@ -3664,7 +3664,7 @@
         <v>0.02874003897307507</v>
       </c>
       <c r="L74">
-        <v>2.17239107483217</v>
+        <v>2.172391074832169</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0.05906126186453282</v>
       </c>
       <c r="L75">
-        <v>2.763664925308053</v>
+        <v>2.76366492530805</v>
       </c>
       <c r="M75">
-        <v>0.9669476262543666</v>
+        <v>0.9669476262543616</v>
       </c>
       <c r="N75">
         <v>0.5</v>
@@ -3752,7 +3752,7 @@
         <v>0.05989431602387466</v>
       </c>
       <c r="L76">
-        <v>3.39098393210562</v>
+        <v>3.390983932105621</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -3840,10 +3840,10 @@
         <v>0.05969489022210268</v>
       </c>
       <c r="L78">
-        <v>3.345936839758774</v>
+        <v>3.345936839758775</v>
       </c>
       <c r="M78">
-        <v>0.9567602938908037</v>
+        <v>0.9567602938908041</v>
       </c>
       <c r="N78">
         <v>0.5</v>
@@ -3887,7 +3887,7 @@
         <v>2.895334522539212</v>
       </c>
       <c r="M79">
-        <v>0.5893963458151802</v>
+        <v>0.58939634581518</v>
       </c>
       <c r="N79">
         <v>0.5</v>
@@ -3928,10 +3928,10 @@
         <v>0.1251123440855242</v>
       </c>
       <c r="L80">
-        <v>2.82361525515969</v>
+        <v>2.823615255159688</v>
       </c>
       <c r="M80">
-        <v>0.5309255563611733</v>
+        <v>0.5309255563611717</v>
       </c>
       <c r="N80">
         <v>0.5</v>
@@ -4019,7 +4019,7 @@
         <v>3.208719602614443</v>
       </c>
       <c r="M82">
-        <v>0.8448907715758343</v>
+        <v>0.8448907715758341</v>
       </c>
       <c r="N82">
         <v>0.5</v>
@@ -4060,10 +4060,10 @@
         <v>0.2294449178381197</v>
       </c>
       <c r="L83">
-        <v>2.894170816801042</v>
+        <v>2.894170816801041</v>
       </c>
       <c r="M83">
-        <v>0.5884476078304079</v>
+        <v>0.5884476078304077</v>
       </c>
       <c r="N83">
         <v>0.5</v>
@@ -4107,7 +4107,7 @@
         <v>2.89564087085957</v>
       </c>
       <c r="M84">
-        <v>0.2077350491303867</v>
+        <v>0.2077350491303899</v>
       </c>
       <c r="N84">
         <v>0.5</v>
@@ -4151,7 +4151,7 @@
         <v>2.9063796512274</v>
       </c>
       <c r="M85">
-        <v>0.1438483521661989</v>
+        <v>0.1438483521662021</v>
       </c>
       <c r="N85">
         <v>0.5</v>
@@ -4195,7 +4195,7 @@
         <v>2.909336602348499</v>
       </c>
       <c r="M86">
-        <v>0.1489876701146819</v>
+        <v>0.1489876701146843</v>
       </c>
       <c r="N86">
         <v>0.5</v>
@@ -4236,10 +4236,10 @@
         <v>0.1926905176843939</v>
       </c>
       <c r="L87">
-        <v>2.875259888269768</v>
+        <v>2.875259888269767</v>
       </c>
       <c r="M87">
-        <v>0.09887516547821464</v>
+        <v>0.09887516547821659</v>
       </c>
       <c r="N87">
         <v>0.5</v>
@@ -4280,10 +4280,10 @@
         <v>0.2036125207209654</v>
       </c>
       <c r="L88">
-        <v>2.908054822565763</v>
+        <v>2.908054822565765</v>
       </c>
       <c r="M88">
-        <v>0.2192641240332778</v>
+        <v>0.2192641240332858</v>
       </c>
       <c r="N88">
         <v>0.5</v>
@@ -4327,7 +4327,7 @@
         <v>2.953027165997156</v>
       </c>
       <c r="M89">
-        <v>0.3360437546155491</v>
+        <v>0.3360437546155529</v>
       </c>
       <c r="N89">
         <v>0.5</v>
@@ -4371,7 +4371,7 @@
         <v>2.932463436948679</v>
       </c>
       <c r="M90">
-        <v>0.1715456057153101</v>
+        <v>0.1715456057153123</v>
       </c>
       <c r="N90">
         <v>0.5</v>
@@ -4415,7 +4415,7 @@
         <v>3.067699779358131</v>
       </c>
       <c r="M91">
-        <v>0.5771008694904931</v>
+        <v>0.5771008694904929</v>
       </c>
       <c r="N91">
         <v>0.5</v>
@@ -4456,7 +4456,7 @@
         <v>0.2189566749090486</v>
       </c>
       <c r="L92">
-        <v>3.178206011575618</v>
+        <v>3.178206011575617</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>0.2241021385507739</v>
       </c>
       <c r="L93">
-        <v>3.350505793289606</v>
+        <v>3.350505793289605</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>0.2055946057477293</v>
       </c>
       <c r="L94">
-        <v>3.803841688418218</v>
+        <v>3.80384168841822</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -4588,7 +4588,7 @@
         <v>0.2086421131541066</v>
       </c>
       <c r="L95">
-        <v>4.054531794286616</v>
+        <v>4.054531794286615</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -4632,7 +4632,7 @@
         <v>0.1897494145622655</v>
       </c>
       <c r="L96">
-        <v>5.230173131827627</v>
+        <v>5.230173131827629</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>3.098179378722652</v>
       </c>
       <c r="M97">
-        <v>0.08187548213997944</v>
+        <v>0.08187548213997865</v>
       </c>
       <c r="N97">
         <v>0.5</v>
@@ -4764,7 +4764,7 @@
         <v>0.159680477597031</v>
       </c>
       <c r="L99">
-        <v>5.70170713386769</v>
+        <v>5.701707133867689</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>4.731523588265611</v>
       </c>
       <c r="M100">
-        <v>0.6316701455138026</v>
+        <v>0.631670145513803</v>
       </c>
       <c r="N100">
         <v>0.5</v>
@@ -4940,10 +4940,10 @@
         <v>-0.1577991528592169</v>
       </c>
       <c r="L103">
-        <v>2.538994766248407</v>
+        <v>2.538994766248408</v>
       </c>
       <c r="M103">
-        <v>0.005334059488245732</v>
+        <v>0.005334059488245873</v>
       </c>
       <c r="N103">
         <v>0.5</v>
@@ -4984,10 +4984,10 @@
         <v>-0.1084605480002102</v>
       </c>
       <c r="L104">
-        <v>3.033901818523849</v>
+        <v>3.033901818523848</v>
       </c>
       <c r="M104">
-        <v>0.1609812165479325</v>
+        <v>0.1609812165479323</v>
       </c>
       <c r="N104">
         <v>0.5</v>
@@ -5031,7 +5031,7 @@
         <v>3.06832900112027</v>
       </c>
       <c r="M105">
-        <v>0.1718084881983784</v>
+        <v>0.1718084881983786</v>
       </c>
       <c r="N105">
         <v>0.5</v>
@@ -5072,10 +5072,10 @@
         <v>-0.09973192615452962</v>
       </c>
       <c r="L106">
-        <v>3.145002087194758</v>
+        <v>3.145002087194757</v>
       </c>
       <c r="M106">
-        <v>0.1959220016664485</v>
+        <v>0.1959220016664482</v>
       </c>
       <c r="N106">
         <v>0.5</v>
@@ -5119,7 +5119,7 @@
         <v>3.270647979009778</v>
       </c>
       <c r="M107">
-        <v>0.2354373526143123</v>
+        <v>0.2354373526143124</v>
       </c>
       <c r="N107">
         <v>0.5</v>
@@ -5163,7 +5163,7 @@
         <v>3.519697261052357</v>
       </c>
       <c r="M108">
-        <v>0.3137627927943593</v>
+        <v>0.3137627927943594</v>
       </c>
       <c r="N108">
         <v>0.5</v>
@@ -5204,10 +5204,10 @@
         <v>-0.07162165587520603</v>
       </c>
       <c r="L109">
-        <v>3.229763214280527</v>
+        <v>3.229763214280526</v>
       </c>
       <c r="M109">
-        <v>0.3203133795983741</v>
+        <v>0.3203133795983739</v>
       </c>
       <c r="N109">
         <v>0.5</v>
@@ -5295,7 +5295,7 @@
         <v>3.29124333493577</v>
       </c>
       <c r="M111">
-        <v>0.7710109400470847</v>
+        <v>0.7710109400470851</v>
       </c>
       <c r="N111">
         <v>0.5</v>
@@ -5336,10 +5336,10 @@
         <v>-0.05622311214286459</v>
       </c>
       <c r="L112">
-        <v>3.335222269845415</v>
+        <v>3.335222269845416</v>
       </c>
       <c r="M112">
-        <v>0.81189505259307</v>
+        <v>0.8118950525930704</v>
       </c>
       <c r="N112">
         <v>0.5</v>
@@ -5380,7 +5380,7 @@
         <v>-0.07643421255789346</v>
       </c>
       <c r="L113">
-        <v>2.932848059503737</v>
+        <v>2.932848059503736</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -5424,7 +5424,7 @@
         <v>-0.07684880183870051</v>
       </c>
       <c r="L114">
-        <v>2.802026371773722</v>
+        <v>2.802026371773723</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>-0.212102646150085</v>
       </c>
       <c r="L117">
-        <v>1.494683669780275</v>
+        <v>1.494683669780276</v>
       </c>
       <c r="M117">
-        <v>0.03431902785442916</v>
+        <v>0.03431902785442928</v>
       </c>
       <c r="N117">
         <v>0.5</v>
@@ -5603,7 +5603,7 @@
         <v>1.633566375521161</v>
       </c>
       <c r="M118">
-        <v>0.110247569114235</v>
+        <v>0.1102475691142348</v>
       </c>
       <c r="N118">
         <v>0.5</v>
@@ -5644,7 +5644,7 @@
         <v>-0.2385076624975324</v>
       </c>
       <c r="L119">
-        <v>1.121351701055091</v>
+        <v>1.12135170105509</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>-0.2648288455913118</v>
       </c>
       <c r="L120">
-        <v>0.7297592008560981</v>
+        <v>0.729759200856098</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0.7752895458031844</v>
       </c>
       <c r="M121">
-        <v>0.01747495310488048</v>
+        <v>0.01747495310488052</v>
       </c>
       <c r="N121">
         <v>0.5</v>
@@ -5776,10 +5776,10 @@
         <v>-0.2693713231711939</v>
       </c>
       <c r="L122">
-        <v>0.8210523041056207</v>
+        <v>0.8210523041056205</v>
       </c>
       <c r="M122">
-        <v>0.04143868409627501</v>
+        <v>0.04143868409627496</v>
       </c>
       <c r="N122">
         <v>0.5</v>
@@ -5864,7 +5864,7 @@
         <v>-0.329413231731115</v>
       </c>
       <c r="L124">
-        <v>0.1991439782565175</v>
+        <v>0.1991439782565179</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -5908,10 +5908,10 @@
         <v>-0.2705198101834349</v>
       </c>
       <c r="L125">
-        <v>0.4649903362088407</v>
+        <v>0.4649903362088404</v>
       </c>
       <c r="M125">
-        <v>0.1853333846845086</v>
+        <v>0.1853333846845081</v>
       </c>
       <c r="N125">
         <v>0.5</v>
@@ -5952,10 +5952,10 @@
         <v>-0.2580663689088413</v>
       </c>
       <c r="L126">
-        <v>0.5456082242262605</v>
+        <v>0.5456082242262607</v>
       </c>
       <c r="M126">
-        <v>0.2415357196251461</v>
+        <v>0.241535719625146</v>
       </c>
       <c r="N126">
         <v>0.5</v>
@@ -5996,10 +5996,10 @@
         <v>-0.2665692200064777</v>
       </c>
       <c r="L127">
-        <v>0.384478632020634</v>
+        <v>0.3844786320206339</v>
       </c>
       <c r="M127">
-        <v>0.1292050752397191</v>
+        <v>0.1292050752397187</v>
       </c>
       <c r="N127">
         <v>0.5</v>
@@ -6040,10 +6040,10 @@
         <v>-0.2673220830898794</v>
       </c>
       <c r="L128">
-        <v>0.377180869378976</v>
+        <v>0.3771808693789757</v>
       </c>
       <c r="M128">
-        <v>0.1930550858782441</v>
+        <v>0.1930550858782435</v>
       </c>
       <c r="N128">
         <v>0.5</v>
@@ -6084,10 +6084,10 @@
         <v>-0.2756399971901332</v>
       </c>
       <c r="L129">
-        <v>0.3049327934779074</v>
+        <v>0.3049327934779073</v>
       </c>
       <c r="M129">
-        <v>0.1701035519615443</v>
+        <v>0.1701035519615436</v>
       </c>
       <c r="N129">
         <v>0.5</v>
@@ -6128,10 +6128,10 @@
         <v>-0.2751283075059404</v>
       </c>
       <c r="L130">
-        <v>0.3043167605357523</v>
+        <v>0.3043167605357522</v>
       </c>
       <c r="M130">
-        <v>0.1691129993084438</v>
+        <v>0.1691129993084432</v>
       </c>
       <c r="N130">
         <v>0.5</v>
@@ -6172,7 +6172,7 @@
         <v>-0.2998798432557925</v>
       </c>
       <c r="L131">
-        <v>0.06800709478787678</v>
+        <v>0.06800709478787716</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>-0.3054279066762311</v>
       </c>
       <c r="L132">
-        <v>0.02465137526315383</v>
+        <v>0.02465137526315362</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>-0.3160135349350006</v>
       </c>
       <c r="L133">
-        <v>-0.07376394930609224</v>
+        <v>-0.0737639493060923</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -6307,7 +6307,7 @@
         <v>0.1585601896778377</v>
       </c>
       <c r="M134">
-        <v>0.2570439656973721</v>
+        <v>0.2570439656973724</v>
       </c>
       <c r="N134">
         <v>0.5</v>
@@ -6348,10 +6348,10 @@
         <v>-0.2989871561493474</v>
       </c>
       <c r="L135">
-        <v>0.07854096729970096</v>
+        <v>0.078540967299701</v>
       </c>
       <c r="M135">
-        <v>0.1034434850867341</v>
+        <v>0.1034434850867345</v>
       </c>
       <c r="N135">
         <v>0.5</v>
@@ -6392,10 +6392,10 @@
         <v>-0.290431807039037</v>
       </c>
       <c r="L136">
-        <v>0.02851622884364317</v>
+        <v>0.02851622884364329</v>
       </c>
       <c r="M136">
-        <v>0.01074085830883626</v>
+        <v>0.01074085830883716</v>
       </c>
       <c r="N136">
         <v>0.5</v>
@@ -6436,7 +6436,7 @@
         <v>-0.2922215674353877</v>
       </c>
       <c r="L137">
-        <v>-0.02657113685383152</v>
+        <v>-0.02657113685383154</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -6480,10 +6480,10 @@
         <v>-0.2782907569307714</v>
       </c>
       <c r="L138">
-        <v>0.04414010438046904</v>
+        <v>0.04414010438046896</v>
       </c>
       <c r="M138">
-        <v>0.06953271908444107</v>
+        <v>0.06953271908444152</v>
       </c>
       <c r="N138">
         <v>0.5</v>
@@ -6524,10 +6524,10 @@
         <v>-0.2739665253556518</v>
       </c>
       <c r="L139">
-        <v>0.02543545473437823</v>
+        <v>0.02543545473437828</v>
       </c>
       <c r="M139">
-        <v>0.002803634316274536</v>
+        <v>0.002803634316275453</v>
       </c>
       <c r="N139">
         <v>0.5</v>
@@ -6568,10 +6568,10 @@
         <v>-0.2680061980869344</v>
       </c>
       <c r="L140">
-        <v>0.05190698547809298</v>
+        <v>0.05190698547809316</v>
       </c>
       <c r="M140">
-        <v>0.203538582087173</v>
+        <v>0.2035385820871756</v>
       </c>
       <c r="N140">
         <v>0.5</v>
@@ -6612,7 +6612,7 @@
         <v>-0.2654624385321492</v>
       </c>
       <c r="L141">
-        <v>0.003365792479480612</v>
+        <v>0.003365792479480477</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>-0.3013453521002573</v>
       </c>
       <c r="L142">
-        <v>-0.209752622914675</v>
+        <v>-0.2097526229146748</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -6744,7 +6744,7 @@
         <v>-0.3024362742091123</v>
       </c>
       <c r="L144">
-        <v>-0.3827337806161435</v>
+        <v>-0.3827337806161437</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -6788,7 +6788,7 @@
         <v>-0.2978187106794279</v>
       </c>
       <c r="L145">
-        <v>-0.3839402876208853</v>
+        <v>-0.3839402876208851</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -6832,7 +6832,7 @@
         <v>-0.2906722763396122</v>
       </c>
       <c r="L146">
-        <v>-0.4439329279404835</v>
+        <v>-0.4439329279404836</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -6879,7 +6879,7 @@
         <v>-0.318706046274852</v>
       </c>
       <c r="M147">
-        <v>0.4652544258500709</v>
+        <v>0.4652544258500712</v>
       </c>
       <c r="N147">
         <v>0.5</v>
@@ -6920,7 +6920,7 @@
         <v>-0.2981818800249758</v>
       </c>
       <c r="L148">
-        <v>-0.5764201765558423</v>
+        <v>-0.5764201765558421</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>-0.306825960634692</v>
       </c>
       <c r="L149">
-        <v>-0.788954905580193</v>
+        <v>-0.7889549055801921</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -7008,7 +7008,7 @@
         <v>-0.3110605484546525</v>
       </c>
       <c r="L150">
-        <v>-0.9034747984462465</v>
+        <v>-0.9034747984462459</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>-0.3246985494343166</v>
       </c>
       <c r="L152">
-        <v>-1.471063990706943</v>
+        <v>-1.471063990706942</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -7228,7 +7228,7 @@
         <v>-0.3433667520876507</v>
       </c>
       <c r="L155">
-        <v>-2.312103345767059</v>
+        <v>-2.312103345767057</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>-0.3249565909303487</v>
       </c>
       <c r="L156">
-        <v>-2.800996093747018</v>
+        <v>-2.800996093747017</v>
       </c>
       <c r="M156">
         <v>1</v>
@@ -7316,7 +7316,7 @@
         <v>-0.3288674797565752</v>
       </c>
       <c r="L157">
-        <v>-3.323095418084019</v>
+        <v>-3.32309541808402</v>
       </c>
       <c r="M157">
         <v>1</v>
@@ -7360,10 +7360,10 @@
         <v>-0.2545228290393552</v>
       </c>
       <c r="L158">
-        <v>-2.549313666856974</v>
+        <v>-2.549313666856973</v>
       </c>
       <c r="M158">
-        <v>0.6946571244139418</v>
+        <v>0.6946571244139413</v>
       </c>
       <c r="N158">
         <v>0.5</v>
@@ -7407,7 +7407,7 @@
         <v>-2.251890506130974</v>
       </c>
       <c r="M159">
-        <v>0.5572839381268748</v>
+        <v>0.5572839381268747</v>
       </c>
       <c r="N159">
         <v>0.5</v>
@@ -7448,10 +7448,10 @@
         <v>-0.1618532732519117</v>
       </c>
       <c r="L160">
-        <v>-1.372864903580655</v>
+        <v>-1.372864903580654</v>
       </c>
       <c r="M160">
-        <v>0.07613809992376969</v>
+        <v>0.07613809992376974</v>
       </c>
       <c r="N160">
         <v>0.5</v>
@@ -7492,7 +7492,7 @@
         <v>-0.03411606668852285</v>
       </c>
       <c r="L161">
-        <v>-0.4468454512461995</v>
+        <v>-0.4468454512461997</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -7536,10 +7536,10 @@
         <v>-0.03658899802537757</v>
       </c>
       <c r="L162">
-        <v>-0.466994289392031</v>
+        <v>-0.4669942893920316</v>
       </c>
       <c r="M162">
-        <v>0.007005245850722571</v>
+        <v>0.007005245850722685</v>
       </c>
       <c r="N162">
         <v>0.5</v>
@@ -7580,10 +7580,10 @@
         <v>-0.04575461949345249</v>
       </c>
       <c r="L163">
-        <v>-0.6096612283858144</v>
+        <v>-0.6096612283858149</v>
       </c>
       <c r="M163">
-        <v>0.05660696358690143</v>
+        <v>0.05660696358690154</v>
       </c>
       <c r="N163">
         <v>0.5</v>
@@ -7624,10 +7624,10 @@
         <v>-0.083191198049326</v>
       </c>
       <c r="L164">
-        <v>-0.5613841863503559</v>
+        <v>-0.5613841863503557</v>
       </c>
       <c r="M164">
-        <v>0.03982224647535818</v>
+        <v>0.03982224647535802</v>
       </c>
       <c r="N164">
         <v>0.5</v>
@@ -7668,10 +7668,10 @@
         <v>-0.08648680509482981</v>
       </c>
       <c r="L165">
-        <v>-0.5833119055874835</v>
+        <v>-0.583311905587483</v>
       </c>
       <c r="M165">
-        <v>0.04744596468133703</v>
+        <v>0.04744596468133679</v>
       </c>
       <c r="N165">
         <v>0.5</v>
@@ -7712,10 +7712,10 @@
         <v>-0.08917116136503467</v>
       </c>
       <c r="L166">
-        <v>-0.5837965107598403</v>
+        <v>-0.5837965107598395</v>
       </c>
       <c r="M166">
-        <v>0.04761444974972266</v>
+        <v>0.0476144497497223</v>
       </c>
       <c r="N166">
         <v>0.5</v>
@@ -7756,10 +7756,10 @@
         <v>-0.1060769518920199</v>
       </c>
       <c r="L167">
-        <v>-0.8272496324785373</v>
+        <v>-0.8272496324785368</v>
       </c>
       <c r="M167">
-        <v>0.1809321912254588</v>
+        <v>0.1809321912254586</v>
       </c>
       <c r="N167">
         <v>0.5</v>
@@ -7844,10 +7844,10 @@
         <v>-0.1282414049458066</v>
       </c>
       <c r="L169">
-        <v>-0.9170192675472773</v>
+        <v>-0.9170192675472774</v>
       </c>
       <c r="M169">
-        <v>0.5077364358986086</v>
+        <v>0.5077364358986088</v>
       </c>
       <c r="N169">
         <v>0.5</v>
@@ -8023,7 +8023,7 @@
         <v>-1.587449887718385</v>
       </c>
       <c r="M173">
-        <v>0.8053837653228823</v>
+        <v>0.8053837653228819</v>
       </c>
       <c r="N173">
         <v>0.5</v>
@@ -8064,10 +8064,10 @@
         <v>-0.2002069241976969</v>
       </c>
       <c r="L174">
-        <v>-1.523920162391837</v>
+        <v>-1.523920162391838</v>
       </c>
       <c r="M174">
-        <v>0.751236125130443</v>
+        <v>0.751236125130444</v>
       </c>
       <c r="N174">
         <v>0.5</v>
@@ -8108,10 +8108,10 @@
         <v>-0.1391188944577686</v>
       </c>
       <c r="L175">
-        <v>-0.9765680394153329</v>
+        <v>-0.976568039415333</v>
       </c>
       <c r="M175">
-        <v>0.313816517057161</v>
+        <v>0.3138165170571615</v>
       </c>
       <c r="N175">
         <v>0.5</v>
@@ -8152,7 +8152,7 @@
         <v>-0.03807131875775038</v>
       </c>
       <c r="L176">
-        <v>-0.361543829854892</v>
+        <v>-0.3615438298548916</v>
       </c>
       <c r="M176">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>-0.04497271937669686</v>
       </c>
       <c r="L177">
-        <v>-0.2836054246820757</v>
+        <v>-0.2836054246820752</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -8240,10 +8240,10 @@
         <v>-0.06182520314790586</v>
       </c>
       <c r="L178">
-        <v>-0.4856195347482838</v>
+        <v>-0.4856195347482836</v>
       </c>
       <c r="M178">
-        <v>0.1301815815759132</v>
+        <v>0.1301815815759133</v>
       </c>
       <c r="N178">
         <v>0.5</v>
@@ -8284,7 +8284,7 @@
         <v>0.04962517376689772</v>
       </c>
       <c r="L179">
-        <v>-0.1482536649795718</v>
+        <v>-0.148253664979573</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -8328,10 +8328,10 @@
         <v>0.1083119914956144</v>
       </c>
       <c r="L180">
-        <v>-0.1917647884456929</v>
+        <v>-0.191764788445693</v>
       </c>
       <c r="M180">
-        <v>0.02578988742575694</v>
+        <v>0.02578988742575629</v>
       </c>
       <c r="N180">
         <v>0.5</v>
@@ -8372,7 +8372,7 @@
         <v>0.1025369948988713</v>
       </c>
       <c r="L181">
-        <v>-0.04815103739000585</v>
+        <v>-0.04815103739000554</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         <v>-0.1366458972982318</v>
       </c>
       <c r="M182">
-        <v>0.05749036965066747</v>
+        <v>0.05749036965066765</v>
       </c>
       <c r="N182">
         <v>0.5</v>
@@ -8460,10 +8460,10 @@
         <v>0.1012509342642257</v>
       </c>
       <c r="L183">
-        <v>-0.3102254216358777</v>
+        <v>-0.310225421635878</v>
       </c>
       <c r="M183">
-        <v>0.177584948625041</v>
+        <v>0.1775849486250412</v>
       </c>
       <c r="N183">
         <v>0.5</v>
@@ -8507,7 +8507,7 @@
         <v>-0.1356211147315413</v>
       </c>
       <c r="M184">
-        <v>0.09421421317222854</v>
+        <v>0.09421421317222875</v>
       </c>
       <c r="N184">
         <v>0.5</v>
@@ -8548,7 +8548,7 @@
         <v>0.1862423354417542</v>
       </c>
       <c r="L185">
-        <v>0.5240887324959358</v>
+        <v>0.5240887324959357</v>
       </c>
       <c r="M185">
         <v>1</v>
@@ -8592,7 +8592,7 @@
         <v>0.1547453091014457</v>
       </c>
       <c r="L186">
-        <v>0.560064906418144</v>
+        <v>0.5600649064181438</v>
       </c>
       <c r="M186">
         <v>1</v>
@@ -8636,7 +8636,7 @@
         <v>0.1932710069062355</v>
       </c>
       <c r="L187">
-        <v>0.8059507567604776</v>
+        <v>0.8059507567604779</v>
       </c>
       <c r="M187">
         <v>1</v>
@@ -8680,10 +8680,10 @@
         <v>0.1864734905982043</v>
       </c>
       <c r="L188">
-        <v>0.7350509066247463</v>
+        <v>0.7350509066247458</v>
       </c>
       <c r="M188">
-        <v>0.7484590188382803</v>
+        <v>0.7484590188382778</v>
       </c>
       <c r="N188">
         <v>0.5</v>
@@ -8718,13 +8718,13 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>-0.0230607912042827</v>
+        <v>-0.02306079120428271</v>
       </c>
       <c r="K189">
         <v>0.1677179019042184</v>
       </c>
       <c r="L189">
-        <v>0.4882062901666518</v>
+        <v>0.4882062901666521</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>0.1463427745637049</v>
       </c>
       <c r="L190">
-        <v>0.2556794058516856</v>
+        <v>0.2556794058516857</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -8812,10 +8812,10 @@
         <v>0.1968926544247425</v>
       </c>
       <c r="L191">
-        <v>0.3838308850531345</v>
+        <v>0.3838308850531342</v>
       </c>
       <c r="M191">
-        <v>0.232887790705081</v>
+        <v>0.2328877907050801</v>
       </c>
       <c r="N191">
         <v>0.5</v>
@@ -8856,10 +8856,10 @@
         <v>0.1858494941734458</v>
       </c>
       <c r="L192">
-        <v>0.5608708680065683</v>
+        <v>0.5608708680065687</v>
       </c>
       <c r="M192">
-        <v>0.5546199373288261</v>
+        <v>0.5546199373288264</v>
       </c>
       <c r="N192">
         <v>0.5</v>
@@ -8900,10 +8900,10 @@
         <v>0.1850321413026058</v>
       </c>
       <c r="L193">
-        <v>0.582410810639213</v>
+        <v>0.5824108106392131</v>
       </c>
       <c r="M193">
-        <v>0.593764156988946</v>
+        <v>0.5937641569889457</v>
       </c>
       <c r="N193">
         <v>0.5</v>
@@ -8944,10 +8944,10 @@
         <v>0.1600309140663815</v>
       </c>
       <c r="L194">
-        <v>0.3673177285218669</v>
+        <v>0.3673177285218678</v>
       </c>
       <c r="M194">
-        <v>0.2028786751950775</v>
+        <v>0.2028786751950787</v>
       </c>
       <c r="N194">
         <v>0.5</v>
@@ -8988,10 +8988,10 @@
         <v>0.1073524343458059</v>
       </c>
       <c r="L195">
-        <v>0.3384740548642165</v>
+        <v>0.3384740548642166</v>
       </c>
       <c r="M195">
-        <v>0.1504614929993952</v>
+        <v>0.150461492999395</v>
       </c>
       <c r="N195">
         <v>0.5</v>
@@ -9026,13 +9026,13 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>9.171366998676055e-05</v>
+        <v>9.171366998676055E-05</v>
       </c>
       <c r="K196">
         <v>-0.02157175126133051</v>
       </c>
       <c r="L196">
-        <v>0.01460894461674972</v>
+        <v>0.01460894461674948</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0.02405992862625381</v>
       </c>
       <c r="M197">
-        <v>0.01311831418475759</v>
+        <v>0.01311831418475793</v>
       </c>
       <c r="N197">
         <v>0.5</v>
@@ -9120,7 +9120,7 @@
         <v>-0.07305724693487096</v>
       </c>
       <c r="L198">
-        <v>-0.1775936606008895</v>
+        <v>-0.1775936606008892</v>
       </c>
       <c r="M198">
         <v>1</v>
@@ -9164,7 +9164,7 @@
         <v>-0.2836059051357891</v>
       </c>
       <c r="L199">
-        <v>-0.6381852963013207</v>
+        <v>-0.6381852963013204</v>
       </c>
       <c r="M199">
         <v>1</v>
@@ -9208,7 +9208,7 @@
         <v>-0.2999271625344637</v>
       </c>
       <c r="L200">
-        <v>-0.701272138430625</v>
+        <v>-0.7012721384306253</v>
       </c>
       <c r="M200">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>-0.3079809328904371</v>
       </c>
       <c r="L201">
-        <v>-0.7237642529984487</v>
+        <v>-0.723764252998448</v>
       </c>
       <c r="M201">
         <v>1</v>
@@ -9296,10 +9296,10 @@
         <v>-0.2901192537217967</v>
       </c>
       <c r="L202">
-        <v>-0.7025708078506926</v>
+        <v>-0.7025708078506928</v>
       </c>
       <c r="M202">
-        <v>0.9611962902383265</v>
+        <v>0.9611962902383282</v>
       </c>
       <c r="N202">
         <v>0.5</v>
@@ -9340,10 +9340,10 @@
         <v>-0.1426712473389215</v>
       </c>
       <c r="L203">
-        <v>-0.5203155153248998</v>
+        <v>-0.5203155153248995</v>
       </c>
       <c r="M203">
-        <v>0.6274996484514898</v>
+        <v>0.6274996484514902</v>
       </c>
       <c r="N203">
         <v>0.5</v>
@@ -9384,7 +9384,7 @@
         <v>-0.2413474385584705</v>
       </c>
       <c r="L204">
-        <v>-0.7292829247170277</v>
+        <v>-0.7292829247170282</v>
       </c>
       <c r="M204">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>-0.269485325650839</v>
       </c>
       <c r="L205">
-        <v>-0.8338211030406382</v>
+        <v>-0.8338211030406379</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -9516,10 +9516,10 @@
         <v>-0.285309025868077</v>
       </c>
       <c r="L207">
-        <v>-0.8337866651243954</v>
+        <v>-0.8337866651243953</v>
       </c>
       <c r="M207">
-        <v>0.9485804670079132</v>
+        <v>0.9485804670079131</v>
       </c>
       <c r="N207">
         <v>0.5</v>
@@ -9560,10 +9560,10 @@
         <v>-0.2774655965705464</v>
       </c>
       <c r="L208">
-        <v>-0.8013408826475983</v>
+        <v>-0.801340882647598</v>
       </c>
       <c r="M208">
-        <v>0.8051350295084834</v>
+        <v>0.8051350295084826</v>
       </c>
       <c r="N208">
         <v>0.5</v>
@@ -9604,7 +9604,7 @@
         <v>-0.3295777085006806</v>
       </c>
       <c r="L209">
-        <v>-0.9033031269565559</v>
+        <v>-0.9033031269565556</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>-0.8853392128503516</v>
       </c>
       <c r="M210">
-        <v>0.9530953128492275</v>
+        <v>0.9530953128492284</v>
       </c>
       <c r="N210">
         <v>0.5</v>
@@ -9695,7 +9695,7 @@
         <v>-0.8975519613504964</v>
       </c>
       <c r="M211">
-        <v>0.9849834160912997</v>
+        <v>0.9849834160913006</v>
       </c>
       <c r="N211">
         <v>0.5</v>
@@ -9730,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0.03568793637389558</v>
+        <v>0.03568793637389559</v>
       </c>
       <c r="K212">
         <v>-0.3550312224981747</v>
       </c>
       <c r="L212">
-        <v>-0.9435394870163641</v>
+        <v>-0.943539487016364</v>
       </c>
       <c r="M212">
         <v>1</v>
@@ -9780,10 +9780,10 @@
         <v>-0.292012245300608</v>
       </c>
       <c r="L213">
-        <v>-0.8654204838241066</v>
+        <v>-0.8654204838241064</v>
       </c>
       <c r="M213">
-        <v>0.63539504996296</v>
+        <v>0.6353950499629585</v>
       </c>
       <c r="N213">
         <v>0.5</v>
@@ -9824,10 +9824,10 @@
         <v>-0.2977209757953743</v>
       </c>
       <c r="L214">
-        <v>-0.9023929059656191</v>
+        <v>-0.9023929059656192</v>
       </c>
       <c r="M214">
-        <v>0.7106400499962783</v>
+        <v>0.7106400499962803</v>
       </c>
       <c r="N214">
         <v>0.5</v>
@@ -9868,10 +9868,10 @@
         <v>-0.294586712836715</v>
       </c>
       <c r="L215">
-        <v>-0.8855005332924274</v>
+        <v>-0.8855005332924273</v>
       </c>
       <c r="M215">
-        <v>0.5918458273090823</v>
+        <v>0.5918458273090829</v>
       </c>
       <c r="N215">
         <v>0.5</v>
@@ -9912,10 +9912,10 @@
         <v>-0.3482363614800201</v>
       </c>
       <c r="L216">
-        <v>-0.91342884735612</v>
+        <v>-0.9134288473561198</v>
       </c>
       <c r="M216">
-        <v>0.7882494009423764</v>
+        <v>0.7882494009423767</v>
       </c>
       <c r="N216">
         <v>0.5</v>
@@ -9956,10 +9956,10 @@
         <v>-0.3462467386382492</v>
       </c>
       <c r="L217">
-        <v>-0.9142020352211212</v>
+        <v>-0.9142020352211216</v>
       </c>
       <c r="M217">
-        <v>0.7936867810659964</v>
+        <v>0.7936867810660007</v>
       </c>
       <c r="N217">
         <v>0.5</v>
@@ -10000,7 +10000,7 @@
         <v>-0.3597808094273708</v>
       </c>
       <c r="L218">
-        <v>-0.9554235833353432</v>
+        <v>-0.9554235833353423</v>
       </c>
       <c r="M218">
         <v>1</v>
@@ -10088,10 +10088,10 @@
         <v>-0.3946241662691863</v>
       </c>
       <c r="L220">
-        <v>-0.9973626281556259</v>
+        <v>-0.9973626281556258</v>
       </c>
       <c r="M220">
-        <v>0.9278677989402493</v>
+        <v>0.9278677989402486</v>
       </c>
       <c r="N220">
         <v>0.5</v>
@@ -10132,10 +10132,10 @@
         <v>-0.3964214921679237</v>
       </c>
       <c r="L221">
-        <v>-0.9907561458373221</v>
+        <v>-0.9907561458373222</v>
       </c>
       <c r="M221">
-        <v>0.8814084796796792</v>
+        <v>0.8814084796796802</v>
       </c>
       <c r="N221">
         <v>0.5</v>
@@ -10176,7 +10176,7 @@
         <v>-0.3987059872223959</v>
       </c>
       <c r="L222">
-        <v>-1.014603569614861</v>
+        <v>-1.014603569614862</v>
       </c>
       <c r="M222">
         <v>1</v>
@@ -10220,10 +10220,10 @@
         <v>-0.3991341273365733</v>
       </c>
       <c r="L223">
-        <v>-0.9926265346427918</v>
+        <v>-0.9926265346427917</v>
       </c>
       <c r="M223">
-        <v>0.8297713547403944</v>
+        <v>0.8297713547403923</v>
       </c>
       <c r="N223">
         <v>0.5</v>
@@ -10399,7 +10399,7 @@
         <v>-1.367694362783069</v>
       </c>
       <c r="M227">
-        <v>0.9434064682680047</v>
+        <v>0.9434064682680053</v>
       </c>
       <c r="N227">
         <v>0.5</v>
@@ -10531,7 +10531,7 @@
         <v>-1.330798634904919</v>
       </c>
       <c r="M230">
-        <v>0.7258476304349218</v>
+        <v>0.7258476304349221</v>
       </c>
       <c r="N230">
         <v>0.5</v>
@@ -10575,7 +10575,7 @@
         <v>-1.404477801226633</v>
       </c>
       <c r="M231">
-        <v>0.8826531411510337</v>
+        <v>0.8826531411510355</v>
       </c>
       <c r="N231">
         <v>0.5</v>
@@ -10619,7 +10619,7 @@
         <v>-1.153532493973862</v>
       </c>
       <c r="M232">
-        <v>0.3448433013488817</v>
+        <v>0.344843301348882</v>
       </c>
       <c r="N232">
         <v>0.5</v>
@@ -10663,7 +10663,7 @@
         <v>-1.195462252013139</v>
       </c>
       <c r="M233">
-        <v>0.1371597976107353</v>
+        <v>0.1371597976107339</v>
       </c>
       <c r="N233">
         <v>0.5</v>
@@ -10704,10 +10704,10 @@
         <v>-0.3250864132862282</v>
       </c>
       <c r="L234">
-        <v>-1.379343534244158</v>
+        <v>-1.379343534244159</v>
       </c>
       <c r="M234">
-        <v>0.7386686217633514</v>
+        <v>0.7386686217633526</v>
       </c>
       <c r="N234">
         <v>0.5</v>
@@ -10751,7 +10751,7 @@
         <v>-1.38159945784201</v>
       </c>
       <c r="M235">
-        <v>0.7460481545480814</v>
+        <v>0.7460481545480819</v>
       </c>
       <c r="N235">
         <v>0.5</v>
@@ -10792,7 +10792,7 @@
         <v>-0.3350191633440783</v>
       </c>
       <c r="L236">
-        <v>-1.526888164133776</v>
+        <v>-1.526888164133775</v>
       </c>
       <c r="M236">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>-0.3418410392053527</v>
       </c>
       <c r="L237">
-        <v>-1.640182837624651</v>
+        <v>-1.64018283762465</v>
       </c>
       <c r="M237">
         <v>1</v>
@@ -10883,7 +10883,7 @@
         <v>-1.50373100365136</v>
       </c>
       <c r="M238">
-        <v>0.71961011483184</v>
+        <v>0.7196101148318403</v>
       </c>
       <c r="N238">
         <v>0.5</v>
@@ -10927,7 +10927,7 @@
         <v>-1.560102798793549</v>
       </c>
       <c r="M239">
-        <v>0.8354464558057193</v>
+        <v>0.8354464558057202</v>
       </c>
       <c r="N239">
         <v>0.5</v>
@@ -10971,7 +10971,7 @@
         <v>-1.458180375273497</v>
       </c>
       <c r="M240">
-        <v>0.6260097938372035</v>
+        <v>0.6260097938372042</v>
       </c>
       <c r="N240">
         <v>0.5</v>
@@ -11015,7 +11015,7 @@
         <v>-1.507679532885693</v>
       </c>
       <c r="M241">
-        <v>0.7277238032034776</v>
+        <v>0.7277238032034771</v>
       </c>
       <c r="N241">
         <v>0.5</v>
@@ -11056,10 +11056,10 @@
         <v>-0.276284964712649</v>
       </c>
       <c r="L242">
-        <v>-1.442406208939278</v>
+        <v>-1.442406208939277</v>
       </c>
       <c r="M242">
-        <v>0.555278898516872</v>
+        <v>0.5552788985168722</v>
       </c>
       <c r="N242">
         <v>0.5</v>
@@ -11144,10 +11144,10 @@
         <v>-0.2473319620258631</v>
       </c>
       <c r="L244">
-        <v>-1.356304066126444</v>
+        <v>-1.356304066126445</v>
       </c>
       <c r="M244">
-        <v>0.2715188612446681</v>
+        <v>0.2715188612446714</v>
       </c>
       <c r="N244">
         <v>0.5</v>
@@ -11188,7 +11188,7 @@
         <v>-0.2714166007566171</v>
       </c>
       <c r="L245">
-        <v>-1.873834745980304</v>
+        <v>-1.873834745980306</v>
       </c>
       <c r="M245">
         <v>1</v>
@@ -11229,13 +11229,13 @@
         <v>0.0206329484982364</v>
       </c>
       <c r="K246">
-        <v>-0.2131827995225457</v>
+        <v>-0.2131827995225456</v>
       </c>
       <c r="L246">
         <v>-1.858166469749187</v>
       </c>
       <c r="M246">
-        <v>0.9748639052898928</v>
+        <v>0.9748639052898918</v>
       </c>
       <c r="N246">
         <v>0.5</v>
@@ -11273,7 +11273,7 @@
         <v>0.002344904251736185</v>
       </c>
       <c r="K247">
-        <v>-0.1989682829414977</v>
+        <v>-0.1989682829414975</v>
       </c>
       <c r="L247">
         <v>-2.027196779516317</v>
@@ -11317,10 +11317,10 @@
         <v>0.0197838159640606</v>
       </c>
       <c r="K248">
-        <v>-0.1975118087594982</v>
+        <v>-0.1975118087594981</v>
       </c>
       <c r="L248">
-        <v>-2.072314044835241</v>
+        <v>-2.072314044835242</v>
       </c>
       <c r="M248">
         <v>1</v>
@@ -11361,13 +11361,13 @@
         <v>-0.02791900222804027</v>
       </c>
       <c r="K249">
-        <v>-0.1676870546240156</v>
+        <v>-0.1676870546240155</v>
       </c>
       <c r="L249">
         <v>-1.779280134931488</v>
       </c>
       <c r="M249">
-        <v>0.6434316892639835</v>
+        <v>0.6434316892639825</v>
       </c>
       <c r="N249">
         <v>0.5</v>
@@ -11405,13 +11405,13 @@
         <v>0.02954265370713775</v>
       </c>
       <c r="K250">
-        <v>-0.1752503970650998</v>
+        <v>-0.1752503970650996</v>
       </c>
       <c r="L250">
-        <v>-1.690580443974032</v>
+        <v>-1.690580443974031</v>
       </c>
       <c r="M250">
-        <v>0.5355004980312181</v>
+        <v>0.5355004980312172</v>
       </c>
       <c r="N250">
         <v>0.5</v>
@@ -11449,13 +11449,13 @@
         <v>0.004814322988975989</v>
       </c>
       <c r="K251">
-        <v>-0.1387831868931495</v>
+        <v>-0.1387831868931494</v>
       </c>
       <c r="L251">
-        <v>-1.618912336718403</v>
+        <v>-1.618912336718402</v>
       </c>
       <c r="M251">
-        <v>0.4482936080634986</v>
+        <v>0.4482936080634982</v>
       </c>
       <c r="N251">
         <v>0.5</v>
@@ -11496,10 +11496,10 @@
         <v>-0.1425539807995358</v>
       </c>
       <c r="L252">
-        <v>-2.014531884977436</v>
+        <v>-2.014531884977435</v>
       </c>
       <c r="M252">
-        <v>0.9296897511351393</v>
+        <v>0.9296897511351367</v>
       </c>
       <c r="N252">
         <v>0.5</v>
@@ -11584,10 +11584,10 @@
         <v>-0.1184309860192338</v>
       </c>
       <c r="L254">
-        <v>-1.836880700033947</v>
+        <v>-1.836880700033946</v>
       </c>
       <c r="M254">
-        <v>0.3630085919977852</v>
+        <v>0.3630085919977841</v>
       </c>
       <c r="N254">
         <v>0.5</v>
@@ -11631,7 +11631,7 @@
         <v>-2.035427032294288</v>
       </c>
       <c r="M255">
-        <v>0.693671369952457</v>
+        <v>0.6936713699524559</v>
       </c>
       <c r="N255">
         <v>0.5</v>
@@ -11672,10 +11672,10 @@
         <v>-0.09931576348489916</v>
       </c>
       <c r="L256">
-        <v>-1.795369266762593</v>
+        <v>-1.795369266762592</v>
       </c>
       <c r="M256">
-        <v>0.2938746740547059</v>
+        <v>0.2938746740547045</v>
       </c>
       <c r="N256">
         <v>0.5</v>
@@ -11716,10 +11716,10 @@
         <v>-0.122130119745767</v>
       </c>
       <c r="L257">
-        <v>-2.215824286075651</v>
+        <v>-2.21582428607565</v>
       </c>
       <c r="M257">
-        <v>0.9941083329104183</v>
+        <v>0.9941083329104154</v>
       </c>
       <c r="N257">
         <v>0.5</v>
@@ -11757,13 +11757,13 @@
         <v>-0.04229661021023461</v>
       </c>
       <c r="K258">
-        <v>-0.1064620194699511</v>
+        <v>-0.106462019469951</v>
       </c>
       <c r="L258">
-        <v>-1.83164229482811</v>
+        <v>-1.831642294828109</v>
       </c>
       <c r="M258">
-        <v>0.3542844539203162</v>
+        <v>0.3542844539203151</v>
       </c>
       <c r="N258">
         <v>0.5</v>
@@ -11848,7 +11848,7 @@
         <v>-0.2107176853213242</v>
       </c>
       <c r="L260">
-        <v>-2.902296367782972</v>
+        <v>-2.902296367782971</v>
       </c>
       <c r="M260">
         <v>1</v>
@@ -11895,7 +11895,7 @@
         <v>-2.455959118242974</v>
       </c>
       <c r="M261">
-        <v>0.7197449317968109</v>
+        <v>0.7197449317968108</v>
       </c>
       <c r="N261">
         <v>0.5</v>
@@ -11939,7 +11939,7 @@
         <v>-2.026638023893788</v>
       </c>
       <c r="M262">
-        <v>0.4501743039769234</v>
+        <v>0.4501743039769237</v>
       </c>
       <c r="N262">
         <v>0.5</v>
@@ -11980,10 +11980,10 @@
         <v>-0.1430260626084094</v>
       </c>
       <c r="L263">
-        <v>-2.025037097509213</v>
+        <v>-2.025037097509215</v>
       </c>
       <c r="M263">
-        <v>0.4491690826256699</v>
+        <v>0.4491690826256712</v>
       </c>
       <c r="N263">
         <v>0.5</v>
@@ -12027,7 +12027,7 @@
         <v>-2.275929520013761</v>
       </c>
       <c r="M264">
-        <v>0.6067043836858931</v>
+        <v>0.606704383685893</v>
       </c>
       <c r="N264">
         <v>0.5</v>
@@ -12112,10 +12112,10 @@
         <v>-0.2232730406223531</v>
       </c>
       <c r="L266">
-        <v>-2.131124367593465</v>
+        <v>-2.131124367593464</v>
       </c>
       <c r="M266">
-        <v>0.5157812579339016</v>
+        <v>0.5157812579339009</v>
       </c>
       <c r="N266">
         <v>0.5</v>
@@ -12153,13 +12153,13 @@
         <v>-0.04540781933692184</v>
       </c>
       <c r="K267">
-        <v>-0.2561522005381897</v>
+        <v>-0.2561522005381896</v>
       </c>
       <c r="L267">
-        <v>-2.263208934983975</v>
+        <v>-2.263208934983973</v>
       </c>
       <c r="M267">
-        <v>0.5987171309329999</v>
+        <v>0.5987171309329991</v>
       </c>
       <c r="N267">
         <v>0.5</v>
@@ -12197,13 +12197,13 @@
         <v>0.07851357244928601</v>
       </c>
       <c r="K268">
-        <v>-0.2934836525865659</v>
+        <v>-0.2934836525865658</v>
       </c>
       <c r="L268">
         <v>-2.318234116848774</v>
       </c>
       <c r="M268">
-        <v>0.6332674314340341</v>
+        <v>0.6332674314340343</v>
       </c>
       <c r="N268">
         <v>0.5</v>
@@ -12241,13 +12241,13 @@
         <v>0.003836717680817571</v>
       </c>
       <c r="K269">
-        <v>-0.09046582388483312</v>
+        <v>-0.09046582388483305</v>
       </c>
       <c r="L269">
         <v>-2.062586773925629</v>
       </c>
       <c r="M269">
-        <v>0.04280339654284621</v>
+        <v>0.04280339654284429</v>
       </c>
       <c r="N269">
         <v>0.5</v>
@@ -12285,10 +12285,10 @@
         <v>-0.005250465312220409</v>
       </c>
       <c r="K270">
-        <v>-0.08695091536665762</v>
+        <v>-0.08695091536665756</v>
       </c>
       <c r="L270">
-        <v>-1.995740408954377</v>
+        <v>-1.995740408954376</v>
       </c>
       <c r="M270">
         <v>0</v>
@@ -12329,13 +12329,13 @@
         <v>0.01990616885336032</v>
       </c>
       <c r="K271">
-        <v>-0.08395382066897905</v>
+        <v>-0.08395382066897898</v>
       </c>
       <c r="L271">
-        <v>-2.016360391678532</v>
+        <v>-2.016360391678533</v>
       </c>
       <c r="M271">
-        <v>0.063939178406879</v>
+        <v>0.06393917840688167</v>
       </c>
       <c r="N271">
         <v>0.5</v>
@@ -12420,7 +12420,7 @@
         <v>-0.1063304047366893</v>
       </c>
       <c r="L273">
-        <v>-1.756135670877366</v>
+        <v>-1.756135670877365</v>
       </c>
       <c r="M273">
         <v>0</v>
@@ -12508,7 +12508,7 @@
         <v>-0.07116200118068701</v>
       </c>
       <c r="L275">
-        <v>-1.283463151123873</v>
+        <v>-1.283463151123872</v>
       </c>
       <c r="M275">
         <v>0</v>
@@ -12555,7 +12555,7 @@
         <v>-1.34619537320395</v>
       </c>
       <c r="M276">
-        <v>0.06062425808027016</v>
+        <v>0.06062425808027139</v>
       </c>
       <c r="N276">
         <v>0.5</v>
@@ -12596,7 +12596,7 @@
         <v>-0.08534693090072806</v>
       </c>
       <c r="L277">
-        <v>-1.221376026837176</v>
+        <v>-1.221376026837175</v>
       </c>
       <c r="M277">
         <v>0</v>
@@ -12643,7 +12643,7 @@
         <v>-1.425617892818077</v>
       </c>
       <c r="M278">
-        <v>0.2427951220164629</v>
+        <v>0.2427951220164643</v>
       </c>
       <c r="N278">
         <v>0.5</v>
@@ -12687,7 +12687,7 @@
         <v>-1.807511110281533</v>
       </c>
       <c r="M279">
-        <v>0.7372913347312482</v>
+        <v>0.7372913347312477</v>
       </c>
       <c r="N279">
         <v>0.5</v>
@@ -12728,10 +12728,10 @@
         <v>-0.07942232106057126</v>
       </c>
       <c r="L280">
-        <v>-1.753491934292957</v>
+        <v>-1.753491934292956</v>
       </c>
       <c r="M280">
-        <v>0.6693413493257412</v>
+        <v>0.6693413493257397</v>
       </c>
       <c r="N280">
         <v>0.5</v>
@@ -12772,10 +12772,10 @@
         <v>-0.0655076010238865</v>
       </c>
       <c r="L281">
-        <v>-1.644215531527534</v>
+        <v>-1.644215531527533</v>
       </c>
       <c r="M281">
-        <v>0.7214028244233203</v>
+        <v>0.72140282442332</v>
       </c>
       <c r="N281">
         <v>0.5</v>
@@ -12816,10 +12816,10 @@
         <v>-0.06306807759536645</v>
       </c>
       <c r="L282">
-        <v>-1.703068309642392</v>
+        <v>-1.703068309642391</v>
       </c>
       <c r="M282">
-        <v>0.8218110405106704</v>
+        <v>0.8218110405106697</v>
       </c>
       <c r="N282">
         <v>0.5</v>
@@ -12863,7 +12863,7 @@
         <v>-1.668230415830833</v>
       </c>
       <c r="M283">
-        <v>0.7623744109766759</v>
+        <v>0.7623744109766771</v>
       </c>
       <c r="N283">
         <v>0.5</v>
@@ -12907,7 +12907,7 @@
         <v>-1.31584869884405</v>
       </c>
       <c r="M284">
-        <v>0.1611790091999198</v>
+        <v>0.1611790091999226</v>
       </c>
       <c r="N284">
         <v>0.5</v>
@@ -12948,10 +12948,10 @@
         <v>-0.04348873580372445</v>
       </c>
       <c r="L285">
-        <v>-1.510565302272869</v>
+        <v>-1.51056530227287</v>
       </c>
       <c r="M285">
-        <v>0.4933833234078133</v>
+        <v>0.4933833234078165</v>
       </c>
       <c r="N285">
         <v>0.5</v>
@@ -12995,7 +12995,7 @@
         <v>-1.482227184619427</v>
       </c>
       <c r="M286">
-        <v>0.4450359058007379</v>
+        <v>0.4450359058007393</v>
       </c>
       <c r="N286">
         <v>0.5</v>
@@ -13039,7 +13039,7 @@
         <v>-1.530983343079507</v>
       </c>
       <c r="M287">
-        <v>0.4375657752775196</v>
+        <v>0.4375657752775183</v>
       </c>
       <c r="N287">
         <v>0.5</v>
@@ -13083,7 +13083,7 @@
         <v>-1.665123653368455</v>
       </c>
       <c r="M288">
-        <v>0.7103958862814482</v>
+        <v>0.7103958862814491</v>
       </c>
       <c r="N288">
         <v>0.5</v>
@@ -13168,10 +13168,10 @@
         <v>-0.08986260701802691</v>
       </c>
       <c r="L290">
-        <v>-1.895848360433587</v>
+        <v>-1.895848360433586</v>
       </c>
       <c r="M290">
-        <v>0.8929076759490725</v>
+        <v>0.8929076759490707</v>
       </c>
       <c r="N290">
         <v>0.5</v>
@@ -13215,7 +13215,7 @@
         <v>-1.962781590462293</v>
       </c>
       <c r="M291">
-        <v>0.995951175500271</v>
+        <v>0.9959511755002707</v>
       </c>
       <c r="N291">
         <v>0.5</v>
@@ -13256,7 +13256,7 @@
         <v>-0.1560559203810416</v>
       </c>
       <c r="L292">
-        <v>-2.13031897693698</v>
+        <v>-2.130318976936979</v>
       </c>
       <c r="M292">
         <v>1</v>
@@ -13300,7 +13300,7 @@
         <v>-0.1567714802414925</v>
       </c>
       <c r="L293">
-        <v>-2.167805775743675</v>
+        <v>-2.167805775743674</v>
       </c>
       <c r="M293">
         <v>1</v>
@@ -13344,7 +13344,7 @@
         <v>-0.2440147089140545</v>
       </c>
       <c r="L294">
-        <v>-2.355268045134098</v>
+        <v>-2.355268045134097</v>
       </c>
       <c r="M294">
         <v>1</v>
@@ -13388,10 +13388,10 @@
         <v>-0.3314430739442538</v>
       </c>
       <c r="L295">
-        <v>-2.032156872814608</v>
+        <v>-2.032156872814607</v>
       </c>
       <c r="M295">
-        <v>0.6299014319570204</v>
+        <v>0.629901431957021</v>
       </c>
       <c r="N295">
         <v>0.5</v>
@@ -13432,10 +13432,10 @@
         <v>-0.2823194117900099</v>
       </c>
       <c r="L296">
-        <v>-2.224350429338057</v>
+        <v>-2.224350429338056</v>
       </c>
       <c r="M296">
-        <v>0.8411742745319433</v>
+        <v>0.8411742745319432</v>
       </c>
       <c r="N296">
         <v>0.5</v>
@@ -13476,7 +13476,7 @@
         <v>-0.2478106678486558</v>
       </c>
       <c r="L297">
-        <v>-2.427147192251271</v>
+        <v>-2.427147192251272</v>
       </c>
       <c r="M297">
         <v>1</v>
@@ -13520,10 +13520,10 @@
         <v>-0.2537750844171398</v>
       </c>
       <c r="L298">
-        <v>-2.402867805072749</v>
+        <v>-2.402867805072748</v>
       </c>
       <c r="M298">
-        <v>0.9543018246521318</v>
+        <v>0.9543018246521294</v>
       </c>
       <c r="N298">
         <v>0.5</v>
@@ -13567,7 +13567,7 @@
         <v>-2.32175780840692</v>
       </c>
       <c r="M299">
-        <v>0.8016382165121809</v>
+        <v>0.8016382165121798</v>
       </c>
       <c r="N299">
         <v>0.5</v>
@@ -13608,10 +13608,10 @@
         <v>-0.2637457254561593</v>
       </c>
       <c r="L300">
-        <v>-2.31646856550384</v>
+        <v>-2.316468565503839</v>
       </c>
       <c r="M300">
-        <v>0.7616562761732574</v>
+        <v>0.7616562761732548</v>
       </c>
       <c r="N300">
         <v>0.5</v>
@@ -13652,10 +13652,10 @@
         <v>-0.2699655386562126</v>
       </c>
       <c r="L301">
-        <v>-2.250933065218834</v>
+        <v>-2.250933065218833</v>
       </c>
       <c r="M301">
-        <v>0.5538773525291604</v>
+        <v>0.5538773525291568</v>
       </c>
       <c r="N301">
         <v>0.5</v>
@@ -13740,10 +13740,10 @@
         <v>-0.296809036493964</v>
       </c>
       <c r="L303">
-        <v>-2.025483067825427</v>
+        <v>-2.025483067825426</v>
       </c>
       <c r="M303">
-        <v>0.1056458140181356</v>
+        <v>0.1056458140181354</v>
       </c>
       <c r="N303">
         <v>0.5</v>
@@ -13828,7 +13828,7 @@
         <v>-0.392834646607421</v>
       </c>
       <c r="L305">
-        <v>-1.248245647951749</v>
+        <v>-1.248245647951747</v>
       </c>
       <c r="M305">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>-0.4406541415152065</v>
       </c>
       <c r="L306">
-        <v>-0.8045665210596763</v>
+        <v>-0.8045665210596754</v>
       </c>
       <c r="M306">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>-0.4370022422429877</v>
       </c>
       <c r="L307">
-        <v>-1.039925303839047</v>
+        <v>-1.039925303839046</v>
       </c>
       <c r="M307">
-        <v>0.147255580117175</v>
+        <v>0.1472555801171749</v>
       </c>
       <c r="N307">
         <v>0.5</v>
@@ -13960,7 +13960,7 @@
         <v>-0.3661275701071255</v>
       </c>
       <c r="L308">
-        <v>-1.424599305288014</v>
+        <v>-1.424599305288013</v>
       </c>
       <c r="M308">
         <v>0.4086714637759641</v>
@@ -14004,10 +14004,10 @@
         <v>-0.364288285784682</v>
       </c>
       <c r="L309">
-        <v>-1.529601098165037</v>
+        <v>-1.529601098165036</v>
       </c>
       <c r="M309">
-        <v>0.4795512908853247</v>
+        <v>0.4795512908853249</v>
       </c>
       <c r="N309">
         <v>0.5</v>
@@ -14048,10 +14048,10 @@
         <v>-0.3824781802824976</v>
       </c>
       <c r="L310">
-        <v>-1.272039635201537</v>
+        <v>-1.272039635201536</v>
       </c>
       <c r="M310">
-        <v>0.3232051488121393</v>
+        <v>0.3232051488121394</v>
       </c>
       <c r="N310">
         <v>0.5</v>
@@ -14095,7 +14095,7 @@
         <v>-1.442391621874412</v>
       </c>
       <c r="M311">
-        <v>0.5224149861056075</v>
+        <v>0.522414986105608</v>
       </c>
       <c r="N311">
         <v>0.5</v>
@@ -14136,7 +14136,7 @@
         <v>-0.3796138629600795</v>
       </c>
       <c r="L312">
-        <v>-1.519081367611099</v>
+        <v>-1.519081367611098</v>
       </c>
       <c r="M312">
         <v>0.5852282438502426</v>
@@ -14183,7 +14183,7 @@
         <v>-1.293113811956746</v>
       </c>
       <c r="M313">
-        <v>0.5162647259114559</v>
+        <v>0.5162647259114561</v>
       </c>
       <c r="N313">
         <v>0.5</v>
@@ -14224,10 +14224,10 @@
         <v>-0.399148134157623</v>
       </c>
       <c r="L314">
-        <v>-1.455128258909442</v>
+        <v>-1.455128258909443</v>
       </c>
       <c r="M314">
-        <v>0.8972837412073215</v>
+        <v>0.897283741207323</v>
       </c>
       <c r="N314">
         <v>0.5</v>
@@ -14268,7 +14268,7 @@
         <v>-0.4040669138963584</v>
       </c>
       <c r="L315">
-        <v>-1.433442964433205</v>
+        <v>-1.433442964433204</v>
       </c>
       <c r="M315">
         <v>0.867374416657844</v>
@@ -14312,10 +14312,10 @@
         <v>-0.4105169118711641</v>
       </c>
       <c r="L316">
-        <v>-1.313444509570811</v>
+        <v>-1.31344450957081</v>
       </c>
       <c r="M316">
-        <v>0.5585720366436486</v>
+        <v>0.5585720366436485</v>
       </c>
       <c r="N316">
         <v>0.5</v>
@@ -14356,7 +14356,7 @@
         <v>-0.4224548123514346</v>
       </c>
       <c r="L317">
-        <v>-1.097767878003272</v>
+        <v>-1.097767878003271</v>
       </c>
       <c r="M317">
         <v>0</v>
@@ -14403,7 +14403,7 @@
         <v>-1.150540038320079</v>
       </c>
       <c r="M318">
-        <v>0.1222049574996546</v>
+        <v>0.1222049574996561</v>
       </c>
       <c r="N318">
         <v>0.5</v>
@@ -14444,7 +14444,7 @@
         <v>-0.4139403137609845</v>
       </c>
       <c r="L319">
-        <v>-0.9963293389548564</v>
+        <v>-0.9963293389548561</v>
       </c>
       <c r="M319">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>-0.3276234985162905</v>
       </c>
       <c r="L320">
-        <v>-0.4880174337260402</v>
+        <v>-0.4880174337260403</v>
       </c>
       <c r="M320">
         <v>0</v>
@@ -14532,10 +14532,10 @@
         <v>-0.2533476949401141</v>
       </c>
       <c r="L321">
-        <v>-0.6304729648077529</v>
+        <v>-0.6304729648077526</v>
       </c>
       <c r="M321">
-        <v>0.1381636253582636</v>
+        <v>0.1381636253582633</v>
       </c>
       <c r="N321">
         <v>0.5</v>
@@ -14579,7 +14579,7 @@
         <v>-0.7663338824612008</v>
       </c>
       <c r="M322">
-        <v>0.2877813395195747</v>
+        <v>0.2877813395195745</v>
       </c>
       <c r="N322">
         <v>0.5</v>
@@ -14620,10 +14620,10 @@
         <v>-0.269062085041506</v>
       </c>
       <c r="L323">
-        <v>-0.7992938108151254</v>
+        <v>-0.7992938108151253</v>
       </c>
       <c r="M323">
-        <v>0.3218621578659872</v>
+        <v>0.3218621578659869</v>
       </c>
       <c r="N323">
         <v>0.5</v>
@@ -14664,10 +14664,10 @@
         <v>-0.2219458269237471</v>
       </c>
       <c r="L324">
-        <v>-0.5667470957861473</v>
+        <v>-0.566747095786147</v>
       </c>
       <c r="M324">
-        <v>0.08327431352654342</v>
+        <v>0.08327431352654308</v>
       </c>
       <c r="N324">
         <v>0.5</v>
@@ -14708,10 +14708,10 @@
         <v>-0.2077223105720614</v>
       </c>
       <c r="L325">
-        <v>-0.5197025063739887</v>
+        <v>-0.5197025063739886</v>
       </c>
       <c r="M325">
-        <v>0.03838627732864335</v>
+        <v>0.03838627732864319</v>
       </c>
       <c r="N325">
         <v>0.5</v>
@@ -14752,7 +14752,7 @@
         <v>-0.1909645528576526</v>
       </c>
       <c r="L326">
-        <v>-0.446561501611923</v>
+        <v>-0.4465615016119227</v>
       </c>
       <c r="M326">
         <v>0</v>
@@ -14796,7 +14796,7 @@
         <v>-0.1760540686861992</v>
       </c>
       <c r="L327">
-        <v>-0.3880969952605834</v>
+        <v>-0.3880969952605829</v>
       </c>
       <c r="M327">
         <v>0</v>
@@ -14840,10 +14840,10 @@
         <v>-0.1751537577046846</v>
       </c>
       <c r="L328">
-        <v>-0.4615649681820087</v>
+        <v>-0.4615649681820094</v>
       </c>
       <c r="M328">
-        <v>0.1207893228354095</v>
+        <v>0.1207893228354113</v>
       </c>
       <c r="N328">
         <v>0.5</v>
@@ -14884,7 +14884,7 @@
         <v>-0.249469210538255</v>
       </c>
       <c r="L329">
-        <v>-0.3879624170392549</v>
+        <v>-0.3879624170392552</v>
       </c>
       <c r="M329">
         <v>0</v>
@@ -14931,7 +14931,7 @@
         <v>-0.4133346271376682</v>
       </c>
       <c r="M330">
-        <v>0.06168313550178044</v>
+        <v>0.06168313550177996</v>
       </c>
       <c r="N330">
         <v>0.5</v>
@@ -14972,7 +14972,7 @@
         <v>-0.2427440837705108</v>
       </c>
       <c r="L331">
-        <v>-0.3683006510052126</v>
+        <v>-0.3683006510052125</v>
       </c>
       <c r="M331">
         <v>0</v>
@@ -15016,10 +15016,10 @@
         <v>-0.2489118785288772</v>
       </c>
       <c r="L332">
-        <v>-0.4753563898698983</v>
+        <v>-0.4753563898698984</v>
       </c>
       <c r="M332">
-        <v>0.2483931274266674</v>
+        <v>0.2483931274266678</v>
       </c>
       <c r="N332">
         <v>0.5</v>
@@ -15060,10 +15060,10 @@
         <v>-0.2412219221740774</v>
       </c>
       <c r="L333">
-        <v>-0.4279840373757114</v>
+        <v>-0.4279840373757117</v>
       </c>
       <c r="M333">
-        <v>0.3007531147075139</v>
+        <v>0.3007531147075165</v>
       </c>
       <c r="N333">
         <v>0.5</v>
@@ -15104,7 +15104,7 @@
         <v>-0.2578989506994266</v>
       </c>
       <c r="L334">
-        <v>-0.6037712028310723</v>
+        <v>-0.6037712028310726</v>
       </c>
       <c r="M334">
         <v>1</v>
@@ -15148,7 +15148,7 @@
         <v>-0.2649501634711189</v>
       </c>
       <c r="L335">
-        <v>-0.7343881078808568</v>
+        <v>-0.7343881078808566</v>
       </c>
       <c r="M335">
         <v>1</v>
@@ -15192,10 +15192,10 @@
         <v>-0.264256745036945</v>
       </c>
       <c r="L336">
-        <v>-0.701862900304051</v>
+        <v>-0.7018629003040511</v>
       </c>
       <c r="M336">
-        <v>0.9111545425391225</v>
+        <v>0.9111545425391234</v>
       </c>
       <c r="N336">
         <v>0.5</v>
@@ -15236,7 +15236,7 @@
         <v>-0.3045216749568567</v>
       </c>
       <c r="L337">
-        <v>-0.8397978522943625</v>
+        <v>-0.839797852294362</v>
       </c>
       <c r="M337">
         <v>1</v>
@@ -15280,10 +15280,10 @@
         <v>-0.2898906813402705</v>
       </c>
       <c r="L338">
-        <v>-0.7223070792031904</v>
+        <v>-0.7223070792031897</v>
       </c>
       <c r="M338">
-        <v>0.750813424194389</v>
+        <v>0.7508134241943886</v>
       </c>
       <c r="N338">
         <v>0.5</v>
@@ -15324,10 +15324,10 @@
         <v>-0.281597121242</v>
       </c>
       <c r="L339">
-        <v>-0.5683802302733162</v>
+        <v>-0.5683802302733164</v>
       </c>
       <c r="M339">
-        <v>0.4243494525970748</v>
+        <v>0.424349452597076</v>
       </c>
       <c r="N339">
         <v>0.5</v>
@@ -15371,7 +15371,7 @@
         <v>-0.5932595859237751</v>
       </c>
       <c r="M340">
-        <v>0.4771161616728334</v>
+        <v>0.4771161616728341</v>
       </c>
       <c r="N340">
         <v>0.5</v>
@@ -15412,10 +15412,10 @@
         <v>-0.2964817318717687</v>
       </c>
       <c r="L341">
-        <v>-0.7716943171197622</v>
+        <v>-0.7716943171197623</v>
       </c>
       <c r="M341">
-        <v>0.8346254236564323</v>
+        <v>0.8346254236564336</v>
       </c>
       <c r="N341">
         <v>0.5</v>
@@ -15456,10 +15456,10 @@
         <v>-0.2963313058311397</v>
       </c>
       <c r="L342">
-        <v>-0.817201012215175</v>
+        <v>-0.8172010122151754</v>
       </c>
       <c r="M342">
-        <v>0.9451285040458119</v>
+        <v>0.9451285040458141</v>
       </c>
       <c r="N342">
         <v>0.5</v>
@@ -15500,7 +15500,7 @@
         <v>-0.2873905873660975</v>
       </c>
       <c r="L343">
-        <v>-0.9340327930911144</v>
+        <v>-0.9340327930911142</v>
       </c>
       <c r="M343">
         <v>1</v>
@@ -15632,7 +15632,7 @@
         <v>-0.3092244260467596</v>
       </c>
       <c r="L346">
-        <v>-1.380537382475393</v>
+        <v>-1.380537382475394</v>
       </c>
       <c r="M346">
         <v>1</v>
@@ -15811,7 +15811,7 @@
         <v>-1.372852414072523</v>
       </c>
       <c r="M350">
-        <v>0.8377951223844539</v>
+        <v>0.8377951223844537</v>
       </c>
       <c r="N350">
         <v>0.5</v>
@@ -15855,7 +15855,7 @@
         <v>-1.192172443509818</v>
       </c>
       <c r="M351">
-        <v>0.5579590224994861</v>
+        <v>0.5579590224994859</v>
       </c>
       <c r="N351">
         <v>0.5</v>
@@ -15896,7 +15896,7 @@
         <v>-0.3573768655827271</v>
       </c>
       <c r="L352">
-        <v>-0.8700887996242687</v>
+        <v>-0.8700887996242693</v>
       </c>
       <c r="M352">
         <v>0</v>
@@ -15940,10 +15940,10 @@
         <v>-0.3577021827258173</v>
       </c>
       <c r="L353">
-        <v>-0.8774576251887645</v>
+        <v>-0.8774576251887651</v>
       </c>
       <c r="M353">
-        <v>0.0119014542044621</v>
+        <v>0.01190145420446211</v>
       </c>
       <c r="N353">
         <v>0.5</v>
@@ -15984,7 +15984,7 @@
         <v>-0.3265417898722355</v>
       </c>
       <c r="L354">
-        <v>-0.2107569255425602</v>
+        <v>-0.2107569255425591</v>
       </c>
       <c r="M354">
         <v>0</v>
@@ -16028,7 +16028,7 @@
         <v>-0.2797961667615935</v>
       </c>
       <c r="L355">
-        <v>0.08592605279628478</v>
+        <v>0.08592605279628511</v>
       </c>
       <c r="M355">
         <v>1</v>
@@ -16072,7 +16072,7 @@
         <v>-0.3531013582468894</v>
       </c>
       <c r="L356">
-        <v>-0.02743725161327413</v>
+        <v>-0.02743725161327442</v>
       </c>
       <c r="M356">
         <v>0</v>
@@ -16116,10 +16116,10 @@
         <v>-0.3279214858349769</v>
       </c>
       <c r="L357">
-        <v>-0.2218365530423566</v>
+        <v>-0.2218365530423562</v>
       </c>
       <c r="M357">
-        <v>0.1434039316443629</v>
+        <v>0.1434039316443624</v>
       </c>
       <c r="N357">
         <v>0.5</v>
@@ -16160,10 +16160,10 @@
         <v>-0.3892977463488743</v>
       </c>
       <c r="L358">
-        <v>-0.2757855078593055</v>
+        <v>-0.2757855078593059</v>
       </c>
       <c r="M358">
-        <v>0.1845885665448293</v>
+        <v>0.1845885665448294</v>
       </c>
       <c r="N358">
         <v>0.5</v>
@@ -16204,10 +16204,10 @@
         <v>-0.378387369298102</v>
       </c>
       <c r="L359">
-        <v>-0.3211079575680564</v>
+        <v>-0.3211079575680562</v>
       </c>
       <c r="M359">
-        <v>0.2182751571031721</v>
+        <v>0.2182751571031717</v>
       </c>
       <c r="N359">
         <v>0.5</v>
@@ -16248,10 +16248,10 @@
         <v>-0.3826645613147471</v>
       </c>
       <c r="L360">
-        <v>-0.3630117122743697</v>
+        <v>-0.3630117122743696</v>
       </c>
       <c r="M360">
-        <v>0.2881122361510156</v>
+        <v>0.2881122361510153</v>
       </c>
       <c r="N360">
         <v>0.5</v>
@@ -16292,10 +16292,10 @@
         <v>-0.3667212060801354</v>
       </c>
       <c r="L361">
-        <v>-0.4737734119144799</v>
+        <v>-0.4737734119144795</v>
       </c>
       <c r="M361">
-        <v>0.5250887792533205</v>
+        <v>0.5250887792533195</v>
       </c>
       <c r="N361">
         <v>0.5</v>
@@ -16336,10 +16336,10 @@
         <v>-0.2989443941330755</v>
       </c>
       <c r="L362">
-        <v>-0.4258980529778789</v>
+        <v>-0.4258980529778781</v>
       </c>
       <c r="M362">
-        <v>0.4687661775547047</v>
+        <v>0.4687661775547032</v>
       </c>
       <c r="N362">
         <v>0.5</v>
@@ -16380,7 +16380,7 @@
         <v>-0.3090808756677261</v>
       </c>
       <c r="L363">
-        <v>-0.4445725076090412</v>
+        <v>-0.4445725076090409</v>
       </c>
       <c r="M363">
         <v>0.9345764316166257</v>
@@ -16424,10 +16424,10 @@
         <v>-0.3316018221792464</v>
       </c>
       <c r="L364">
-        <v>-0.4418170497821543</v>
+        <v>-0.441817049782157</v>
       </c>
       <c r="M364">
-        <v>0.9284029281634719</v>
+        <v>0.9284029281634786</v>
       </c>
       <c r="N364">
         <v>0.5</v>
@@ -16468,10 +16468,10 @@
         <v>-0.2700320095964225</v>
       </c>
       <c r="L365">
-        <v>-0.4154212120436795</v>
+        <v>-0.4154212120436819</v>
       </c>
       <c r="M365">
-        <v>0.8692640098184699</v>
+        <v>0.8692640098184756</v>
       </c>
       <c r="N365">
         <v>0.5</v>
@@ -16512,7 +16512,7 @@
         <v>-0.2442338106181106</v>
       </c>
       <c r="L366">
-        <v>-0.6282859196029239</v>
+        <v>-0.6282859196029238</v>
       </c>
       <c r="M366">
         <v>1</v>
@@ -16556,10 +16556,10 @@
         <v>-0.2495021618500416</v>
       </c>
       <c r="L367">
-        <v>-0.3774449317531582</v>
+        <v>-0.3774449317531547</v>
       </c>
       <c r="M367">
-        <v>0.2883951919119798</v>
+        <v>0.2883951919119689</v>
       </c>
       <c r="N367">
         <v>0.5</v>
@@ -16600,7 +16600,7 @@
         <v>-0.2796810946127044</v>
       </c>
       <c r="L368">
-        <v>0.225939985014107</v>
+        <v>0.2259399850141082</v>
       </c>
       <c r="M368">
         <v>1</v>
@@ -16644,7 +16644,7 @@
         <v>-0.287761121087252</v>
       </c>
       <c r="L369">
-        <v>0.3031270824789236</v>
+        <v>0.3031270824789215</v>
       </c>
       <c r="M369">
         <v>1</v>
@@ -16688,10 +16688,10 @@
         <v>-0.2166526587928962</v>
       </c>
       <c r="L370">
-        <v>0.2843254627466202</v>
+        <v>0.2843254627466215</v>
       </c>
       <c r="M370">
-        <v>0.7564149922741483</v>
+        <v>0.756414992274183</v>
       </c>
       <c r="N370">
         <v>0.5</v>
@@ -16732,7 +16732,7 @@
         <v>-0.2260151513362577</v>
       </c>
       <c r="L371">
-        <v>0.4961507666092601</v>
+        <v>0.4961507666092597</v>
       </c>
       <c r="M371">
         <v>1</v>
@@ -16776,7 +16776,7 @@
         <v>-0.2188758262860914</v>
       </c>
       <c r="L372">
-        <v>0.7092386113118561</v>
+        <v>0.7092386113118556</v>
       </c>
       <c r="M372">
         <v>1</v>
@@ -16820,10 +16820,10 @@
         <v>-0.1752198818196674</v>
       </c>
       <c r="L373">
-        <v>0.3718877589486176</v>
+        <v>0.3718877589486193</v>
       </c>
       <c r="M373">
-        <v>0.3019825962521887</v>
+        <v>0.3019825962521908</v>
       </c>
       <c r="N373">
         <v>0.5</v>
@@ -16864,10 +16864,10 @@
         <v>-0.1918544982905646</v>
       </c>
       <c r="L374">
-        <v>0.5386612770380694</v>
+        <v>0.5386612770380692</v>
       </c>
       <c r="M374">
-        <v>0.6470560332842786</v>
+        <v>0.6470560332842779</v>
       </c>
       <c r="N374">
         <v>0.5</v>
@@ -16908,10 +16908,10 @@
         <v>-0.1783067273942146</v>
       </c>
       <c r="L375">
-        <v>0.5774887423739166</v>
+        <v>0.5774887423739169</v>
       </c>
       <c r="M375">
-        <v>0.7273944891025379</v>
+        <v>0.7273944891025386</v>
       </c>
       <c r="N375">
         <v>0.5</v>
@@ -16952,7 +16952,7 @@
         <v>-0.1748161923335558</v>
       </c>
       <c r="L376">
-        <v>0.203466035924982</v>
+        <v>0.2034660359249817</v>
       </c>
       <c r="M376">
         <v>0</v>
@@ -16996,7 +16996,7 @@
         <v>-0.1764754362999895</v>
       </c>
       <c r="L377">
-        <v>-0.454665303000531</v>
+        <v>-0.4546653030005308</v>
       </c>
       <c r="M377">
         <v>1</v>
@@ -17040,7 +17040,7 @@
         <v>-0.1770916594917696</v>
       </c>
       <c r="L378">
-        <v>-0.5541273386331288</v>
+        <v>-0.5541273386331298</v>
       </c>
       <c r="M378">
         <v>1</v>
@@ -17084,7 +17084,7 @@
         <v>-0.1575444493461075</v>
       </c>
       <c r="L379">
-        <v>-0.4272720607246319</v>
+        <v>-0.4272720607246314</v>
       </c>
       <c r="M379">
         <v>0</v>
@@ -17128,10 +17128,10 @@
         <v>-0.1611940647272533</v>
       </c>
       <c r="L380">
-        <v>0.2206512094573556</v>
+        <v>0.22065120945736</v>
       </c>
       <c r="M380">
-        <v>0.03397806517925257</v>
+        <v>0.03397806517926175</v>
       </c>
       <c r="N380">
         <v>0.5</v>
@@ -17172,10 +17172,10 @@
         <v>-0.2969383837388109</v>
       </c>
       <c r="L381">
-        <v>0.5057403433363539</v>
+        <v>0.5057403433363534</v>
       </c>
       <c r="M381">
-        <v>0.5976486708085292</v>
+        <v>0.597648670808529</v>
       </c>
       <c r="N381">
         <v>0.5</v>
@@ -17216,10 +17216,10 @@
         <v>-0.2993016696783124</v>
       </c>
       <c r="L382">
-        <v>0.488241814849959</v>
+        <v>0.4882418148499589</v>
       </c>
       <c r="M382">
-        <v>0.7613863383555233</v>
+        <v>0.7613863383555223</v>
       </c>
       <c r="N382">
         <v>0.5</v>
@@ -17260,10 +17260,10 @@
         <v>-0.2868655107936436</v>
       </c>
       <c r="L383">
-        <v>0.4632201111253192</v>
+        <v>0.4632201111253191</v>
       </c>
       <c r="M383">
-        <v>0.6944874488142916</v>
+        <v>0.6944874488142907</v>
       </c>
       <c r="N383">
         <v>0.5</v>
@@ -17304,10 +17304,10 @@
         <v>-0.2889665773809562</v>
       </c>
       <c r="L384">
-        <v>0.4537140830974165</v>
+        <v>0.4537140830974163</v>
       </c>
       <c r="M384">
-        <v>0.6690718046194367</v>
+        <v>0.6690718046194359</v>
       </c>
       <c r="N384">
         <v>0.5</v>
@@ -17348,10 +17348,10 @@
         <v>-0.3130015265692935</v>
       </c>
       <c r="L385">
-        <v>0.2988294517390504</v>
+        <v>0.2988294517390501</v>
       </c>
       <c r="M385">
-        <v>0.3154863429536742</v>
+        <v>0.3154863429536741</v>
       </c>
       <c r="N385">
         <v>0.5</v>
@@ -17392,7 +17392,7 @@
         <v>-0.3417384735448104</v>
       </c>
       <c r="L386">
-        <v>0.1449155803496754</v>
+        <v>0.1449155803496755</v>
       </c>
       <c r="M386">
         <v>0</v>
@@ -17436,10 +17436,10 @@
         <v>-0.3419163244604928</v>
       </c>
       <c r="L387">
-        <v>0.1528883224318137</v>
+        <v>0.1528883224318136</v>
       </c>
       <c r="M387">
-        <v>0.02209588393031819</v>
+        <v>0.02209588393031799</v>
       </c>
       <c r="N387">
         <v>0.5</v>
@@ -17480,7 +17480,7 @@
         <v>-0.3360761304309204</v>
       </c>
       <c r="L388">
-        <v>0.5765584321319834</v>
+        <v>0.5765584321319838</v>
       </c>
       <c r="M388">
         <v>1</v>
@@ -17524,10 +17524,10 @@
         <v>-0.3562436721614221</v>
       </c>
       <c r="L389">
-        <v>0.241064549173286</v>
+        <v>0.2410645491732854</v>
       </c>
       <c r="M389">
-        <v>0.2227512130146469</v>
+        <v>0.2227512130146452</v>
       </c>
       <c r="N389">
         <v>0.5</v>
@@ -17568,10 +17568,10 @@
         <v>-0.3622286330472533</v>
       </c>
       <c r="L390">
-        <v>0.3001097274779415</v>
+        <v>0.300109727477942</v>
       </c>
       <c r="M390">
-        <v>0.3595429566074122</v>
+        <v>0.359542956607413</v>
       </c>
       <c r="N390">
         <v>0.5</v>
@@ -17615,7 +17615,7 @@
         <v>0.3245978154813718</v>
       </c>
       <c r="M391">
-        <v>0.4162752479040615</v>
+        <v>0.4162752479040613</v>
       </c>
       <c r="N391">
         <v>0.5</v>
@@ -17656,7 +17656,7 @@
         <v>-0.3810193550966332</v>
       </c>
       <c r="L392">
-        <v>0.2419513856000836</v>
+        <v>0.2419513856000837</v>
       </c>
       <c r="M392">
         <v>0.2248057736847373</v>
@@ -17700,7 +17700,7 @@
         <v>-0.3902688076240289</v>
       </c>
       <c r="L393">
-        <v>0.07744983574971882</v>
+        <v>0.07744983574971893</v>
       </c>
       <c r="M393">
         <v>0</v>
@@ -17747,7 +17747,7 @@
         <v>0.431998598569948</v>
       </c>
       <c r="M394">
-        <v>0.7103639676618236</v>
+        <v>0.7103639676618232</v>
       </c>
       <c r="N394">
         <v>0.5</v>
@@ -17788,7 +17788,7 @@
         <v>-0.4829626849950447</v>
       </c>
       <c r="L395">
-        <v>0.9197029658290263</v>
+        <v>0.9197029658290264</v>
       </c>
       <c r="M395">
         <v>1</v>
@@ -17832,10 +17832,10 @@
         <v>-0.4843272191011093</v>
       </c>
       <c r="L396">
-        <v>0.8519227416590794</v>
+        <v>0.8519227416590788</v>
       </c>
       <c r="M396">
-        <v>0.919525114541795</v>
+        <v>0.9195251145417941</v>
       </c>
       <c r="N396">
         <v>0.5</v>
@@ -17876,10 +17876,10 @@
         <v>-0.4537495124508344</v>
       </c>
       <c r="L397">
-        <v>0.8816385458343803</v>
+        <v>0.8816385458343793</v>
       </c>
       <c r="M397">
-        <v>0.9548064368830996</v>
+        <v>0.9548064368830983</v>
       </c>
       <c r="N397">
         <v>0.5</v>
@@ -17920,10 +17920,10 @@
         <v>-0.4657153548240983</v>
       </c>
       <c r="L398">
-        <v>0.7242775839596293</v>
+        <v>0.7242775839596289</v>
       </c>
       <c r="M398">
-        <v>0.7679731010901727</v>
+        <v>0.7679731010901722</v>
       </c>
       <c r="N398">
         <v>0.5</v>
@@ -17964,10 +17964,10 @@
         <v>-0.4651465429264119</v>
       </c>
       <c r="L399">
-        <v>0.6522507216721619</v>
+        <v>0.6522507216721626</v>
       </c>
       <c r="M399">
-        <v>0.6824562182016696</v>
+        <v>0.6824562182016702</v>
       </c>
       <c r="N399">
         <v>0.5</v>
@@ -18008,7 +18008,7 @@
         <v>-0.5062907951623774</v>
       </c>
       <c r="L400">
-        <v>1.022100932127388</v>
+        <v>1.022100932127387</v>
       </c>
       <c r="M400">
         <v>1</v>
@@ -18052,10 +18052,10 @@
         <v>-0.4964119944851936</v>
       </c>
       <c r="L401">
-        <v>0.7938050039691454</v>
+        <v>0.7938050039691453</v>
       </c>
       <c r="M401">
-        <v>0.7583277793953143</v>
+        <v>0.7583277793953144</v>
       </c>
       <c r="N401">
         <v>0.5</v>
@@ -18096,10 +18096,10 @@
         <v>-0.3805696078981849</v>
       </c>
       <c r="L402">
-        <v>0.1497569461353644</v>
+        <v>0.1497569461353637</v>
       </c>
       <c r="M402">
-        <v>0.07654372144690487</v>
+        <v>0.07654372144690402</v>
       </c>
       <c r="N402">
         <v>0.5</v>
@@ -18140,7 +18140,7 @@
         <v>-0.4027882402406714</v>
       </c>
       <c r="L403">
-        <v>0.128374898689408</v>
+        <v>0.1283748986894091</v>
       </c>
       <c r="M403">
         <v>0</v>
@@ -18187,7 +18187,7 @@
         <v>0.1932958099995049</v>
       </c>
       <c r="M404">
-        <v>0.0726407297998912</v>
+        <v>0.0726407297998902</v>
       </c>
       <c r="N404">
         <v>0.5</v>
@@ -18228,10 +18228,10 @@
         <v>-0.4010851113066584</v>
       </c>
       <c r="L405">
-        <v>0.1675350872683631</v>
+        <v>0.1675350872683635</v>
       </c>
       <c r="M405">
-        <v>0.04381677059166993</v>
+        <v>0.04381677059166917</v>
       </c>
       <c r="N405">
         <v>0.5</v>
@@ -18272,10 +18272,10 @@
         <v>-0.4241207375356576</v>
       </c>
       <c r="L406">
-        <v>0.2313761154038114</v>
+        <v>0.2313761154038117</v>
       </c>
       <c r="M406">
-        <v>0.1152492070955782</v>
+        <v>0.1152492070955775</v>
       </c>
       <c r="N406">
         <v>0.5</v>
@@ -18316,10 +18316,10 @@
         <v>-0.4240518448896679</v>
       </c>
       <c r="L407">
-        <v>0.200900570984503</v>
+        <v>0.2009005709845032</v>
       </c>
       <c r="M407">
-        <v>0.08114978145607293</v>
+        <v>0.08114978145607202</v>
       </c>
       <c r="N407">
         <v>0.5</v>
@@ -18360,10 +18360,10 @@
         <v>-0.4218803883699348</v>
       </c>
       <c r="L408">
-        <v>0.1868962783532199</v>
+        <v>0.1868962783532201</v>
       </c>
       <c r="M408">
-        <v>0.06548022265692788</v>
+        <v>0.06548022265692699</v>
       </c>
       <c r="N408">
         <v>0.5</v>
@@ -18404,7 +18404,7 @@
         <v>-0.4050028188596659</v>
       </c>
       <c r="L409">
-        <v>0.09218699693013792</v>
+        <v>0.09218699693013771</v>
       </c>
       <c r="M409">
         <v>0</v>
@@ -18448,10 +18448,10 @@
         <v>-0.4109299495698778</v>
       </c>
       <c r="L410">
-        <v>0.1283319189578218</v>
+        <v>0.1283319189578213</v>
       </c>
       <c r="M410">
-        <v>0.05151652560946077</v>
+        <v>0.05151652560946039</v>
       </c>
       <c r="N410">
         <v>0.5</v>
@@ -18492,7 +18492,7 @@
         <v>-0.3475140632206943</v>
       </c>
       <c r="L411">
-        <v>0.2764431762143273</v>
+        <v>0.2764431762143271</v>
       </c>
       <c r="M411">
         <v>1</v>
@@ -18536,10 +18536,10 @@
         <v>-0.3420742887526287</v>
       </c>
       <c r="L412">
-        <v>0.2736435166566729</v>
+        <v>0.2736435166566727</v>
       </c>
       <c r="M412">
-        <v>0.9848056137464115</v>
+        <v>0.9848056137464117</v>
       </c>
       <c r="N412">
         <v>0.5</v>
@@ -18580,7 +18580,7 @@
         <v>-0.34038799832258</v>
       </c>
       <c r="L413">
-        <v>0.2825028825711289</v>
+        <v>0.2825028825711287</v>
       </c>
       <c r="M413">
         <v>1</v>
@@ -18624,7 +18624,7 @@
         <v>-0.3398003346542076</v>
       </c>
       <c r="L414">
-        <v>0.2553818687671314</v>
+        <v>0.2553818687671312</v>
       </c>
       <c r="M414">
         <v>0.8574947450516132</v>
@@ -18668,10 +18668,10 @@
         <v>-0.3579255612602292</v>
       </c>
       <c r="L415">
-        <v>0.2396112956310765</v>
+        <v>0.2396112956310762</v>
       </c>
       <c r="M415">
-        <v>0.7746294966623942</v>
+        <v>0.7746294966623934</v>
       </c>
       <c r="N415">
         <v>0.5</v>
@@ -18712,7 +18712,7 @@
         <v>-0.3213117445189979</v>
       </c>
       <c r="L416">
-        <v>0.4280744311728589</v>
+        <v>0.4280744311728572</v>
       </c>
       <c r="M416">
         <v>1</v>
@@ -18756,7 +18756,7 @@
         <v>-0.3768838051629713</v>
       </c>
       <c r="L417">
-        <v>0.4419552316172237</v>
+        <v>0.4419552316172243</v>
       </c>
       <c r="M417">
         <v>1</v>
@@ -18800,7 +18800,7 @@
         <v>-0.306494439627349</v>
       </c>
       <c r="L418">
-        <v>0.5818808914474146</v>
+        <v>0.5818808914474148</v>
       </c>
       <c r="M418">
         <v>1</v>
@@ -18844,7 +18844,7 @@
         <v>-0.3165453573602044</v>
       </c>
       <c r="L419">
-        <v>0.6359776388276621</v>
+        <v>0.6359776388276625</v>
       </c>
       <c r="M419">
         <v>1</v>
@@ -18888,10 +18888,10 @@
         <v>-0.3188169480129482</v>
       </c>
       <c r="L420">
-        <v>0.5963935892480515</v>
+        <v>0.5963935892480506</v>
       </c>
       <c r="M420">
-        <v>0.9001326670161344</v>
+        <v>0.9001326670161314</v>
       </c>
       <c r="N420">
         <v>0.5</v>
@@ -18932,10 +18932,10 @@
         <v>-0.3436683111855083</v>
       </c>
       <c r="L421">
-        <v>0.6231960006332251</v>
+        <v>0.6231960006332247</v>
       </c>
       <c r="M421">
-        <v>0.9677529678949111</v>
+        <v>0.9677529678949092</v>
       </c>
       <c r="N421">
         <v>0.5</v>
@@ -18976,7 +18976,7 @@
         <v>-0.4189672186497758</v>
       </c>
       <c r="L422">
-        <v>0.6574392744637485</v>
+        <v>0.6574392744637488</v>
       </c>
       <c r="M422">
         <v>1</v>
@@ -19020,10 +19020,10 @@
         <v>-0.2452603590615539</v>
       </c>
       <c r="L423">
-        <v>0.3102430942205384</v>
+        <v>0.3102430942205394</v>
       </c>
       <c r="M423">
-        <v>0.1690451625254802</v>
+        <v>0.169045162525483</v>
       </c>
       <c r="N423">
         <v>0.5</v>
@@ -19108,7 +19108,7 @@
         <v>-0.2025180195345208</v>
       </c>
       <c r="L425">
-        <v>0.1125548067165179</v>
+        <v>0.1125548067165181</v>
       </c>
       <c r="M425">
         <v>0</v>
@@ -19152,10 +19152,10 @@
         <v>-0.1908176037014006</v>
       </c>
       <c r="L426">
-        <v>0.2976669344504849</v>
+        <v>0.2976669344504853</v>
       </c>
       <c r="M426">
-        <v>0.3341743184774115</v>
+        <v>0.3341743184774118</v>
       </c>
       <c r="N426">
         <v>0.5</v>
@@ -19196,10 +19196,10 @@
         <v>-0.1863197812704853</v>
       </c>
       <c r="L427">
-        <v>0.3692003917961095</v>
+        <v>0.369200391796109</v>
       </c>
       <c r="M427">
-        <v>0.4633103434879474</v>
+        <v>0.4633103434879461</v>
       </c>
       <c r="N427">
         <v>0.5</v>
@@ -19240,10 +19240,10 @@
         <v>-0.2207557727209872</v>
       </c>
       <c r="L428">
-        <v>0.1916381236585902</v>
+        <v>0.1916381236585905</v>
       </c>
       <c r="M428">
-        <v>0.1427654355528258</v>
+        <v>0.1427654355528261</v>
       </c>
       <c r="N428">
         <v>0.5</v>
@@ -19284,7 +19284,7 @@
         <v>-0.2372640395469726</v>
       </c>
       <c r="L429">
-        <v>0.005288036666675665</v>
+        <v>0.005288036666676683</v>
       </c>
       <c r="M429">
         <v>0</v>
@@ -19328,7 +19328,7 @@
         <v>-0.2835356845945146</v>
       </c>
       <c r="L430">
-        <v>-0.1301725906630983</v>
+        <v>-0.1301725906630984</v>
       </c>
       <c r="M430">
         <v>1</v>
@@ -19372,7 +19372,7 @@
         <v>-0.2942690095565332</v>
       </c>
       <c r="L431">
-        <v>-0.283474552503987</v>
+        <v>-0.2834745525039868</v>
       </c>
       <c r="M431">
         <v>1</v>
@@ -19416,7 +19416,7 @@
         <v>-0.3088410186519874</v>
       </c>
       <c r="L432">
-        <v>-0.455774054450926</v>
+        <v>-0.4557740544509264</v>
       </c>
       <c r="M432">
         <v>1</v>
@@ -19460,7 +19460,7 @@
         <v>-0.3491919672377684</v>
       </c>
       <c r="L433">
-        <v>-0.469279480581954</v>
+        <v>-0.4692794805819539</v>
       </c>
       <c r="M433">
         <v>1</v>
@@ -19504,10 +19504,10 @@
         <v>-0.3421521339120763</v>
       </c>
       <c r="L434">
-        <v>-0.4574084122089094</v>
+        <v>-0.4574084122089083</v>
       </c>
       <c r="M434">
-        <v>0.9649931371907977</v>
+        <v>0.9649931371907948</v>
       </c>
       <c r="N434">
         <v>0.5</v>
@@ -19548,7 +19548,7 @@
         <v>-0.3581730710301244</v>
       </c>
       <c r="L435">
-        <v>-0.648282514119061</v>
+        <v>-0.6482825141190622</v>
       </c>
       <c r="M435">
         <v>1</v>
@@ -19592,10 +19592,10 @@
         <v>-0.3510100471783515</v>
       </c>
       <c r="L436">
-        <v>-0.4920057769346146</v>
+        <v>-0.4920057769346147</v>
       </c>
       <c r="M436">
-        <v>0.6983714649933175</v>
+        <v>0.6983714649933161</v>
       </c>
       <c r="N436">
         <v>0.5</v>
@@ -19636,10 +19636,10 @@
         <v>-0.3570808965558416</v>
       </c>
       <c r="L437">
-        <v>-0.1677260931941797</v>
+        <v>-0.1677260931941802</v>
       </c>
       <c r="M437">
-        <v>0.07248172797113639</v>
+        <v>0.07248172797113704</v>
       </c>
       <c r="N437">
         <v>0.5</v>
@@ -19680,7 +19680,7 @@
         <v>-0.3531304003738818</v>
       </c>
       <c r="L438">
-        <v>-0.1224316778245759</v>
+        <v>-0.1224316778245757</v>
       </c>
       <c r="M438">
         <v>0</v>
@@ -19724,10 +19724,10 @@
         <v>-0.3514130270108469</v>
       </c>
       <c r="L439">
-        <v>-0.4056901312516599</v>
+        <v>-0.4056901312516591</v>
       </c>
       <c r="M439">
-        <v>0.5386669258208702</v>
+        <v>0.5386669258208678</v>
       </c>
       <c r="N439">
         <v>0.5</v>
@@ -19812,7 +19812,7 @@
         <v>-0.3845735546107756</v>
       </c>
       <c r="L441">
-        <v>-0.9698575015897332</v>
+        <v>-0.9698575015897335</v>
       </c>
       <c r="M441">
         <v>1</v>
@@ -19944,10 +19944,10 @@
         <v>-0.4452154010720643</v>
       </c>
       <c r="L444">
-        <v>-0.9968726616227164</v>
+        <v>-0.9968726616227169</v>
       </c>
       <c r="M444">
-        <v>0.8855680019298618</v>
+        <v>0.8855680019298623</v>
       </c>
       <c r="N444">
         <v>0.5</v>
@@ -20035,7 +20035,7 @@
         <v>-1.082614993127118</v>
       </c>
       <c r="M446">
-        <v>0.8854826852109476</v>
+        <v>0.8854826852109473</v>
       </c>
       <c r="N446">
         <v>0.5</v>
@@ -20079,7 +20079,7 @@
         <v>-1.150223881128404</v>
       </c>
       <c r="M447">
-        <v>0.9478317166275599</v>
+        <v>0.9478317166275594</v>
       </c>
       <c r="N447">
         <v>0.5</v>
@@ -20120,10 +20120,10 @@
         <v>-0.4384673632384123</v>
       </c>
       <c r="L448">
-        <v>-1.083789702411194</v>
+        <v>-1.083789702411193</v>
       </c>
       <c r="M448">
-        <v>0.8464573824152581</v>
+        <v>0.8464573824152569</v>
       </c>
       <c r="N448">
         <v>0.5</v>
@@ -20167,7 +20167,7 @@
         <v>-1.135087181410372</v>
       </c>
       <c r="M449">
-        <v>0.7975814940339085</v>
+        <v>0.7975814940339081</v>
       </c>
       <c r="N449">
         <v>0.5</v>
@@ -20208,10 +20208,10 @@
         <v>-0.4420645916015195</v>
       </c>
       <c r="L450">
-        <v>-1.100535995315382</v>
+        <v>-1.100535995315381</v>
       </c>
       <c r="M450">
-        <v>0.5515357867397073</v>
+        <v>0.5515357867397043</v>
       </c>
       <c r="N450">
         <v>0.5</v>
@@ -20255,7 +20255,7 @@
         <v>-1.175257501526518</v>
       </c>
       <c r="M451">
-        <v>0.8587651120227582</v>
+        <v>0.8587651120227553</v>
       </c>
       <c r="N451">
         <v>0.5</v>
@@ -20299,7 +20299,7 @@
         <v>-1.168831121125656</v>
       </c>
       <c r="M452">
-        <v>0.8191599314042024</v>
+        <v>0.8191599314042021</v>
       </c>
       <c r="N452">
         <v>0.5</v>
@@ -20340,10 +20340,10 @@
         <v>-0.4147845525515404</v>
       </c>
       <c r="L453">
-        <v>-1.206236750533674</v>
+        <v>-1.206236750533673</v>
       </c>
       <c r="M453">
-        <v>0.9973494366403709</v>
+        <v>0.9973494366403688</v>
       </c>
       <c r="N453">
         <v>0.5</v>
@@ -20475,7 +20475,7 @@
         <v>-1.304078156363762</v>
       </c>
       <c r="M456">
-        <v>0.5166262400292563</v>
+        <v>0.5166262400292573</v>
       </c>
       <c r="N456">
         <v>0.5</v>
@@ -20516,7 +20516,7 @@
         <v>-0.1797130132546321</v>
       </c>
       <c r="L457">
-        <v>-0.8723659752487759</v>
+        <v>-0.8723659752487762</v>
       </c>
       <c r="M457">
         <v>0</v>
@@ -20560,7 +20560,7 @@
         <v>-0.148939698702736</v>
       </c>
       <c r="L458">
-        <v>-0.4081871690552835</v>
+        <v>-0.4081871690552839</v>
       </c>
       <c r="M458">
         <v>0</v>
@@ -20604,7 +20604,7 @@
         <v>-0.1161288562554826</v>
       </c>
       <c r="L459">
-        <v>0.0526374003069081</v>
+        <v>0.05263740030690846</v>
       </c>
       <c r="M459">
         <v>1</v>
@@ -20651,7 +20651,7 @@
         <v>-0.9128239854892377</v>
       </c>
       <c r="M460">
-        <v>0.4579278769333905</v>
+        <v>0.4579278769333904</v>
       </c>
       <c r="N460">
         <v>0.5</v>
@@ -20692,7 +20692,7 @@
         <v>-0.05567049600106319</v>
       </c>
       <c r="L461">
-        <v>-0.1375154058486956</v>
+        <v>-0.1375154058486959</v>
       </c>
       <c r="M461">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>-0.1417197027356349</v>
       </c>
       <c r="L462">
-        <v>0.2977359739511732</v>
+        <v>0.297735973951173</v>
       </c>
       <c r="M462">
         <v>1</v>
@@ -20780,10 +20780,10 @@
         <v>-0.1294137250302098</v>
       </c>
       <c r="L463">
-        <v>0.1738892303531821</v>
+        <v>0.1738892303531824</v>
       </c>
       <c r="M463">
-        <v>0.494706387897052</v>
+        <v>0.494706387897053</v>
       </c>
       <c r="N463">
         <v>0.5</v>
@@ -20824,10 +20824,10 @@
         <v>-0.1442775997479944</v>
       </c>
       <c r="L464">
-        <v>-0.1542105042252343</v>
+        <v>-0.1542105042252339</v>
       </c>
       <c r="M464">
-        <v>0.01216247828571716</v>
+        <v>0.01216247828571667</v>
       </c>
       <c r="N464">
         <v>0.5</v>
@@ -20868,10 +20868,10 @@
         <v>-0.1448380092363796</v>
       </c>
       <c r="L465">
-        <v>-0.1886139566160978</v>
+        <v>-0.1886139566160963</v>
       </c>
       <c r="M465">
-        <v>0.04380265934673544</v>
+        <v>0.04380265934673395</v>
       </c>
       <c r="N465">
         <v>0.5</v>
@@ -20912,10 +20912,10 @@
         <v>-0.1092428594222962</v>
       </c>
       <c r="L466">
-        <v>-0.2334490334182174</v>
+        <v>-0.2334490334182178</v>
       </c>
       <c r="M466">
-        <v>0.12373605824664</v>
+        <v>0.1237360582466401</v>
       </c>
       <c r="N466">
         <v>0.5</v>
@@ -20956,7 +20956,7 @@
         <v>-0.1060591696692057</v>
       </c>
       <c r="L467">
-        <v>-0.1085291352871452</v>
+        <v>-0.1085291352871453</v>
       </c>
       <c r="M467">
         <v>0</v>
@@ -21000,10 +21000,10 @@
         <v>-0.1074409306571939</v>
       </c>
       <c r="L468">
-        <v>-0.1675260711642273</v>
+        <v>-0.1675260711642275</v>
       </c>
       <c r="M468">
-        <v>0.07335237302869482</v>
+        <v>0.07335237302869499</v>
       </c>
       <c r="N468">
         <v>0.5</v>
@@ -21044,10 +21044,10 @@
         <v>-0.09640625112037302</v>
       </c>
       <c r="L469">
-        <v>0.218826601988472</v>
+        <v>0.2188266019884727</v>
       </c>
       <c r="M469">
-        <v>0.3628466145315653</v>
+        <v>0.3628466145315703</v>
       </c>
       <c r="N469">
         <v>0.5</v>
@@ -21088,7 +21088,7 @@
         <v>-0.07993316663185041</v>
       </c>
       <c r="L470">
-        <v>0.3062345477081165</v>
+        <v>0.3062345477081158</v>
       </c>
       <c r="M470">
         <v>1</v>
@@ -21132,7 +21132,7 @@
         <v>-0.05687955613444953</v>
       </c>
       <c r="L471">
-        <v>0.620512281184413</v>
+        <v>0.6205122811844129</v>
       </c>
       <c r="M471">
         <v>1</v>
@@ -21179,7 +21179,7 @@
         <v>0.590967295816416</v>
       </c>
       <c r="M472">
-        <v>0.9338480508047906</v>
+        <v>0.9338480508047908</v>
       </c>
       <c r="N472">
         <v>0.5</v>
@@ -21264,7 +21264,7 @@
         <v>0.007564903626914192</v>
       </c>
       <c r="L474">
-        <v>1.070430446712774</v>
+        <v>1.070430446712773</v>
       </c>
       <c r="M474">
         <v>1</v>
@@ -21308,10 +21308,10 @@
         <v>0.03462327160452212</v>
       </c>
       <c r="L475">
-        <v>0.8026882672510269</v>
+        <v>0.8026882672510264</v>
       </c>
       <c r="M475">
-        <v>0.6856024299086795</v>
+        <v>0.6856024299086787</v>
       </c>
       <c r="N475">
         <v>0.5</v>
@@ -21355,7 +21355,7 @@
         <v>1.008615702225188</v>
       </c>
       <c r="M476">
-        <v>0.9274137324877885</v>
+        <v>0.9274137324877888</v>
       </c>
       <c r="N476">
         <v>0.5</v>
@@ -21396,10 +21396,10 @@
         <v>0.02942954458448117</v>
       </c>
       <c r="L477">
-        <v>0.6856341735939203</v>
+        <v>0.6856341735939202</v>
       </c>
       <c r="M477">
-        <v>0.5481510851522432</v>
+        <v>0.5481510851522428</v>
       </c>
       <c r="N477">
         <v>0.5</v>
@@ -21440,10 +21440,10 @@
         <v>0.006604632503106176</v>
       </c>
       <c r="L478">
-        <v>0.2855320816103024</v>
+        <v>0.2855320816103026</v>
       </c>
       <c r="M478">
-        <v>0.07832923727983596</v>
+        <v>0.0783292372798354</v>
       </c>
       <c r="N478">
         <v>0.5</v>
@@ -21484,10 +21484,10 @@
         <v>0.01161806504377039</v>
       </c>
       <c r="L479">
-        <v>0.4118032879846133</v>
+        <v>0.4118032879846136</v>
       </c>
       <c r="M479">
-        <v>0.1608758687601876</v>
+        <v>0.1608758687601877</v>
       </c>
       <c r="N479">
         <v>0.5</v>
@@ -21528,7 +21528,7 @@
         <v>0.02193177134712451</v>
       </c>
       <c r="L480">
-        <v>0.5256703046488265</v>
+        <v>0.5256703046488266</v>
       </c>
       <c r="M480">
         <v>0.3059481758599067</v>
@@ -21572,10 +21572,10 @@
         <v>0.02840826021203895</v>
       </c>
       <c r="L481">
-        <v>0.5976018149948642</v>
+        <v>0.5976018149948643</v>
       </c>
       <c r="M481">
-        <v>0.3975925384222453</v>
+        <v>0.3975925384222454</v>
       </c>
       <c r="N481">
         <v>0.5</v>
@@ -21616,10 +21616,10 @@
         <v>0.04373684717994519</v>
       </c>
       <c r="L482">
-        <v>0.697481047454553</v>
+        <v>0.6974810474545523</v>
       </c>
       <c r="M482">
-        <v>0.5248437048158066</v>
+        <v>0.5248437048158058</v>
       </c>
       <c r="N482">
         <v>0.5</v>
@@ -21660,10 +21660,10 @@
         <v>-0.07607004352720748</v>
       </c>
       <c r="L483">
-        <v>0.9408811541294569</v>
+        <v>0.9408811541294567</v>
       </c>
       <c r="M483">
-        <v>0.83494768451148</v>
+        <v>0.8349476845114799</v>
       </c>
       <c r="N483">
         <v>0.5</v>
@@ -21704,10 +21704,10 @@
         <v>-0.1080200727930783</v>
       </c>
       <c r="L484">
-        <v>0.8643860935810019</v>
+        <v>0.8643860935810027</v>
       </c>
       <c r="M484">
-        <v>0.8005353675117992</v>
+        <v>0.8005353675118002</v>
       </c>
       <c r="N484">
         <v>0.5</v>
@@ -21748,10 +21748,10 @@
         <v>-0.1060460890779888</v>
       </c>
       <c r="L485">
-        <v>0.8129739675104904</v>
+        <v>0.8129739675104906</v>
       </c>
       <c r="M485">
-        <v>0.7294341496100685</v>
+        <v>0.7294341496100681</v>
       </c>
       <c r="N485">
         <v>0.5</v>
@@ -21792,10 +21792,10 @@
         <v>-0.1207396077671699</v>
       </c>
       <c r="L486">
-        <v>0.6554361599400331</v>
+        <v>0.6554361599400327</v>
       </c>
       <c r="M486">
-        <v>0.5644382419094965</v>
+        <v>0.5644382419094959</v>
       </c>
       <c r="N486">
         <v>0.5</v>
@@ -21836,10 +21836,10 @@
         <v>-0.1300134651020562</v>
       </c>
       <c r="L487">
-        <v>0.578290557431794</v>
+        <v>0.5782905574317942</v>
       </c>
       <c r="M487">
-        <v>0.4467214315206571</v>
+        <v>0.4467214315206574</v>
       </c>
       <c r="N487">
         <v>0.5</v>
@@ -21880,10 +21880,10 @@
         <v>-0.1312064396185486</v>
       </c>
       <c r="L488">
-        <v>0.5410615094924007</v>
+        <v>0.5410615094924013</v>
       </c>
       <c r="M488">
-        <v>0.2443085031124717</v>
+        <v>0.2443085031124725</v>
       </c>
       <c r="N488">
         <v>0.5</v>
@@ -21924,10 +21924,10 @@
         <v>-0.1110364799789308</v>
       </c>
       <c r="L489">
-        <v>0.6289905295927889</v>
+        <v>0.6289905295927894</v>
       </c>
       <c r="M489">
-        <v>0.2488379700896576</v>
+        <v>0.2488379700896588</v>
       </c>
       <c r="N489">
         <v>0.5</v>
@@ -21968,10 +21968,10 @@
         <v>-0.1114621231509763</v>
       </c>
       <c r="L490">
-        <v>0.6026747544195461</v>
+        <v>0.6026747544195463</v>
       </c>
       <c r="M490">
-        <v>0.1541025953916695</v>
+        <v>0.154102595391669</v>
       </c>
       <c r="N490">
         <v>0.5</v>
@@ -22012,10 +22012,10 @@
         <v>-0.1063781438196433</v>
       </c>
       <c r="L491">
-        <v>0.5569875284783563</v>
+        <v>0.5569875284783569</v>
       </c>
       <c r="M491">
-        <v>0.03983300770629398</v>
+        <v>0.03983300770629406</v>
       </c>
       <c r="N491">
         <v>0.5</v>
@@ -22056,10 +22056,10 @@
         <v>-0.07670785918870489</v>
       </c>
       <c r="L492">
-        <v>0.7250116867070875</v>
+        <v>0.7250116867070876</v>
       </c>
       <c r="M492">
-        <v>0.4600828890778265</v>
+        <v>0.4600828890778264</v>
       </c>
       <c r="N492">
         <v>0.5</v>
@@ -22100,7 +22100,7 @@
         <v>0.01438071077921054</v>
       </c>
       <c r="L493">
-        <v>0.9318993775871564</v>
+        <v>0.9318993775871565</v>
       </c>
       <c r="M493">
         <v>1</v>
@@ -22144,7 +22144,7 @@
         <v>0.009237680664246996</v>
       </c>
       <c r="L494">
-        <v>0.9609871055075992</v>
+        <v>0.9609871055075995</v>
       </c>
       <c r="M494">
         <v>1</v>
@@ -22191,7 +22191,7 @@
         <v>0.7799307693918696</v>
       </c>
       <c r="M495">
-        <v>0.5688371039207225</v>
+        <v>0.5688371039207216</v>
       </c>
       <c r="N495">
         <v>0.5</v>
@@ -22232,10 +22232,10 @@
         <v>0.02556279186252093</v>
       </c>
       <c r="L496">
-        <v>0.9204848485770128</v>
+        <v>0.9204848485770127</v>
       </c>
       <c r="M496">
-        <v>0.9035489684007724</v>
+        <v>0.9035489684007715</v>
       </c>
       <c r="N496">
         <v>0.5</v>
@@ -22276,7 +22276,7 @@
         <v>0.08688509800117636</v>
       </c>
       <c r="L497">
-        <v>0.9941723944658508</v>
+        <v>0.9941723944658504</v>
       </c>
       <c r="M497">
         <v>1</v>
@@ -22320,10 +22320,10 @@
         <v>0.07171488656117909</v>
       </c>
       <c r="L498">
-        <v>0.7788241230221717</v>
+        <v>0.7788241230221719</v>
       </c>
       <c r="M498">
-        <v>0.5074205714846519</v>
+        <v>0.507420571484652</v>
       </c>
       <c r="N498">
         <v>0.5</v>
@@ -22452,7 +22452,7 @@
         <v>0.08331781554807979</v>
       </c>
       <c r="L501">
-        <v>1.072698890124346</v>
+        <v>1.072698890124345</v>
       </c>
       <c r="M501">
         <v>1</v>
@@ -22499,7 +22499,7 @@
         <v>1.049307508412798</v>
       </c>
       <c r="M502">
-        <v>0.9204035720990792</v>
+        <v>0.9204035720990799</v>
       </c>
       <c r="N502">
         <v>0.5</v>
@@ -22587,7 +22587,7 @@
         <v>1.081543387082184</v>
       </c>
       <c r="M504">
-        <v>0.9889098800401493</v>
+        <v>0.9889098800401501</v>
       </c>
       <c r="N504">
         <v>0.5</v>
@@ -22628,7 +22628,7 @@
         <v>0.2178545846469329</v>
       </c>
       <c r="L505">
-        <v>1.24433515974966</v>
+        <v>1.244335159749659</v>
       </c>
       <c r="M505">
         <v>1</v>
@@ -22675,7 +22675,7 @@
         <v>1.147284687900881</v>
       </c>
       <c r="M506">
-        <v>0.7915184298721744</v>
+        <v>0.7915184298721756</v>
       </c>
       <c r="N506">
         <v>0.5</v>
@@ -22851,7 +22851,7 @@
         <v>1.705515157076427</v>
       </c>
       <c r="M510">
-        <v>0.8961641560444141</v>
+        <v>0.8961641560444136</v>
       </c>
       <c r="N510">
         <v>0.5</v>
@@ -23027,7 +23027,7 @@
         <v>2.091649427446367</v>
       </c>
       <c r="M514">
-        <v>0.8156449499347278</v>
+        <v>0.815644949934728</v>
       </c>
       <c r="N514">
         <v>0.5</v>
@@ -23071,7 +23071,7 @@
         <v>2.161550541191341</v>
       </c>
       <c r="M515">
-        <v>0.8760183290258842</v>
+        <v>0.8760183290258845</v>
       </c>
       <c r="N515">
         <v>0.5</v>
@@ -23115,7 +23115,7 @@
         <v>2.117482966994709</v>
       </c>
       <c r="M516">
-        <v>0.7941617598230492</v>
+        <v>0.7941617598230496</v>
       </c>
       <c r="N516">
         <v>0.5</v>
@@ -23156,10 +23156,10 @@
         <v>0.2601693408305425</v>
       </c>
       <c r="L517">
-        <v>1.897978028046329</v>
+        <v>1.897978028046328</v>
       </c>
       <c r="M517">
-        <v>0.4233228231772992</v>
+        <v>0.4233228231772988</v>
       </c>
       <c r="N517">
         <v>0.5</v>
@@ -23244,7 +23244,7 @@
         <v>0.1102385520288129</v>
       </c>
       <c r="L519">
-        <v>0.9594986937428895</v>
+        <v>0.9594986937428897</v>
       </c>
       <c r="M519">
         <v>0</v>
@@ -23291,7 +23291,7 @@
         <v>1.535529790343564</v>
       </c>
       <c r="M520">
-        <v>0.4280850998515263</v>
+        <v>0.4280850998515266</v>
       </c>
       <c r="N520">
         <v>0.5</v>
@@ -23335,7 +23335,7 @@
         <v>1.222254896494746</v>
       </c>
       <c r="M521">
-        <v>0.1952707344367783</v>
+        <v>0.1952707344367784</v>
       </c>
       <c r="N521">
         <v>0.5</v>
@@ -23376,10 +23376,10 @@
         <v>0.2208351341387795</v>
       </c>
       <c r="L522">
-        <v>1.27557714189701</v>
+        <v>1.275577141897011</v>
       </c>
       <c r="M522">
-        <v>0.2348978637394172</v>
+        <v>0.2348978637394176</v>
       </c>
       <c r="N522">
         <v>0.5</v>
@@ -23423,7 +23423,7 @@
         <v>1.1593474524867</v>
       </c>
       <c r="M523">
-        <v>0.1662563550549189</v>
+        <v>0.1662563550549188</v>
       </c>
       <c r="N523">
         <v>0.5</v>
@@ -23467,7 +23467,7 @@
         <v>1.466185927327994</v>
       </c>
       <c r="M524">
-        <v>0.421518618070119</v>
+        <v>0.4215186180701186</v>
       </c>
       <c r="N524">
         <v>0.5</v>
@@ -23511,7 +23511,7 @@
         <v>1.212003968521589</v>
       </c>
       <c r="M525">
-        <v>0.2180558757241331</v>
+        <v>0.218055875724133</v>
       </c>
       <c r="N525">
         <v>0.5</v>
@@ -23552,7 +23552,7 @@
         <v>-0.0008250294166119958</v>
       </c>
       <c r="L526">
-        <v>0.8708574490514728</v>
+        <v>0.8708574490514733</v>
       </c>
       <c r="M526">
         <v>0</v>
@@ -23596,10 +23596,10 @@
         <v>0.007631141921225851</v>
       </c>
       <c r="L527">
-        <v>0.8903877448582148</v>
+        <v>0.8903877448582147</v>
       </c>
       <c r="M527">
-        <v>0.02938334363180523</v>
+        <v>0.02938334363180424</v>
       </c>
       <c r="N527">
         <v>0.5</v>
@@ -23640,10 +23640,10 @@
         <v>0.01135717174941752</v>
       </c>
       <c r="L528">
-        <v>0.9951999786819874</v>
+        <v>0.9951999786819865</v>
       </c>
       <c r="M528">
-        <v>0.1870734223554402</v>
+        <v>0.1870734223554381</v>
       </c>
       <c r="N528">
         <v>0.5</v>
@@ -23684,10 +23684,10 @@
         <v>0.0441770909893052</v>
       </c>
       <c r="L529">
-        <v>0.9807516300579708</v>
+        <v>0.9807516300579704</v>
       </c>
       <c r="M529">
-        <v>0.1653358717964239</v>
+        <v>0.1653358717964225</v>
       </c>
       <c r="N529">
         <v>0.5</v>
@@ -23728,10 +23728,10 @@
         <v>0.03824900528449063</v>
       </c>
       <c r="L530">
-        <v>0.8755104721140012</v>
+        <v>0.8755104721140017</v>
       </c>
       <c r="M530">
-        <v>0.007815891952622497</v>
+        <v>0.007815891952622323</v>
       </c>
       <c r="N530">
         <v>0.5</v>
@@ -23772,7 +23772,7 @@
         <v>0.004768220973449417</v>
       </c>
       <c r="L531">
-        <v>0.5748937686971043</v>
+        <v>0.5748937686971042</v>
       </c>
       <c r="M531">
         <v>0</v>
@@ -23816,7 +23816,7 @@
         <v>-0.03438709820978588</v>
       </c>
       <c r="L532">
-        <v>0.3319406911133336</v>
+        <v>0.3319406911133341</v>
       </c>
       <c r="M532">
         <v>0</v>
@@ -23860,7 +23860,7 @@
         <v>-0.03873070771571399</v>
       </c>
       <c r="L533">
-        <v>0.2952459570740952</v>
+        <v>0.2952459570740948</v>
       </c>
       <c r="M533">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>-0.07701042876365015</v>
       </c>
       <c r="L534">
-        <v>0.009299260672692525</v>
+        <v>0.009299260672692562</v>
       </c>
       <c r="M534">
         <v>0</v>
@@ -23951,7 +23951,7 @@
         <v>0.1831501566666867</v>
       </c>
       <c r="M535">
-        <v>0.1763371228139781</v>
+        <v>0.1763371228139782</v>
       </c>
       <c r="N535">
         <v>0.5</v>
@@ -24033,13 +24033,13 @@
         <v>0.03641223355445196</v>
       </c>
       <c r="K537">
-        <v>-0.06090357576944951</v>
+        <v>-0.06090357576944937</v>
       </c>
       <c r="L537">
         <v>0.2551056830094316</v>
       </c>
       <c r="M537">
-        <v>0.2545896341591073</v>
+        <v>0.2545896341591075</v>
       </c>
       <c r="N537">
         <v>0.5</v>
@@ -24080,10 +24080,10 @@
         <v>0.01034854174872646</v>
       </c>
       <c r="L538">
-        <v>0.7208685215872553</v>
+        <v>0.720868521587256</v>
       </c>
       <c r="M538">
-        <v>0.7343848950050109</v>
+        <v>0.7343848950050119</v>
       </c>
       <c r="N538">
         <v>0.5</v>
@@ -24124,10 +24124,10 @@
         <v>0.005291547952508312</v>
       </c>
       <c r="L539">
-        <v>0.6833523575094005</v>
+        <v>0.6833523575093996</v>
       </c>
       <c r="M539">
-        <v>0.7799326735376679</v>
+        <v>0.7799326735376666</v>
       </c>
       <c r="N539">
         <v>0.5</v>
@@ -24168,10 +24168,10 @@
         <v>0.009390919334162209</v>
       </c>
       <c r="L540">
-        <v>0.7097019991064231</v>
+        <v>0.7097019991064225</v>
       </c>
       <c r="M540">
-        <v>0.9844593591055282</v>
+        <v>0.9844593591055265</v>
       </c>
       <c r="N540">
         <v>0.5</v>
@@ -24215,7 +24215,7 @@
         <v>0.6267507750264086</v>
       </c>
       <c r="M541">
-        <v>0.8690147175533188</v>
+        <v>0.8690147175533181</v>
       </c>
       <c r="N541">
         <v>0.5</v>
@@ -24256,10 +24256,10 @@
         <v>0.0083495996502962</v>
       </c>
       <c r="L542">
-        <v>0.6508753516295077</v>
+        <v>0.6508753516295078</v>
       </c>
       <c r="M542">
-        <v>0.9025893046607634</v>
+        <v>0.9025893046607626</v>
       </c>
       <c r="N542">
         <v>0.5</v>
@@ -24300,10 +24300,10 @@
         <v>0.007843843449192343</v>
       </c>
       <c r="L543">
-        <v>0.6517402591894002</v>
+        <v>0.6517402591894004</v>
       </c>
       <c r="M543">
-        <v>0.9037930113490609</v>
+        <v>0.9037930113490603</v>
       </c>
       <c r="N543">
         <v>0.5</v>
@@ -24344,10 +24344,10 @@
         <v>-0.008732875244098855</v>
       </c>
       <c r="L544">
-        <v>0.4936574794551651</v>
+        <v>0.493657479455165</v>
       </c>
       <c r="M544">
-        <v>0.6837864949365734</v>
+        <v>0.6837864949365726</v>
       </c>
       <c r="N544">
         <v>0.5</v>
@@ -24388,7 +24388,7 @@
         <v>0.09947032205387604</v>
       </c>
       <c r="L545">
-        <v>1.11507902686277</v>
+        <v>1.115079026862771</v>
       </c>
       <c r="M545">
         <v>1</v>
@@ -24432,7 +24432,7 @@
         <v>0.1132299378563211</v>
       </c>
       <c r="L546">
-        <v>1.31109301941713</v>
+        <v>1.311093019417129</v>
       </c>
       <c r="M546">
         <v>1</v>
@@ -24699,7 +24699,7 @@
         <v>1.367587299768304</v>
       </c>
       <c r="M552">
-        <v>0.7342206342105377</v>
+        <v>0.7342206342105376</v>
       </c>
       <c r="N552">
         <v>0.5</v>
@@ -24784,10 +24784,10 @@
         <v>0.04594683718045976</v>
       </c>
       <c r="L554">
-        <v>0.9607104705858852</v>
+        <v>0.9607104705858855</v>
       </c>
       <c r="M554">
-        <v>0.06510908867838228</v>
+        <v>0.06510908867838269</v>
       </c>
       <c r="N554">
         <v>0.5</v>
@@ -24828,10 +24828,10 @@
         <v>0.08373987422780901</v>
       </c>
       <c r="L555">
-        <v>1.299782441690455</v>
+        <v>1.299782441690454</v>
       </c>
       <c r="M555">
-        <v>0.5034144824128025</v>
+        <v>0.5034144824128021</v>
       </c>
       <c r="N555">
         <v>0.5</v>
@@ -24875,7 +24875,7 @@
         <v>1.196003806868337</v>
       </c>
       <c r="M556">
-        <v>0.369263802695012</v>
+        <v>0.3692638026950122</v>
       </c>
       <c r="N556">
         <v>0.5</v>
@@ -24919,7 +24919,7 @@
         <v>1.185329106562619</v>
       </c>
       <c r="M557">
-        <v>0.3554650250925673</v>
+        <v>0.3554650250925666</v>
       </c>
       <c r="N557">
         <v>0.5</v>
@@ -24963,7 +24963,7 @@
         <v>1.383149466052813</v>
       </c>
       <c r="M558">
-        <v>0.6111798524567384</v>
+        <v>0.6111798524567373</v>
       </c>
       <c r="N558">
         <v>0.5</v>
@@ -25007,7 +25007,7 @@
         <v>1.241692431955711</v>
       </c>
       <c r="M559">
-        <v>0.4283237442846105</v>
+        <v>0.4283237442846101</v>
       </c>
       <c r="N559">
         <v>0.5</v>
@@ -25051,7 +25051,7 @@
         <v>1.126601208295674</v>
       </c>
       <c r="M560">
-        <v>0.2795497128087634</v>
+        <v>0.2795497128087633</v>
       </c>
       <c r="N560">
         <v>0.5</v>
@@ -25092,10 +25092,10 @@
         <v>0.0759148056347399</v>
       </c>
       <c r="L561">
-        <v>1.229327408526422</v>
+        <v>1.229327408526421</v>
       </c>
       <c r="M561">
-        <v>0.6746622108813836</v>
+        <v>0.6746622108813841</v>
       </c>
       <c r="N561">
         <v>0.5</v>
@@ -25136,7 +25136,7 @@
         <v>0.0759557137737321</v>
       </c>
       <c r="L562">
-        <v>1.2337492650723</v>
+        <v>1.233749265072299</v>
       </c>
       <c r="M562">
         <v>0.6840145564134207</v>
@@ -25180,7 +25180,7 @@
         <v>0.008333702530348031</v>
       </c>
       <c r="L563">
-        <v>0.9079639198605713</v>
+        <v>0.9079639198605707</v>
       </c>
       <c r="M563">
         <v>0</v>
@@ -25224,10 +25224,10 @@
         <v>0.008996797228293111</v>
       </c>
       <c r="L564">
-        <v>0.9388646712407989</v>
+        <v>0.9388646712408001</v>
       </c>
       <c r="M564">
-        <v>0.06502881164598018</v>
+        <v>0.06502881164598415</v>
       </c>
       <c r="N564">
         <v>0.5</v>
@@ -25268,7 +25268,7 @@
         <v>0.0009773815170808795</v>
       </c>
       <c r="L565">
-        <v>0.8722870801099257</v>
+        <v>0.8722870801099266</v>
       </c>
       <c r="M565">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>-0.04936170555862908</v>
       </c>
       <c r="L567">
-        <v>0.7095241281781162</v>
+        <v>0.7095241281781161</v>
       </c>
       <c r="M567">
         <v>0.14657678646323</v>
@@ -25400,10 +25400,10 @@
         <v>-0.04960588066253541</v>
       </c>
       <c r="L568">
-        <v>0.9151837963992502</v>
+        <v>0.91518379639925</v>
       </c>
       <c r="M568">
-        <v>0.4960232809712248</v>
+        <v>0.4960232809712247</v>
       </c>
       <c r="N568">
         <v>0.5</v>
@@ -25447,7 +25447,7 @@
         <v>1.036770824315724</v>
       </c>
       <c r="M569">
-        <v>0.6921833604114133</v>
+        <v>0.6921833604114137</v>
       </c>
       <c r="N569">
         <v>0.5</v>
@@ -25491,7 +25491,7 @@
         <v>1.227396083025255</v>
       </c>
       <c r="M570">
-        <v>0.9900719330455424</v>
+        <v>0.9900719330455431</v>
       </c>
       <c r="N570">
         <v>0.5</v>
@@ -25620,10 +25620,10 @@
         <v>-0.1157276155774074</v>
       </c>
       <c r="L573">
-        <v>1.521449621532387</v>
+        <v>1.521449621532386</v>
       </c>
       <c r="M573">
-        <v>0.9982647419683264</v>
+        <v>0.9982647419683259</v>
       </c>
       <c r="N573">
         <v>0.5</v>
@@ -25664,7 +25664,7 @@
         <v>-0.1152533007913705</v>
       </c>
       <c r="L574">
-        <v>1.528882783559668</v>
+        <v>1.528882783559667</v>
       </c>
       <c r="M574">
         <v>1</v>
@@ -25711,7 +25711,7 @@
         <v>1.151506277098346</v>
       </c>
       <c r="M575">
-        <v>0.5964124485012281</v>
+        <v>0.5964124485012283</v>
       </c>
       <c r="N575">
         <v>0.5</v>
@@ -25755,7 +25755,7 @@
         <v>1.338189419861172</v>
       </c>
       <c r="M576">
-        <v>0.7672650890473652</v>
+        <v>0.7672650890473661</v>
       </c>
       <c r="N576">
         <v>0.5</v>
@@ -25799,7 +25799,7 @@
         <v>1.310661375305795</v>
       </c>
       <c r="M577">
-        <v>0.6444162157353682</v>
+        <v>0.6444162157353694</v>
       </c>
       <c r="N577">
         <v>0.5</v>
@@ -25840,10 +25840,10 @@
         <v>-0.1440229843560733</v>
       </c>
       <c r="L578">
-        <v>1.281578777685976</v>
+        <v>1.281578777685975</v>
       </c>
       <c r="M578">
-        <v>0.4974639383817509</v>
+        <v>0.4974639383817502</v>
       </c>
       <c r="N578">
         <v>0.5</v>
@@ -25887,7 +25887,7 @@
         <v>1.384642693824255</v>
       </c>
       <c r="M579">
-        <v>0.6177820100992523</v>
+        <v>0.6177820100992542</v>
       </c>
       <c r="N579">
         <v>0.5</v>
@@ -25931,7 +25931,7 @@
         <v>1.3088686313415</v>
       </c>
       <c r="M580">
-        <v>0.4169903307409068</v>
+        <v>0.4169903307409073</v>
       </c>
       <c r="N580">
         <v>0.5</v>
@@ -25972,10 +25972,10 @@
         <v>-0.1482964077702404</v>
       </c>
       <c r="L581">
-        <v>1.222850989600603</v>
+        <v>1.222850989600602</v>
       </c>
       <c r="M581">
-        <v>0.1890544622696831</v>
+        <v>0.1890544622696822</v>
       </c>
       <c r="N581">
         <v>0.5</v>
@@ -26016,7 +26016,7 @@
         <v>-0.1844264262234928</v>
       </c>
       <c r="L582">
-        <v>0.9522676417204073</v>
+        <v>0.9522676417204075</v>
       </c>
       <c r="M582">
         <v>0</v>
@@ -26060,7 +26060,7 @@
         <v>-0.1514558025568838</v>
       </c>
       <c r="L583">
-        <v>0.9074523254352997</v>
+        <v>0.9074523254352996</v>
       </c>
       <c r="M583">
         <v>0</v>
@@ -26104,7 +26104,7 @@
         <v>-0.1525215347670141</v>
       </c>
       <c r="L584">
-        <v>0.7946685482774496</v>
+        <v>0.7946685482774499</v>
       </c>
       <c r="M584">
         <v>0</v>
@@ -26151,7 +26151,7 @@
         <v>1.328792110899689</v>
       </c>
       <c r="M585">
-        <v>0.9053338466674637</v>
+        <v>0.9053338466674633</v>
       </c>
       <c r="N585">
         <v>0.5</v>
@@ -26192,7 +26192,7 @@
         <v>0.1591138776137178</v>
       </c>
       <c r="L586">
-        <v>1.881138605219658</v>
+        <v>1.881138605219657</v>
       </c>
       <c r="M586">
         <v>1</v>
@@ -26236,7 +26236,7 @@
         <v>0.1377423978771765</v>
       </c>
       <c r="L587">
-        <v>1.747456170879132</v>
+        <v>1.747456170879131</v>
       </c>
       <c r="M587">
         <v>0.8769570928473025</v>
@@ -26280,7 +26280,7 @@
         <v>0.144949354879324</v>
       </c>
       <c r="L588">
-        <v>1.81373027745456</v>
+        <v>1.813730277454559</v>
       </c>
       <c r="M588">
         <v>0.9379565710675782</v>
@@ -26327,7 +26327,7 @@
         <v>1.586245478679634</v>
       </c>
       <c r="M589">
-        <v>0.7285768487996999</v>
+        <v>0.7285768487997</v>
       </c>
       <c r="N589">
         <v>0.5</v>
@@ -26368,10 +26368,10 @@
         <v>0.01145146999254472</v>
       </c>
       <c r="L590">
-        <v>1.585871670710763</v>
+        <v>1.585871670710762</v>
       </c>
       <c r="M590">
-        <v>0.7282327914863086</v>
+        <v>0.7282327914863084</v>
       </c>
       <c r="N590">
         <v>0.5</v>
@@ -26500,10 +26500,10 @@
         <v>0.08637132875044701</v>
       </c>
       <c r="L593">
-        <v>1.84234967677123</v>
+        <v>1.842349676771231</v>
       </c>
       <c r="M593">
-        <v>0.8603464572137669</v>
+        <v>0.8603464572137676</v>
       </c>
       <c r="N593">
         <v>0.5</v>
@@ -26547,7 +26547,7 @@
         <v>1.926574243913986</v>
       </c>
       <c r="M594">
-        <v>0.8744366288394066</v>
+        <v>0.8744366288394062</v>
       </c>
       <c r="N594">
         <v>0.5</v>
@@ -26632,7 +26632,7 @@
         <v>0.09842489434605016</v>
       </c>
       <c r="L596">
-        <v>2.028649908225645</v>
+        <v>2.028649908225644</v>
       </c>
       <c r="M596">
         <v>1</v>
@@ -26679,7 +26679,7 @@
         <v>1.758877166291363</v>
       </c>
       <c r="M597">
-        <v>0.3907271878392302</v>
+        <v>0.3907271878392305</v>
       </c>
       <c r="N597">
         <v>0.5</v>
@@ -26723,7 +26723,7 @@
         <v>1.623143850825705</v>
       </c>
       <c r="M598">
-        <v>0.0841779856303112</v>
+        <v>0.08417798563031216</v>
       </c>
       <c r="N598">
         <v>0.5</v>
@@ -26808,7 +26808,7 @@
         <v>-0.01688582594421496</v>
       </c>
       <c r="L600">
-        <v>1.475977618681442</v>
+        <v>1.475977618681441</v>
       </c>
       <c r="M600">
         <v>0</v>
@@ -26855,7 +26855,7 @@
         <v>1.572861620950249</v>
       </c>
       <c r="M601">
-        <v>0.1753009950050314</v>
+        <v>0.1753009950050317</v>
       </c>
       <c r="N601">
         <v>0.5</v>
@@ -26940,7 +26940,7 @@
         <v>-0.04525723150097197</v>
       </c>
       <c r="L603">
-        <v>1.304530413086802</v>
+        <v>1.304530413086801</v>
       </c>
       <c r="M603">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>1.526785764496896</v>
       </c>
       <c r="M604">
-        <v>0.3069318709165248</v>
+        <v>0.3069318709165246</v>
       </c>
       <c r="N604">
         <v>0.5</v>
@@ -27031,7 +27031,7 @@
         <v>1.445188172007842</v>
       </c>
       <c r="M605">
-        <v>0.1942466124241979</v>
+        <v>0.194246612424198</v>
       </c>
       <c r="N605">
         <v>0.5</v>
@@ -27075,7 +27075,7 @@
         <v>1.37179302267327</v>
       </c>
       <c r="M606">
-        <v>0.1480424568065183</v>
+        <v>0.1480424568065188</v>
       </c>
       <c r="N606">
         <v>0.5</v>
@@ -27116,10 +27116,10 @@
         <v>-0.03066857022181178</v>
       </c>
       <c r="L607">
-        <v>1.403024981198671</v>
+        <v>1.403024981198672</v>
       </c>
       <c r="M607">
-        <v>0.3091350095302133</v>
+        <v>0.3091350095302161</v>
       </c>
       <c r="N607">
         <v>0.5</v>
@@ -27163,7 +27163,7 @@
         <v>1.382955767516504</v>
       </c>
       <c r="M608">
-        <v>0.2922707166794123</v>
+        <v>0.2922707166794143</v>
       </c>
       <c r="N608">
         <v>0.5</v>
@@ -27251,7 +27251,7 @@
         <v>1.28132650855053</v>
       </c>
       <c r="M610">
-        <v>0.2326240560659115</v>
+        <v>0.2326240560659102</v>
       </c>
       <c r="N610">
         <v>0.5</v>
@@ -27292,10 +27292,10 @@
         <v>-0.02652045040798466</v>
       </c>
       <c r="L611">
-        <v>1.447910531560473</v>
+        <v>1.447910531560472</v>
       </c>
       <c r="M611">
-        <v>0.7637304967146017</v>
+        <v>0.7637304967146011</v>
       </c>
       <c r="N611">
         <v>0.5</v>
@@ -27339,7 +27339,7 @@
         <v>1.428086747597403</v>
       </c>
       <c r="M612">
-        <v>0.7043486677700607</v>
+        <v>0.7043486677700613</v>
       </c>
       <c r="N612">
         <v>0.5</v>
@@ -27380,7 +27380,7 @@
         <v>0.05296190885781291</v>
       </c>
       <c r="L613">
-        <v>1.840281685303698</v>
+        <v>1.840281685303697</v>
       </c>
       <c r="M613">
         <v>1</v>
@@ -27427,7 +27427,7 @@
         <v>1.693789873438595</v>
       </c>
       <c r="M614">
-        <v>0.7736990271479937</v>
+        <v>0.7736990271479951</v>
       </c>
       <c r="N614">
         <v>0.5</v>
@@ -27471,7 +27471,7 @@
         <v>1.557138053855065</v>
       </c>
       <c r="M615">
-        <v>0.5625989027108244</v>
+        <v>0.5625989027108246</v>
       </c>
       <c r="N615">
         <v>0.5</v>
@@ -27512,10 +27512,10 @@
         <v>-0.01242528161519509</v>
       </c>
       <c r="L616">
-        <v>1.563954632742519</v>
+        <v>1.56395463274252</v>
       </c>
       <c r="M616">
-        <v>0.5731291734072768</v>
+        <v>0.573129173407278</v>
       </c>
       <c r="N616">
         <v>0.5</v>
@@ -27559,7 +27559,7 @@
         <v>1.450582730991633</v>
       </c>
       <c r="M617">
-        <v>0.3979919330819746</v>
+        <v>0.3979919330819747</v>
       </c>
       <c r="N617">
         <v>0.5</v>
@@ -27647,7 +27647,7 @@
         <v>1.421289321748412</v>
       </c>
       <c r="M619">
-        <v>0.2504007817064893</v>
+        <v>0.2504007817064901</v>
       </c>
       <c r="N619">
         <v>0.5</v>
@@ -27691,7 +27691,7 @@
         <v>1.628354498262616</v>
       </c>
       <c r="M620">
-        <v>0.543416788796892</v>
+        <v>0.5434167887968921</v>
       </c>
       <c r="N620">
         <v>0.5</v>
@@ -27732,7 +27732,7 @@
         <v>-0.06286150350845765</v>
       </c>
       <c r="L621">
-        <v>1.317254697829384</v>
+        <v>1.317254697829385</v>
       </c>
       <c r="M621">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>1.342791822577009</v>
       </c>
       <c r="M622">
-        <v>0.04882563492744964</v>
+        <v>0.04882563492744888</v>
       </c>
       <c r="N622">
         <v>0.5</v>
@@ -27820,7 +27820,7 @@
         <v>0.2038009591295636</v>
       </c>
       <c r="L623">
-        <v>2.340818840990956</v>
+        <v>2.340818840990955</v>
       </c>
       <c r="M623">
         <v>1</v>
@@ -27867,7 +27867,7 @@
         <v>1.834077703034547</v>
       </c>
       <c r="M624">
-        <v>0.5049248829768561</v>
+        <v>0.5049248829768563</v>
       </c>
       <c r="N624">
         <v>0.5</v>
@@ -27911,7 +27911,7 @@
         <v>2.1750928081327</v>
       </c>
       <c r="M625">
-        <v>0.8380892551136429</v>
+        <v>0.8380892551136431</v>
       </c>
       <c r="N625">
         <v>0.5</v>
@@ -27996,10 +27996,10 @@
         <v>0.3454807353206355</v>
       </c>
       <c r="L627">
-        <v>2.842609755527989</v>
+        <v>2.842609755527988</v>
       </c>
       <c r="M627">
-        <v>0.8915672668036204</v>
+        <v>0.8915672668036201</v>
       </c>
       <c r="N627">
         <v>0.5</v>
@@ -28043,7 +28043,7 @@
         <v>2.87298647095636</v>
       </c>
       <c r="M628">
-        <v>0.9093224019193791</v>
+        <v>0.9093224019193787</v>
       </c>
       <c r="N628">
         <v>0.5</v>
@@ -28084,10 +28084,10 @@
         <v>0.3099200348626847</v>
       </c>
       <c r="L629">
-        <v>2.866512203647896</v>
+        <v>2.866512203647895</v>
       </c>
       <c r="M629">
-        <v>0.9055382044109821</v>
+        <v>0.9055382044109819</v>
       </c>
       <c r="N629">
         <v>0.5</v>
@@ -28131,7 +28131,7 @@
         <v>1.560262147142728</v>
       </c>
       <c r="M630">
-        <v>0.1420374137180242</v>
+        <v>0.1420374137180238</v>
       </c>
       <c r="N630">
         <v>0.5</v>
@@ -28172,10 +28172,10 @@
         <v>-0.2010819673455445</v>
       </c>
       <c r="L631">
-        <v>1.539419800598931</v>
+        <v>1.53941980059893</v>
       </c>
       <c r="M631">
-        <v>0.1166701626842201</v>
+        <v>0.1166701626842197</v>
       </c>
       <c r="N631">
         <v>0.5</v>
@@ -28219,7 +28219,7 @@
         <v>1.652905818701358</v>
       </c>
       <c r="M632">
-        <v>0.07623140916389444</v>
+        <v>0.07623140916389486</v>
       </c>
       <c r="N632">
         <v>0.5</v>
@@ -28260,10 +28260,10 @@
         <v>-0.07915860471787203</v>
       </c>
       <c r="L633">
-        <v>1.90245758261247</v>
+        <v>1.902457582612471</v>
       </c>
       <c r="M633">
-        <v>0.2438615978018436</v>
+        <v>0.2438615978018444</v>
       </c>
       <c r="N633">
         <v>0.5</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="J634">
-        <v>-2.457397934955798e-06</v>
+        <v>-2.457397934955798E-06</v>
       </c>
       <c r="K634">
         <v>-0.06960215157725669</v>
@@ -28307,7 +28307,7 @@
         <v>1.975393857523335</v>
       </c>
       <c r="M634">
-        <v>0.2928547258416532</v>
+        <v>0.2928547258416536</v>
       </c>
       <c r="N634">
         <v>0.5</v>
@@ -28351,7 +28351,7 @@
         <v>2.551900482469056</v>
       </c>
       <c r="M635">
-        <v>0.680108707845566</v>
+        <v>0.6801087078455664</v>
       </c>
       <c r="N635">
         <v>0.5</v>
@@ -28395,7 +28395,7 @@
         <v>2.239790428310173</v>
       </c>
       <c r="M636">
-        <v>0.5251860617688692</v>
+        <v>0.5251860617688699</v>
       </c>
       <c r="N636">
         <v>0.5</v>
@@ -28439,7 +28439,7 @@
         <v>1.813784054897312</v>
       </c>
       <c r="M637">
-        <v>0.2057371861467152</v>
+        <v>0.2057371861467157</v>
       </c>
       <c r="N637">
         <v>0.5</v>
@@ -28483,7 +28483,7 @@
         <v>1.901204015553286</v>
       </c>
       <c r="M638">
-        <v>0.2726141858119031</v>
+        <v>0.2726141858119037</v>
       </c>
       <c r="N638">
         <v>0.5</v>
@@ -28524,10 +28524,10 @@
         <v>-0.09221960121262265</v>
       </c>
       <c r="L639">
-        <v>1.894924530028723</v>
+        <v>1.894924530028724</v>
       </c>
       <c r="M639">
-        <v>0.3511224814414729</v>
+        <v>0.3511224814414738</v>
       </c>
       <c r="N639">
         <v>0.5</v>
@@ -28612,7 +28612,7 @@
         <v>-0.2342255610780376</v>
       </c>
       <c r="L641">
-        <v>1.140059367841933</v>
+        <v>1.140059367841934</v>
       </c>
       <c r="M641">
         <v>0</v>
@@ -28656,7 +28656,7 @@
         <v>-0.323972111661827</v>
       </c>
       <c r="L642">
-        <v>0.700569246414638</v>
+        <v>0.7005692464146382</v>
       </c>
       <c r="M642">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>-0.4719806476630644</v>
       </c>
       <c r="L643">
-        <v>0.2064121645961714</v>
+        <v>0.2064121645961716</v>
       </c>
       <c r="M643">
         <v>0</v>
@@ -28744,10 +28744,10 @@
         <v>-0.447264927428026</v>
       </c>
       <c r="L644">
-        <v>0.33264164508788</v>
+        <v>0.3326416450878798</v>
       </c>
       <c r="M644">
-        <v>0.05381799582194709</v>
+        <v>0.0538179958219469</v>
       </c>
       <c r="N644">
         <v>0.5</v>
@@ -28788,7 +28788,7 @@
         <v>-0.5099148935829878</v>
       </c>
       <c r="L645">
-        <v>-0.01469367086632187</v>
+        <v>-0.01469367086632179</v>
       </c>
       <c r="M645">
         <v>1</v>
@@ -28876,10 +28876,10 @@
         <v>-0.3893615051488248</v>
       </c>
       <c r="L647">
-        <v>0.3019964096753284</v>
+        <v>0.3019964096753283</v>
       </c>
       <c r="M647">
-        <v>0.06507027479191339</v>
+        <v>0.06507027479191332</v>
       </c>
       <c r="N647">
         <v>0.5</v>
@@ -29011,7 +29011,7 @@
         <v>0.176631239763735</v>
       </c>
       <c r="M650">
-        <v>0.03808006493359389</v>
+        <v>0.03808006493359383</v>
       </c>
       <c r="N650">
         <v>0.5</v>
@@ -29052,7 +29052,7 @@
         <v>-0.3421547676953565</v>
       </c>
       <c r="L651">
-        <v>0.2028892685097613</v>
+        <v>0.2028892685097614</v>
       </c>
       <c r="M651">
         <v>0.1145709757050079</v>
@@ -29096,10 +29096,10 @@
         <v>-0.3579299260880077</v>
       </c>
       <c r="L652">
-        <v>0.140006916279434</v>
+        <v>0.1400069162794338</v>
       </c>
       <c r="M652">
-        <v>0.007805540871089841</v>
+        <v>0.007805540871088563</v>
       </c>
       <c r="N652">
         <v>0.5</v>
@@ -29140,7 +29140,7 @@
         <v>-0.4585497120593008</v>
       </c>
       <c r="L653">
-        <v>-0.05653891652214967</v>
+        <v>-0.05653891652214932</v>
       </c>
       <c r="M653">
         <v>1</v>
@@ -29184,7 +29184,7 @@
         <v>-0.4611020027673344</v>
       </c>
       <c r="L654">
-        <v>-0.09964226985912542</v>
+        <v>-0.09964226985912532</v>
       </c>
       <c r="M654">
         <v>1</v>
@@ -29228,7 +29228,7 @@
         <v>-0.4643246910852992</v>
       </c>
       <c r="L655">
-        <v>-0.1585822895643461</v>
+        <v>-0.1585822895643458</v>
       </c>
       <c r="M655">
         <v>1</v>
@@ -29272,10 +29272,10 @@
         <v>-0.3722921879672682</v>
       </c>
       <c r="L656">
-        <v>-0.06502489559827943</v>
+        <v>-0.06502489559827929</v>
       </c>
       <c r="M656">
-        <v>0.08316051129180804</v>
+        <v>0.08316051129181007</v>
       </c>
       <c r="N656">
         <v>0.5</v>
@@ -29360,7 +29360,7 @@
         <v>-0.3555658943160393</v>
       </c>
       <c r="L658">
-        <v>0.03203827181361069</v>
+        <v>0.03203827181361053</v>
       </c>
       <c r="M658">
         <v>0</v>
@@ -29404,10 +29404,10 @@
         <v>-0.3433122351449535</v>
       </c>
       <c r="L659">
-        <v>0.07403790718534674</v>
+        <v>0.07403790718534678</v>
       </c>
       <c r="M659">
-        <v>0.2458261068645104</v>
+        <v>0.2458261068645112</v>
       </c>
       <c r="N659">
         <v>0.5</v>
@@ -29448,7 +29448,7 @@
         <v>-0.3515017512253123</v>
       </c>
       <c r="L660">
-        <v>-0.01310628438621124</v>
+        <v>-0.01310628438621165</v>
       </c>
       <c r="M660">
         <v>0</v>
@@ -29492,10 +29492,10 @@
         <v>-0.3551445131127193</v>
       </c>
       <c r="L661">
-        <v>-0.07901973360461088</v>
+        <v>-0.07901973360461083</v>
       </c>
       <c r="M661">
-        <v>0.4530881167494865</v>
+        <v>0.4530881167494852</v>
       </c>
       <c r="N661">
         <v>0.5</v>
@@ -29536,10 +29536,10 @@
         <v>-0.3452364795687597</v>
       </c>
       <c r="L662">
-        <v>-0.05969601636603201</v>
+        <v>-0.05969601636603211</v>
       </c>
       <c r="M662">
-        <v>0.3202571580294071</v>
+        <v>0.3202571580294065</v>
       </c>
       <c r="N662">
         <v>0.5</v>
@@ -29580,7 +29580,7 @@
         <v>-0.3209147361181579</v>
       </c>
       <c r="L663">
-        <v>0.02925156412720449</v>
+        <v>0.02925156412720432</v>
       </c>
       <c r="M663">
         <v>0</v>
@@ -29624,10 +29624,10 @@
         <v>-0.3170277278916189</v>
       </c>
       <c r="L664">
-        <v>0.06721222894047436</v>
+        <v>0.06721222894047443</v>
       </c>
       <c r="M664">
-        <v>0.4925327614608596</v>
+        <v>0.4925327614608619</v>
       </c>
       <c r="N664">
         <v>0.5</v>
@@ -29668,7 +29668,7 @@
         <v>-0.3215053619140174</v>
       </c>
       <c r="L665">
-        <v>-0.005841496189639106</v>
+        <v>-0.005841496189639079</v>
       </c>
       <c r="M665">
         <v>0</v>
@@ -29712,10 +29712,10 @@
         <v>-0.3036596870647574</v>
       </c>
       <c r="L666">
-        <v>0.04160576480596179</v>
+        <v>0.04160576480596145</v>
       </c>
       <c r="M666">
-        <v>0.1602935197758412</v>
+        <v>0.1602935197758389</v>
       </c>
       <c r="N666">
         <v>0.5</v>
@@ -29756,10 +29756,10 @@
         <v>-0.324867982890717</v>
       </c>
       <c r="L667">
-        <v>-0.07336206457655731</v>
+        <v>-0.0733620645765572</v>
       </c>
       <c r="M667">
-        <v>0.922686453952551</v>
+        <v>0.9226864539525502</v>
       </c>
       <c r="N667">
         <v>0.5</v>
@@ -29800,7 +29800,7 @@
         <v>-0.3174155377708211</v>
       </c>
       <c r="L668">
-        <v>-0.0922789752543778</v>
+        <v>-0.09227897525437771</v>
       </c>
       <c r="M668">
         <v>1</v>
@@ -29844,7 +29844,7 @@
         <v>-0.3275231060683373</v>
       </c>
       <c r="L669">
-        <v>-0.1074710300520706</v>
+        <v>-0.1074710300520704</v>
       </c>
       <c r="M669">
         <v>1</v>
@@ -29888,7 +29888,7 @@
         <v>-0.3498689676812445</v>
       </c>
       <c r="L670">
-        <v>-0.2455312611592057</v>
+        <v>-0.2455312611592061</v>
       </c>
       <c r="M670">
         <v>1</v>
@@ -29932,7 +29932,7 @@
         <v>-0.3543018856603732</v>
       </c>
       <c r="L671">
-        <v>-0.3202370753424515</v>
+        <v>-0.3202370753424516</v>
       </c>
       <c r="M671">
         <v>1</v>
@@ -29976,7 +29976,7 @@
         <v>-0.3606176067576938</v>
       </c>
       <c r="L672">
-        <v>-0.4122949615598671</v>
+        <v>-0.4122949615598673</v>
       </c>
       <c r="M672">
         <v>1</v>
@@ -30064,7 +30064,7 @@
         <v>-0.3787031760863047</v>
       </c>
       <c r="L674">
-        <v>-0.4888787315225016</v>
+        <v>-0.4888787315225014</v>
       </c>
       <c r="M674">
         <v>1</v>
@@ -30108,7 +30108,7 @@
         <v>-0.3812618642466616</v>
       </c>
       <c r="L675">
-        <v>-0.5751354833368277</v>
+        <v>-0.5751354833368276</v>
       </c>
       <c r="M675">
         <v>1</v>
@@ -30152,7 +30152,7 @@
         <v>-0.3135622360938113</v>
       </c>
       <c r="L676">
-        <v>-0.6332322070593027</v>
+        <v>-0.6332322070593031</v>
       </c>
       <c r="M676">
         <v>1</v>
@@ -30196,7 +30196,7 @@
         <v>-0.3132202651926497</v>
       </c>
       <c r="L677">
-        <v>-0.6640181853386473</v>
+        <v>-0.6640181853386476</v>
       </c>
       <c r="M677">
         <v>1</v>
@@ -30240,7 +30240,7 @@
         <v>-0.3073770040866335</v>
       </c>
       <c r="L678">
-        <v>-0.6974761390549946</v>
+        <v>-0.6974761390549951</v>
       </c>
       <c r="M678">
         <v>1</v>
@@ -30284,7 +30284,7 @@
         <v>-0.3121672597673744</v>
       </c>
       <c r="L679">
-        <v>-0.7876743651943162</v>
+        <v>-0.7876743651943166</v>
       </c>
       <c r="M679">
         <v>1</v>
@@ -30328,7 +30328,7 @@
         <v>-0.3142843529963039</v>
       </c>
       <c r="L680">
-        <v>-0.8551223290939116</v>
+        <v>-0.8551223290939109</v>
       </c>
       <c r="M680">
         <v>1</v>
@@ -30372,10 +30372,10 @@
         <v>-0.313558445646287</v>
       </c>
       <c r="L681">
-        <v>-0.831597946738987</v>
+        <v>-0.8315979467389872</v>
       </c>
       <c r="M681">
-        <v>0.9468768552270743</v>
+        <v>0.9468768552270762</v>
       </c>
       <c r="N681">
         <v>0.5</v>
@@ -30416,10 +30416,10 @@
         <v>-0.2975793741312672</v>
       </c>
       <c r="L682">
-        <v>-0.827879547798235</v>
+        <v>-0.8278795477982348</v>
       </c>
       <c r="M682">
-        <v>0.9298854125300885</v>
+        <v>0.9298854125300896</v>
       </c>
       <c r="N682">
         <v>0.5</v>
@@ -30460,7 +30460,7 @@
         <v>-0.29952283229974</v>
       </c>
       <c r="L683">
-        <v>-0.9121751176993766</v>
+        <v>-0.9121751176993761</v>
       </c>
       <c r="M683">
         <v>1</v>
@@ -30504,10 +30504,10 @@
         <v>-0.2907561760707304</v>
       </c>
       <c r="L684">
-        <v>-0.7240207289708155</v>
+        <v>-0.7240207289708156</v>
       </c>
       <c r="M684">
-        <v>0.4417440278665681</v>
+        <v>0.4417440278665694</v>
       </c>
       <c r="N684">
         <v>0.5</v>
@@ -30548,7 +30548,7 @@
         <v>-0.2999171584214701</v>
       </c>
       <c r="L685">
-        <v>-0.9443461984848566</v>
+        <v>-0.9443461984848567</v>
       </c>
       <c r="M685">
         <v>1</v>
@@ -30636,7 +30636,7 @@
         <v>-0.2966984035220361</v>
       </c>
       <c r="L687">
-        <v>-1.142580562775479</v>
+        <v>-1.14258056277548</v>
       </c>
       <c r="M687">
         <v>1</v>
@@ -30680,7 +30680,7 @@
         <v>-0.3158096584709577</v>
       </c>
       <c r="L688">
-        <v>-1.714885595331041</v>
+        <v>-1.714885595331042</v>
       </c>
       <c r="M688">
         <v>1</v>
@@ -30724,7 +30724,7 @@
         <v>-0.3174919444470461</v>
       </c>
       <c r="L689">
-        <v>-2.335175122010359</v>
+        <v>-2.335175122010357</v>
       </c>
       <c r="M689">
         <v>1</v>
@@ -30768,10 +30768,10 @@
         <v>-0.2491330326469129</v>
       </c>
       <c r="L690">
-        <v>-1.180992708711876</v>
+        <v>-1.180992708711875</v>
       </c>
       <c r="M690">
-        <v>0.2836301609052835</v>
+        <v>0.2836301609052836</v>
       </c>
       <c r="N690">
         <v>0.5</v>
@@ -30812,10 +30812,10 @@
         <v>-0.2469679754071754</v>
       </c>
       <c r="L691">
-        <v>-1.194894879325954</v>
+        <v>-1.194894879325953</v>
       </c>
       <c r="M691">
-        <v>0.2922588625828746</v>
+        <v>0.2922588625828739</v>
       </c>
       <c r="N691">
         <v>0.5</v>
@@ -30859,7 +30859,7 @@
         <v>-1.264156022688761</v>
       </c>
       <c r="M692">
-        <v>0.3352473829022349</v>
+        <v>0.335247382902235</v>
       </c>
       <c r="N692">
         <v>0.5</v>
@@ -30900,10 +30900,10 @@
         <v>-0.2442213698836078</v>
       </c>
       <c r="L693">
-        <v>-1.414110895824926</v>
+        <v>-1.414110895824925</v>
       </c>
       <c r="M693">
-        <v>0.4283203210290803</v>
+        <v>0.4283203210290804</v>
       </c>
       <c r="N693">
         <v>0.5</v>
@@ -30947,7 +30947,7 @@
         <v>-1.594153901157999</v>
       </c>
       <c r="M694">
-        <v>0.4672089368302725</v>
+        <v>0.4672089368302733</v>
       </c>
       <c r="N694">
         <v>0.5</v>
@@ -30988,10 +30988,10 @@
         <v>-0.2437852896623975</v>
       </c>
       <c r="L695">
-        <v>-1.62500695543111</v>
+        <v>-1.625006955431109</v>
       </c>
       <c r="M695">
-        <v>0.4300834158844153</v>
+        <v>0.4300834158844152</v>
       </c>
       <c r="N695">
         <v>0.5</v>
@@ -31035,7 +31035,7 @@
         <v>-1.538913463522239</v>
       </c>
       <c r="M696">
-        <v>0.3323282817934628</v>
+        <v>0.3323282817934632</v>
       </c>
       <c r="N696">
         <v>0.5</v>
@@ -31076,7 +31076,7 @@
         <v>-0.2198119845801921</v>
       </c>
       <c r="L697">
-        <v>-1.069948751187417</v>
+        <v>-1.069948751187416</v>
       </c>
       <c r="M697">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>-0.2229327201166312</v>
       </c>
       <c r="L698">
-        <v>-1.287298302809202</v>
+        <v>-1.287298302809201</v>
       </c>
       <c r="M698">
         <v>0.1717870861958202</v>
@@ -31164,10 +31164,10 @@
         <v>-0.2232505394226179</v>
       </c>
       <c r="L699">
-        <v>-1.445047757410072</v>
+        <v>-1.445047757410074</v>
       </c>
       <c r="M699">
-        <v>0.6757831941854727</v>
+        <v>0.6757831941854765</v>
       </c>
       <c r="N699">
         <v>0.5</v>
@@ -31208,7 +31208,7 @@
         <v>-0.1762478733425921</v>
       </c>
       <c r="L700">
-        <v>-0.6664416901065144</v>
+        <v>-0.6664416901065138</v>
       </c>
       <c r="M700">
         <v>0</v>
@@ -31252,7 +31252,7 @@
         <v>-0.1713617469745084</v>
       </c>
       <c r="L701">
-        <v>-0.5116567990649754</v>
+        <v>-0.5116567990649755</v>
       </c>
       <c r="M701">
         <v>0</v>
@@ -31296,7 +31296,7 @@
         <v>-0.1068163797807185</v>
       </c>
       <c r="L702">
-        <v>0.135428831018307</v>
+        <v>0.1354288310183077</v>
       </c>
       <c r="M702">
         <v>1</v>
@@ -31384,7 +31384,7 @@
         <v>0.03371540292815012</v>
       </c>
       <c r="L704">
-        <v>0.5003706452655238</v>
+        <v>0.5003706452655207</v>
       </c>
       <c r="M704">
         <v>1</v>
@@ -31428,10 +31428,10 @@
         <v>0.1467492327309712</v>
       </c>
       <c r="L705">
-        <v>0.4462830313009893</v>
+        <v>0.4462830313009895</v>
       </c>
       <c r="M705">
-        <v>0.8517911298377699</v>
+        <v>0.8517911298377775</v>
       </c>
       <c r="N705">
         <v>0.5</v>
@@ -31472,7 +31472,7 @@
         <v>0.1011402903519121</v>
       </c>
       <c r="L706">
-        <v>0.9183031390962061</v>
+        <v>0.9183031390962064</v>
       </c>
       <c r="M706">
         <v>1</v>
@@ -31516,7 +31516,7 @@
         <v>0.08677336572709997</v>
       </c>
       <c r="L707">
-        <v>1.351877904051262</v>
+        <v>1.351877904051261</v>
       </c>
       <c r="M707">
         <v>1</v>
@@ -31560,10 +31560,10 @@
         <v>-0.04033303075316565</v>
       </c>
       <c r="L708">
-        <v>0.2485491976815284</v>
+        <v>0.2485491976815279</v>
       </c>
       <c r="M708">
-        <v>0.0929922749508781</v>
+        <v>0.09299227495087727</v>
       </c>
       <c r="N708">
         <v>0.5</v>
@@ -31607,7 +31607,7 @@
         <v>0.6373324214410715</v>
       </c>
       <c r="M709">
-        <v>0.4125972895613094</v>
+        <v>0.4125972895613093</v>
       </c>
       <c r="N709">
         <v>0.5</v>
@@ -31692,7 +31692,7 @@
         <v>-0.09617047399726651</v>
       </c>
       <c r="L711">
-        <v>-0.1624322147635912</v>
+        <v>-0.1624322147635915</v>
       </c>
       <c r="M711">
         <v>1</v>
@@ -31736,10 +31736,10 @@
         <v>-0.009241592381905124</v>
       </c>
       <c r="L712">
-        <v>0.1942510316865581</v>
+        <v>0.1942510316865584</v>
       </c>
       <c r="M712">
-        <v>0.07561945908176228</v>
+        <v>0.0756194590817626</v>
       </c>
       <c r="N712">
         <v>0.5</v>
@@ -31780,7 +31780,7 @@
         <v>0.2170955802469147</v>
       </c>
       <c r="L713">
-        <v>0.4581613344505633</v>
+        <v>0.4581613344505631</v>
       </c>
       <c r="M713">
         <v>0.2863553656563558</v>
@@ -31824,10 +31824,10 @@
         <v>0.2274993849858278</v>
       </c>
       <c r="L714">
-        <v>0.6996003532860188</v>
+        <v>0.6996003532860195</v>
       </c>
       <c r="M714">
-        <v>0.479147651459112</v>
+        <v>0.4791476514591131</v>
       </c>
       <c r="N714">
         <v>0.5</v>
@@ -31868,10 +31868,10 @@
         <v>0.2276955391811095</v>
       </c>
       <c r="L715">
-        <v>0.8387170688332405</v>
+        <v>0.8387170688332396</v>
       </c>
       <c r="M715">
-        <v>0.5902342095187246</v>
+        <v>0.5902342095187243</v>
       </c>
       <c r="N715">
         <v>0.5</v>
@@ -31912,10 +31912,10 @@
         <v>0.126894960915469</v>
       </c>
       <c r="L716">
-        <v>0.5820608297015731</v>
+        <v>0.582060829701573</v>
       </c>
       <c r="M716">
-        <v>0.3852907697781279</v>
+        <v>0.385290769778128</v>
       </c>
       <c r="N716">
         <v>0.5</v>
@@ -31956,10 +31956,10 @@
         <v>0.1254134750521413</v>
       </c>
       <c r="L717">
-        <v>0.8174717888944574</v>
+        <v>0.817471788894457</v>
       </c>
       <c r="M717">
-        <v>0.9712577822251987</v>
+        <v>0.9712577822251992</v>
       </c>
       <c r="N717">
         <v>0.5</v>
@@ -32000,10 +32000,10 @@
         <v>0.1211988629423345</v>
       </c>
       <c r="L718">
-        <v>0.7850887826917159</v>
+        <v>0.7850887826917158</v>
       </c>
       <c r="M718">
-        <v>0.9274476079576028</v>
+        <v>0.9274476079576037</v>
       </c>
       <c r="N718">
         <v>0.5</v>
@@ -32047,7 +32047,7 @@
         <v>0.5767685250583295</v>
       </c>
       <c r="M719">
-        <v>0.6456162445180817</v>
+        <v>0.6456162445180825</v>
       </c>
       <c r="N719">
         <v>0.5</v>
@@ -32088,10 +32088,10 @@
         <v>0.09946301321678749</v>
       </c>
       <c r="L720">
-        <v>0.6717178257315962</v>
+        <v>0.6717178257315968</v>
       </c>
       <c r="M720">
-        <v>0.7408719257867817</v>
+        <v>0.7408719257867833</v>
       </c>
       <c r="N720">
         <v>0.5</v>
@@ -32132,10 +32132,10 @@
         <v>0.1027940827631844</v>
       </c>
       <c r="L721">
-        <v>0.6728798670902657</v>
+        <v>0.6728798670902658</v>
       </c>
       <c r="M721">
-        <v>0.7426750329975423</v>
+        <v>0.7426750329975432</v>
       </c>
       <c r="N721">
         <v>0.5</v>
@@ -32176,10 +32176,10 @@
         <v>0.09203598841050585</v>
       </c>
       <c r="L722">
-        <v>0.6173563837439803</v>
+        <v>0.6173563837439805</v>
       </c>
       <c r="M722">
-        <v>0.4183225606931321</v>
+        <v>0.4183225606931341</v>
       </c>
       <c r="N722">
         <v>0.5</v>
@@ -32220,10 +32220,10 @@
         <v>0.06797065345788882</v>
       </c>
       <c r="L723">
-        <v>0.6286098515143737</v>
+        <v>0.6286098515143731</v>
       </c>
       <c r="M723">
-        <v>0.1979065266367379</v>
+        <v>0.1979065266367364</v>
       </c>
       <c r="N723">
         <v>0.5</v>
@@ -32264,10 +32264,10 @@
         <v>0.06331846386947813</v>
       </c>
       <c r="L724">
-        <v>0.5776408802288783</v>
+        <v>0.5776408802288785</v>
       </c>
       <c r="M724">
-        <v>0.003330253942157193</v>
+        <v>0.003330253942158052</v>
       </c>
       <c r="N724">
         <v>0.5</v>
@@ -32308,7 +32308,7 @@
         <v>0.02123818073142694</v>
       </c>
       <c r="L725">
-        <v>0.2709125005507845</v>
+        <v>0.2709125005507843</v>
       </c>
       <c r="M725">
         <v>0</v>
@@ -32352,7 +32352,7 @@
         <v>-0.05280331712037219</v>
       </c>
       <c r="L726">
-        <v>-0.06809497382943204</v>
+        <v>-0.06809497382943221</v>
       </c>
       <c r="M726">
         <v>1</v>
@@ -32396,7 +32396,7 @@
         <v>-0.00373204708274232</v>
       </c>
       <c r="L727">
-        <v>0.07881414566284828</v>
+        <v>0.07881414566284847</v>
       </c>
       <c r="M727">
         <v>0</v>
@@ -32440,7 +32440,7 @@
         <v>-0.04607725671235372</v>
       </c>
       <c r="L728">
-        <v>-0.155698441789031</v>
+        <v>-0.1556984417890312</v>
       </c>
       <c r="M728">
         <v>1</v>
@@ -32484,7 +32484,7 @@
         <v>-0.009203382743628731</v>
       </c>
       <c r="L729">
-        <v>0.004869900008202178</v>
+        <v>0.004869900008202511</v>
       </c>
       <c r="M729">
         <v>0</v>
@@ -32528,10 +32528,10 @@
         <v>0.0664032856918829</v>
       </c>
       <c r="L730">
-        <v>0.2890135066200922</v>
+        <v>0.2890135066200916</v>
       </c>
       <c r="M730">
-        <v>0.4253583338779489</v>
+        <v>0.4253583338779476</v>
       </c>
       <c r="N730">
         <v>0.5</v>
@@ -32572,10 +32572,10 @@
         <v>0.07058217883170109</v>
       </c>
       <c r="L731">
-        <v>0.3743609542935573</v>
+        <v>0.3743609542935572</v>
       </c>
       <c r="M731">
-        <v>0.5923799708406192</v>
+        <v>0.5923799708406194</v>
       </c>
       <c r="N731">
         <v>0.5</v>
@@ -32616,10 +32616,10 @@
         <v>0.08319194429755547</v>
       </c>
       <c r="L732">
-        <v>0.539222939300076</v>
+        <v>0.5392229393000766</v>
       </c>
       <c r="M732">
-        <v>0.8566920204510691</v>
+        <v>0.8566920204510706</v>
       </c>
       <c r="N732">
         <v>0.5</v>
@@ -32660,7 +32660,7 @@
         <v>0.1207764781398743</v>
       </c>
       <c r="L733">
-        <v>0.641544215149486</v>
+        <v>0.6415442151494866</v>
       </c>
       <c r="M733">
         <v>1</v>
@@ -32704,7 +32704,7 @@
         <v>0.1353850902591194</v>
       </c>
       <c r="L734">
-        <v>0.6705541455416691</v>
+        <v>0.6705541455416699</v>
       </c>
       <c r="M734">
         <v>1</v>
@@ -32748,7 +32748,7 @@
         <v>0.1355922874169081</v>
       </c>
       <c r="L735">
-        <v>0.7874206544964376</v>
+        <v>0.7874206544964386</v>
       </c>
       <c r="M735">
         <v>1</v>
@@ -32792,7 +32792,7 @@
         <v>0.03812810981057598</v>
       </c>
       <c r="L736">
-        <v>0.8368650431313819</v>
+        <v>0.8368650431313822</v>
       </c>
       <c r="M736">
         <v>1</v>
@@ -32836,7 +32836,7 @@
         <v>0.04121122932492859</v>
       </c>
       <c r="L737">
-        <v>0.9224843696222079</v>
+        <v>0.9224843696222089</v>
       </c>
       <c r="M737">
         <v>1</v>
@@ -32880,10 +32880,10 @@
         <v>0.02871287374605803</v>
       </c>
       <c r="L738">
-        <v>0.8840130621310182</v>
+        <v>0.8840130621310179</v>
       </c>
       <c r="M738">
-        <v>0.9580746503404935</v>
+        <v>0.9580746503404922</v>
       </c>
       <c r="N738">
         <v>0.5</v>
@@ -32924,10 +32924,10 @@
         <v>0.00627746642863636</v>
       </c>
       <c r="L739">
-        <v>0.7121479680228984</v>
+        <v>0.712147968022899</v>
       </c>
       <c r="M739">
-        <v>0.6679619949645466</v>
+        <v>0.6679619949645469</v>
       </c>
       <c r="N739">
         <v>0.5</v>
@@ -32968,10 +32968,10 @@
         <v>0.01253438041528632</v>
       </c>
       <c r="L740">
-        <v>0.8087810499973437</v>
+        <v>0.8087810499973438</v>
       </c>
       <c r="M740">
-        <v>0.7925589083679473</v>
+        <v>0.7925589083679462</v>
       </c>
       <c r="N740">
         <v>0.5</v>
@@ -33012,10 +33012,10 @@
         <v>0.0137721242376267</v>
       </c>
       <c r="L741">
-        <v>0.8647621906649691</v>
+        <v>0.8647621906649693</v>
       </c>
       <c r="M741">
-        <v>0.8493921527435639</v>
+        <v>0.8493921527435621</v>
       </c>
       <c r="N741">
         <v>0.5</v>
@@ -33056,7 +33056,7 @@
         <v>0.007379744020317084</v>
       </c>
       <c r="L742">
-        <v>0.9524660052836132</v>
+        <v>0.9524660052836136</v>
       </c>
       <c r="M742">
         <v>1</v>
@@ -33100,10 +33100,10 @@
         <v>-0.007691674379243065</v>
       </c>
       <c r="L743">
-        <v>0.8384008757862649</v>
+        <v>0.8384008757862645</v>
       </c>
       <c r="M743">
-        <v>0.5953872618138127</v>
+        <v>0.5953872618138097</v>
       </c>
       <c r="N743">
         <v>0.5</v>
@@ -33323,7 +33323,7 @@
         <v>1.136977287211524</v>
       </c>
       <c r="M748">
-        <v>0.8272441860320884</v>
+        <v>0.8272441860320882</v>
       </c>
       <c r="N748">
         <v>0.5</v>
@@ -33367,7 +33367,7 @@
         <v>1.157217283453431</v>
       </c>
       <c r="M749">
-        <v>0.8357496921073194</v>
+        <v>0.8357496921073199</v>
       </c>
       <c r="N749">
         <v>0.5</v>
@@ -33411,7 +33411,7 @@
         <v>1.140634627103597</v>
       </c>
       <c r="M750">
-        <v>0.780371400723056</v>
+        <v>0.7803714007230568</v>
       </c>
       <c r="N750">
         <v>0.5</v>
@@ -33452,10 +33452,10 @@
         <v>-0.03631299641032782</v>
       </c>
       <c r="L751">
-        <v>1.02453997835586</v>
+        <v>1.024539978355861</v>
       </c>
       <c r="M751">
-        <v>0.4806135369343759</v>
+        <v>0.4806135369343781</v>
       </c>
       <c r="N751">
         <v>0.5</v>
@@ -33496,7 +33496,7 @@
         <v>-0.1517215657385393</v>
       </c>
       <c r="L752">
-        <v>0.5538280465207014</v>
+        <v>0.5538280465207017</v>
       </c>
       <c r="M752">
         <v>0</v>
@@ -33540,7 +33540,7 @@
         <v>-0.1811792123900785</v>
       </c>
       <c r="L753">
-        <v>0.3678208070742414</v>
+        <v>0.3678208070742413</v>
       </c>
       <c r="M753">
         <v>0</v>
@@ -33584,10 +33584,10 @@
         <v>-0.1713540475600621</v>
       </c>
       <c r="L754">
-        <v>0.4365529999747993</v>
+        <v>0.4365529999747999</v>
       </c>
       <c r="M754">
-        <v>0.08011913965992876</v>
+        <v>0.08011913965992964</v>
       </c>
       <c r="N754">
         <v>0.5</v>
@@ -33628,10 +33628,10 @@
         <v>-0.172741082646086</v>
       </c>
       <c r="L755">
-        <v>0.4395792833312194</v>
+        <v>0.4395792833312196</v>
       </c>
       <c r="M755">
-        <v>0.08364679109445144</v>
+        <v>0.08364679109445181</v>
       </c>
       <c r="N755">
         <v>0.5</v>
@@ -33716,7 +33716,7 @@
         <v>-0.1813612296901331</v>
       </c>
       <c r="L757">
-        <v>0.2569616207572074</v>
+        <v>0.2569616207572076</v>
       </c>
       <c r="M757">
         <v>0</v>
@@ -33760,10 +33760,10 @@
         <v>-0.1719225925603484</v>
       </c>
       <c r="L758">
-        <v>0.3537485243866294</v>
+        <v>0.3537485243866296</v>
       </c>
       <c r="M758">
-        <v>0.1075104635715923</v>
+        <v>0.1075104635715924</v>
       </c>
       <c r="N758">
         <v>0.5</v>
@@ -33804,10 +33804,10 @@
         <v>-0.1676332872537935</v>
       </c>
       <c r="L759">
-        <v>0.409419676223443</v>
+        <v>0.4094196762234436</v>
       </c>
       <c r="M759">
-        <v>0.1725276820399714</v>
+        <v>0.1725276820399719</v>
       </c>
       <c r="N759">
         <v>0.5</v>
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="J760">
-        <v>-9.278395957555058e-05</v>
+        <v>-9.278395957555058E-05</v>
       </c>
       <c r="K760">
         <v>-0.1844379176273359</v>
@@ -33892,7 +33892,7 @@
         <v>-0.1920024202359311</v>
       </c>
       <c r="L761">
-        <v>0.1357159062324274</v>
+        <v>0.1357159062324275</v>
       </c>
       <c r="M761">
         <v>0</v>
@@ -33936,7 +33936,7 @@
         <v>-0.2169062419843426</v>
       </c>
       <c r="L762">
-        <v>-0.02974930675651873</v>
+        <v>-0.02974930675651865</v>
       </c>
       <c r="M762">
         <v>1</v>
@@ -33980,7 +33980,7 @@
         <v>-0.2105076601565032</v>
       </c>
       <c r="L763">
-        <v>0.01624909299676639</v>
+        <v>0.01624909299676619</v>
       </c>
       <c r="M763">
         <v>0</v>
@@ -34024,7 +34024,7 @@
         <v>-0.2116008207585094</v>
       </c>
       <c r="L764">
-        <v>-0.04979814451834325</v>
+        <v>-0.04979814451834308</v>
       </c>
       <c r="M764">
         <v>1</v>
@@ -34068,7 +34068,7 @@
         <v>-0.2144754518889609</v>
       </c>
       <c r="L765">
-        <v>-0.08212743495505977</v>
+        <v>-0.08212743495505954</v>
       </c>
       <c r="M765">
         <v>1</v>
@@ -34112,7 +34112,7 @@
         <v>-0.2169696328924645</v>
       </c>
       <c r="L766">
-        <v>-0.1622948465131039</v>
+        <v>-0.1622948465131036</v>
       </c>
       <c r="M766">
         <v>1</v>
@@ -34200,10 +34200,10 @@
         <v>-0.09893365224716227</v>
       </c>
       <c r="L768">
-        <v>0.1842914445413521</v>
+        <v>0.1842914445413524</v>
       </c>
       <c r="M768">
-        <v>0.4274031647166833</v>
+        <v>0.4274031647166837</v>
       </c>
       <c r="N768">
         <v>0.5</v>
@@ -34247,7 +34247,7 @@
         <v>0.03529133058254193</v>
       </c>
       <c r="M769">
-        <v>0.08905766846066886</v>
+        <v>0.08905766846066966</v>
       </c>
       <c r="N769">
         <v>0.5</v>
@@ -34288,7 +34288,7 @@
         <v>-0.0818269362763842</v>
       </c>
       <c r="L770">
-        <v>0.3308485342291141</v>
+        <v>0.3308485342291143</v>
       </c>
       <c r="M770">
         <v>1</v>
@@ -34332,7 +34332,7 @@
         <v>-0.03982908725850687</v>
       </c>
       <c r="L771">
-        <v>0.5899505697463837</v>
+        <v>0.5899505697463838</v>
       </c>
       <c r="M771">
         <v>1</v>
@@ -34379,7 +34379,7 @@
         <v>0.3293301525796342</v>
       </c>
       <c r="M772">
-        <v>0.5457212021776037</v>
+        <v>0.545721202177604</v>
       </c>
       <c r="N772">
         <v>0.5</v>
@@ -34420,10 +34420,10 @@
         <v>-0.1992834900035856</v>
       </c>
       <c r="L773">
-        <v>0.1980584450814888</v>
+        <v>0.1980584450814887</v>
       </c>
       <c r="M773">
-        <v>0.2934542562462695</v>
+        <v>0.2934542562462692</v>
       </c>
       <c r="N773">
         <v>0.5</v>
@@ -34464,10 +34464,10 @@
         <v>-0.277139538357783</v>
       </c>
       <c r="L774">
-        <v>-0.2127219909582051</v>
+        <v>-0.2127219909582052</v>
       </c>
       <c r="M774">
-        <v>0.6815538280899925</v>
+        <v>0.6815538280899934</v>
       </c>
       <c r="N774">
         <v>0.5</v>
@@ -34508,7 +34508,7 @@
         <v>-0.2792673469166217</v>
       </c>
       <c r="L775">
-        <v>-0.3386643809928284</v>
+        <v>-0.3386643809928282</v>
       </c>
       <c r="M775">
         <v>1</v>
@@ -34552,7 +34552,7 @@
         <v>-0.2423141662964387</v>
       </c>
       <c r="L776">
-        <v>-0.05623995098434114</v>
+        <v>-0.05623995098434124</v>
       </c>
       <c r="M776">
         <v>0</v>
@@ -34596,10 +34596,10 @@
         <v>-0.2630179096606837</v>
       </c>
       <c r="L777">
-        <v>-0.2750214326692921</v>
+        <v>-0.2750214326692919</v>
       </c>
       <c r="M777">
-        <v>0.7746549463811481</v>
+        <v>0.7746549463811476</v>
       </c>
       <c r="N777">
         <v>0.5</v>
@@ -34640,10 +34640,10 @@
         <v>-0.2706144970719662</v>
       </c>
       <c r="L778">
-        <v>-0.3041574037250955</v>
+        <v>-0.3041574037250954</v>
       </c>
       <c r="M778">
-        <v>0.8778187238735122</v>
+        <v>0.8778187238735127</v>
       </c>
       <c r="N778">
         <v>0.5</v>
@@ -34684,10 +34684,10 @@
         <v>-0.261608269696551</v>
       </c>
       <c r="L779">
-        <v>-0.1421638018289765</v>
+        <v>-0.1421638018289766</v>
       </c>
       <c r="M779">
-        <v>0.3042366088587068</v>
+        <v>0.3042366088587072</v>
       </c>
       <c r="N779">
         <v>0.5</v>
@@ -34728,10 +34728,10 @@
         <v>-0.2778649973258466</v>
       </c>
       <c r="L780">
-        <v>-0.2695512446475352</v>
+        <v>-0.2695512446475354</v>
       </c>
       <c r="M780">
-        <v>0.7552862677523463</v>
+        <v>0.7552862677523473</v>
       </c>
       <c r="N780">
         <v>0.5</v>
@@ -34772,10 +34772,10 @@
         <v>-0.2810241834941614</v>
       </c>
       <c r="L781">
-        <v>-0.2771825085727866</v>
+        <v>-0.2771825085727864</v>
       </c>
       <c r="M781">
-        <v>0.782306819497895</v>
+        <v>0.7823068194978945</v>
       </c>
       <c r="N781">
         <v>0.5</v>
@@ -34816,7 +34816,7 @@
         <v>-0.2748737405253092</v>
       </c>
       <c r="L782">
-        <v>-0.229198028732012</v>
+        <v>-0.2291980287320119</v>
       </c>
       <c r="M782">
         <v>0.6124048041540643</v>
@@ -34863,7 +34863,7 @@
         <v>-0.266656615285922</v>
       </c>
       <c r="M783">
-        <v>0.7450370504253387</v>
+        <v>0.7450370504253392</v>
       </c>
       <c r="N783">
         <v>0.5</v>
@@ -34907,7 +34907,7 @@
         <v>-0.2319490973343326</v>
       </c>
       <c r="M784">
-        <v>0.622145705825488</v>
+        <v>0.6221457058254883</v>
       </c>
       <c r="N784">
         <v>0.5</v>
@@ -34992,7 +34992,7 @@
         <v>-0.08519161872332046</v>
       </c>
       <c r="L786">
-        <v>0.5959369857053585</v>
+        <v>0.595936985705358</v>
       </c>
       <c r="M786">
         <v>1</v>
@@ -35036,10 +35036,10 @@
         <v>-0.09942094831620767</v>
       </c>
       <c r="L787">
-        <v>0.4459818666655668</v>
+        <v>0.445981866665567</v>
       </c>
       <c r="M787">
-        <v>0.6663337608602453</v>
+        <v>0.6663337608602465</v>
       </c>
       <c r="N787">
         <v>0.5</v>
@@ -35124,10 +35124,10 @@
         <v>-0.08078178939197742</v>
       </c>
       <c r="L789">
-        <v>0.5241981309316751</v>
+        <v>0.5241981309316754</v>
       </c>
       <c r="M789">
-        <v>0.5772576774409685</v>
+        <v>0.5772576774409689</v>
       </c>
       <c r="N789">
         <v>0.5</v>
@@ -35168,10 +35168,10 @@
         <v>-0.1461608627241425</v>
       </c>
       <c r="L790">
-        <v>0.3035100321161556</v>
+        <v>0.3035100321161554</v>
       </c>
       <c r="M790">
-        <v>0.2399491413602688</v>
+        <v>0.2399491413602685</v>
       </c>
       <c r="N790">
         <v>0.5</v>
@@ -35212,7 +35212,7 @@
         <v>-0.1452387799877331</v>
       </c>
       <c r="L791">
-        <v>0.2292726452982304</v>
+        <v>0.2292726452982305</v>
       </c>
       <c r="M791">
         <v>0.126481743687214</v>
@@ -35256,7 +35256,7 @@
         <v>-0.1664877180471388</v>
       </c>
       <c r="L792">
-        <v>-0.00727140238707315</v>
+        <v>-0.007271402387073231</v>
       </c>
       <c r="M792">
         <v>0</v>
@@ -35300,10 +35300,10 @@
         <v>-0.1671581221092225</v>
       </c>
       <c r="L793">
-        <v>-0.07935077000268338</v>
+        <v>-0.07935077000268297</v>
       </c>
       <c r="M793">
-        <v>0.3208122979565465</v>
+        <v>0.3208122979565444</v>
       </c>
       <c r="N793">
         <v>0.5</v>
@@ -35344,7 +35344,7 @@
         <v>-0.1466205248691503</v>
       </c>
       <c r="L794">
-        <v>0.01494859959064833</v>
+        <v>0.01494859959064859</v>
       </c>
       <c r="M794">
         <v>0</v>
@@ -35388,7 +35388,7 @@
         <v>-0.1524257937630416</v>
       </c>
       <c r="L795">
-        <v>-0.2002221101206476</v>
+        <v>-0.2002221101206473</v>
       </c>
       <c r="M795">
         <v>1</v>
@@ -35432,7 +35432,7 @@
         <v>-0.1548620037709759</v>
       </c>
       <c r="L796">
-        <v>-0.3806012860318347</v>
+        <v>-0.3806012860318345</v>
       </c>
       <c r="M796">
         <v>1</v>
@@ -35476,7 +35476,7 @@
         <v>-0.1640048191150866</v>
       </c>
       <c r="L797">
-        <v>-0.582529236892074</v>
+        <v>-0.5825292368920736</v>
       </c>
       <c r="M797">
         <v>1</v>
@@ -35520,7 +35520,7 @@
         <v>-0.1638368939320266</v>
       </c>
       <c r="L798">
-        <v>-0.5892552870565557</v>
+        <v>-0.5892552870565555</v>
       </c>
       <c r="M798">
         <v>1</v>
@@ -35564,10 +35564,10 @@
         <v>-0.1160351457240884</v>
       </c>
       <c r="L799">
-        <v>-0.2131054446549305</v>
+        <v>-0.2131054446549299</v>
       </c>
       <c r="M799">
-        <v>0.353676532443426</v>
+        <v>0.3536765324434251</v>
       </c>
       <c r="N799">
         <v>0.5</v>
@@ -35608,10 +35608,10 @@
         <v>-0.1244656156611838</v>
       </c>
       <c r="L800">
-        <v>-0.3867074177848947</v>
+        <v>-0.3867074177848946</v>
       </c>
       <c r="M800">
-        <v>0.651969969260075</v>
+        <v>0.6519699692600749</v>
       </c>
       <c r="N800">
         <v>0.5</v>
@@ -35652,7 +35652,7 @@
         <v>-0.13692441438927</v>
       </c>
       <c r="L801">
-        <v>-0.595691426097687</v>
+        <v>-0.5956914260976873</v>
       </c>
       <c r="M801">
         <v>1</v>
@@ -35696,7 +35696,7 @@
         <v>-0.1650692597278996</v>
       </c>
       <c r="L802">
-        <v>-0.9716915771091581</v>
+        <v>-0.9716915771091578</v>
       </c>
       <c r="M802">
         <v>1</v>
@@ -35740,10 +35740,10 @@
         <v>-0.1684187020230552</v>
       </c>
       <c r="L803">
-        <v>-0.8505071480853197</v>
+        <v>-0.8505071480853198</v>
       </c>
       <c r="M803">
-        <v>0.8429174008701977</v>
+        <v>0.8429174008701983</v>
       </c>
       <c r="N803">
         <v>0.5</v>
@@ -35784,7 +35784,7 @@
         <v>-0.2385178615457228</v>
       </c>
       <c r="L804">
-        <v>-1.420908622561525</v>
+        <v>-1.420908622561526</v>
       </c>
       <c r="M804">
         <v>1</v>
@@ -35831,7 +35831,7 @@
         <v>-1.354759207366407</v>
       </c>
       <c r="M805">
-        <v>0.9452316268038217</v>
+        <v>0.9452316268038216</v>
       </c>
       <c r="N805">
         <v>0.5</v>
@@ -35916,7 +35916,7 @@
         <v>-0.2777934651635257</v>
       </c>
       <c r="L807">
-        <v>-2.418524494034403</v>
+        <v>-2.418524494034404</v>
       </c>
       <c r="M807">
         <v>1</v>
@@ -35960,10 +35960,10 @@
         <v>-0.1983719279187684</v>
       </c>
       <c r="L808">
-        <v>-1.677631250287555</v>
+        <v>-1.677631250287556</v>
       </c>
       <c r="M808">
-        <v>0.6640578379173294</v>
+        <v>0.6640578379173296</v>
       </c>
       <c r="N808">
         <v>0.5</v>
@@ -36007,7 +36007,7 @@
         <v>-1.867176429949133</v>
       </c>
       <c r="M809">
-        <v>0.7286428633117931</v>
+        <v>0.7286428633117933</v>
       </c>
       <c r="N809">
         <v>0.5</v>
@@ -36136,7 +36136,7 @@
         <v>-0.05650411751537852</v>
       </c>
       <c r="L812">
-        <v>-0.4056289949475326</v>
+        <v>-0.4056289949475329</v>
       </c>
       <c r="M812">
         <v>0</v>
@@ -36180,10 +36180,10 @@
         <v>-0.1384095733926916</v>
       </c>
       <c r="L813">
-        <v>-0.9725290288432543</v>
+        <v>-0.9725290288432542</v>
       </c>
       <c r="M813">
-        <v>0.2816341107389281</v>
+        <v>0.2816341107389279</v>
       </c>
       <c r="N813">
         <v>0.5</v>
@@ -36227,7 +36227,7 @@
         <v>-1.249981212514737</v>
       </c>
       <c r="M814">
-        <v>0.4194714618569302</v>
+        <v>0.4194714618569299</v>
       </c>
       <c r="N814">
         <v>0.5</v>
@@ -36271,7 +36271,7 @@
         <v>-1.293032053531889</v>
       </c>
       <c r="M815">
-        <v>0.4408589809987243</v>
+        <v>0.4408589809987242</v>
       </c>
       <c r="N815">
         <v>0.5</v>
@@ -36315,7 +36315,7 @@
         <v>-1.244909010873687</v>
       </c>
       <c r="M816">
-        <v>0.4169516084202508</v>
+        <v>0.4169516084202505</v>
       </c>
       <c r="N816">
         <v>0.5</v>
@@ -36400,10 +36400,10 @@
         <v>-0.227980246900316</v>
       </c>
       <c r="L818">
-        <v>-1.517829172733692</v>
+        <v>-1.517829172733691</v>
       </c>
       <c r="M818">
-        <v>0.7609743968282094</v>
+        <v>0.7609743968282086</v>
       </c>
       <c r="N818">
         <v>0.5</v>
@@ -36444,10 +36444,10 @@
         <v>-0.2561030550740764</v>
       </c>
       <c r="L819">
-        <v>-1.510092028658508</v>
+        <v>-1.510092028658509</v>
       </c>
       <c r="M819">
-        <v>0.9930433889242993</v>
+        <v>0.9930433889243006</v>
       </c>
       <c r="N819">
         <v>0.5</v>
